--- a/output.xlsx
+++ b/output.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C195"/>
+  <dimension ref="A1:E183"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,30 +434,47 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>MP</t>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>ROA</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="B2" t="n">
-        <v>112.45</v>
+        <v>718</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7603092783505154</v>
+        <v>2.22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5730027548209367</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="B3" t="n">
-        <v>662.9299999999999</v>
+        <v>840.6</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9175257731958762</v>
+        <v>118.9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17.76</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -465,10 +482,16 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>176.48</v>
+        <v>78.16</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5541237113402062</v>
+        <v>-12.23</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-2.49</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8347107438016529</v>
       </c>
     </row>
     <row r="5">
@@ -476,10 +499,16 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>111.03</v>
+        <v>192.51</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7654639175257731</v>
+        <v>5.26</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6473829201101928</v>
       </c>
     </row>
     <row r="6">
@@ -487,10 +516,16 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>120.45</v>
+        <v>934.73</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7396907216494846</v>
+        <v>-13.79</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.8622589531680441</v>
       </c>
     </row>
     <row r="7">
@@ -498,10 +533,16 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>150.22</v>
+        <v>71.94</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6365979381443299</v>
+        <v>-3.84</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-1.04</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.7355371900826446</v>
       </c>
     </row>
     <row r="8">
@@ -509,21 +550,33 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>132.71</v>
+        <v>151.53</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6829896907216495</v>
+        <v>12.08</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.43</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6363636363636364</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="B9" t="n">
-        <v>2675.96</v>
+        <v>72.63</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>37.72</v>
+      </c>
+      <c r="D9" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.931129476584022</v>
       </c>
     </row>
     <row r="10">
@@ -531,10 +584,16 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>772.78</v>
+        <v>101.52</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9252577319587629</v>
+        <v>-21.76</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.95</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8264462809917356</v>
       </c>
     </row>
     <row r="11">
@@ -542,10 +601,16 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>125.16</v>
+        <v>598.0700000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7164948453608248</v>
+        <v>-7.8</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7162534435261708</v>
       </c>
     </row>
     <row r="12">
@@ -553,10 +618,16 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>145.94</v>
+        <v>118.22</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6520618556701031</v>
+        <v>-9.869999999999999</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6611570247933884</v>
       </c>
     </row>
     <row r="13">
@@ -564,32 +635,50 @@
         <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>151.98</v>
+        <v>121.25</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6288659793814433</v>
+        <v>4.66</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-1.02</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6942148760330579</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="B14" t="n">
-        <v>449.95</v>
+        <v>168.71</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8917525773195877</v>
+        <v>5.13</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.512396694214876</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="B15" t="n">
-        <v>271.78</v>
+        <v>160.28</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5927835051546392</v>
+        <v>23.99</v>
+      </c>
+      <c r="D15" t="n">
+        <v>8.18</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.6391184573002755</v>
       </c>
     </row>
     <row r="16">
@@ -597,10 +686,16 @@
         <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>135.45</v>
+        <v>118.57</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6726804123711341</v>
+        <v>-17.75</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-2.69</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.859504132231405</v>
       </c>
     </row>
     <row r="17">
@@ -608,10 +703,16 @@
         <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>78.73</v>
+        <v>265.51</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8221649484536082</v>
+        <v>-9.81</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0.88</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7410468319559229</v>
       </c>
     </row>
     <row r="18">
@@ -619,10 +720,16 @@
         <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>100.7</v>
+        <v>271.76</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7835051546391752</v>
+        <v>-12.26</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.5647382920110193</v>
       </c>
     </row>
     <row r="19">
@@ -630,10 +737,16 @@
         <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>120.58</v>
+        <v>91.23</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7371134020618557</v>
+        <v>-9.49</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-0.58</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.7327823691460055</v>
       </c>
     </row>
     <row r="20">
@@ -641,10 +754,16 @@
         <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>149.97</v>
+        <v>1379.36</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6391752577319587</v>
+        <v>5.95</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.9173553719008265</v>
       </c>
     </row>
     <row r="21">
@@ -652,10 +771,16 @@
         <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>1380.97</v>
+        <v>242.97</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9690721649484536</v>
+        <v>2.63</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-1.94</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.7630853994490359</v>
       </c>
     </row>
     <row r="22">
@@ -663,10 +788,16 @@
         <v>0</v>
       </c>
       <c r="B22" t="n">
-        <v>122.1</v>
+        <v>50.47</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7319587628865979</v>
+        <v>-20.67</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-7.44</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.9338842975206612</v>
       </c>
     </row>
     <row r="23">
@@ -674,10 +805,16 @@
         <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>192.14</v>
+        <v>16.76</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5103092783505154</v>
+        <v>9.42</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.5950413223140496</v>
       </c>
     </row>
     <row r="24">
@@ -685,21 +822,33 @@
         <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>475.91</v>
+        <v>191.1</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8943298969072165</v>
+        <v>-18.74</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-4.51</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.8980716253443526</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="B25" t="n">
-        <v>251.97</v>
+        <v>982.3099999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5335051546391752</v>
+        <v>-1.1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="26">
@@ -707,10 +856,16 @@
         <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>326.96</v>
+        <v>126.54</v>
       </c>
       <c r="C26" t="n">
-        <v>0.770618556701031</v>
+        <v>-0.77</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.6253443526170799</v>
       </c>
     </row>
     <row r="27">
@@ -718,32 +873,50 @@
         <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>131.3</v>
+        <v>186.58</v>
       </c>
       <c r="C27" t="n">
-        <v>0.6932989690721649</v>
+        <v>-0.24</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.509641873278237</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="B28" t="n">
-        <v>160.12</v>
+        <v>130.82</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6056701030927835</v>
+        <v>-17.32</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.6115702479338843</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>1102.12</v>
+        <v>117.49</v>
       </c>
       <c r="C29" t="n">
-        <v>0.9458762886597938</v>
+        <v>6.46</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.6170798898071626</v>
       </c>
     </row>
     <row r="30">
@@ -751,10 +924,16 @@
         <v>0</v>
       </c>
       <c r="B30" t="n">
-        <v>134.48</v>
+        <v>341.82</v>
       </c>
       <c r="C30" t="n">
-        <v>0.6778350515463918</v>
+        <v>-14.27</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.7520661157024794</v>
       </c>
     </row>
     <row r="31">
@@ -762,10 +941,16 @@
         <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>35.85</v>
+        <v>76.98</v>
       </c>
       <c r="C31" t="n">
-        <v>0.8634020618556701</v>
+        <v>-9.23</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.5619834710743802</v>
       </c>
     </row>
     <row r="32">
@@ -773,10 +958,16 @@
         <v>0</v>
       </c>
       <c r="B32" t="n">
-        <v>244.84</v>
+        <v>243.72</v>
       </c>
       <c r="C32" t="n">
-        <v>0.5154639175257731</v>
+        <v>-0.49</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-1.08</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.7024793388429752</v>
       </c>
     </row>
     <row r="33">
@@ -784,10 +975,16 @@
         <v>0</v>
       </c>
       <c r="B33" t="n">
-        <v>146.26</v>
+        <v>1247.15</v>
       </c>
       <c r="C33" t="n">
-        <v>0.6494845360824743</v>
+        <v>0.41</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.90633608815427</v>
       </c>
     </row>
     <row r="34">
@@ -795,10 +992,16 @@
         <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>129.29</v>
+        <v>116.6</v>
       </c>
       <c r="C34" t="n">
-        <v>0.6984536082474226</v>
+        <v>-8.380000000000001</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-0.57</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.7079889807162535</v>
       </c>
     </row>
     <row r="35">
@@ -806,10 +1009,16 @@
         <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>153.06</v>
+        <v>1855.29</v>
       </c>
       <c r="C35" t="n">
-        <v>0.6237113402061856</v>
+        <v>1.94</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.953168044077135</v>
       </c>
     </row>
     <row r="36">
@@ -817,10 +1026,16 @@
         <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>184.22</v>
+        <v>180.4</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5309278350515464</v>
+        <v>-4.36</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.6776859504132231</v>
       </c>
     </row>
     <row r="37">
@@ -828,10 +1043,16 @@
         <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>125.45</v>
+        <v>168.37</v>
       </c>
       <c r="C37" t="n">
-        <v>0.7139175257731959</v>
+        <v>-5.44</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-2.47</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.8044077134986226</v>
       </c>
     </row>
     <row r="38">
@@ -839,10 +1060,16 @@
         <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>125.11</v>
+        <v>247.85</v>
       </c>
       <c r="C38" t="n">
-        <v>0.7190721649484536</v>
+        <v>-6.94</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-1.41</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.7548209366391184</v>
       </c>
     </row>
     <row r="39">
@@ -850,10 +1077,16 @@
         <v>0</v>
       </c>
       <c r="B39" t="n">
-        <v>168.16</v>
+        <v>249.59</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5850515463917526</v>
+        <v>-10.06</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.6721763085399449</v>
       </c>
     </row>
     <row r="40">
@@ -861,10 +1094,16 @@
         <v>0</v>
       </c>
       <c r="B40" t="n">
-        <v>915.1799999999999</v>
+        <v>70.06</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9381443298969072</v>
+        <v>5.67</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.5785123966942148</v>
       </c>
     </row>
     <row r="41">
@@ -872,9 +1111,15 @@
         <v>0</v>
       </c>
       <c r="B41" t="n">
-        <v>7215.22</v>
+        <v>6580.26</v>
       </c>
       <c r="C41" t="n">
+        <v>-2.25</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -883,21 +1128,33 @@
         <v>0</v>
       </c>
       <c r="B42" t="n">
-        <v>15.63</v>
+        <v>1789.9</v>
       </c>
       <c r="C42" t="n">
-        <v>0.8762886597938144</v>
+        <v>-4.69</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.9504132231404959</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
       <c r="B43" t="n">
-        <v>1596.22</v>
+        <v>167.84</v>
       </c>
       <c r="C43" t="n">
-        <v>0.9716494845360825</v>
+        <v>-3.54</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.559228650137741</v>
       </c>
     </row>
     <row r="44">
@@ -905,10 +1162,16 @@
         <v>0</v>
       </c>
       <c r="B44" t="n">
-        <v>131.38</v>
+        <v>36.15</v>
       </c>
       <c r="C44" t="n">
-        <v>0.6881443298969072</v>
+        <v>-11.63</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-2.95</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.8484848484848485</v>
       </c>
     </row>
     <row r="45">
@@ -916,10 +1179,16 @@
         <v>0</v>
       </c>
       <c r="B45" t="n">
-        <v>2686.3</v>
+        <v>649.91</v>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>-8.66</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.768595041322314</v>
       </c>
     </row>
     <row r="46">
@@ -927,10 +1196,16 @@
         <v>0</v>
       </c>
       <c r="B46" t="n">
-        <v>68.34</v>
+        <v>453.24</v>
       </c>
       <c r="C46" t="n">
-        <v>0.8376288659793815</v>
+        <v>-3.94</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.5068870523415978</v>
       </c>
     </row>
     <row r="47">
@@ -938,10 +1213,16 @@
         <v>0</v>
       </c>
       <c r="B47" t="n">
-        <v>275.5</v>
+        <v>169.08</v>
       </c>
       <c r="C47" t="n">
-        <v>0.5979381443298969</v>
+        <v>-4.56</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-0.54</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.6831955922865014</v>
       </c>
     </row>
     <row r="48">
@@ -949,10 +1230,16 @@
         <v>0</v>
       </c>
       <c r="B48" t="n">
-        <v>114.76</v>
+        <v>53.01</v>
       </c>
       <c r="C48" t="n">
-        <v>0.7525773195876289</v>
+        <v>-4.17</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-3.61</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.8567493112947658</v>
       </c>
     </row>
     <row r="49">
@@ -960,10 +1247,16 @@
         <v>0</v>
       </c>
       <c r="B49" t="n">
-        <v>261.83</v>
+        <v>22.23</v>
       </c>
       <c r="C49" t="n">
-        <v>0.5618556701030928</v>
+        <v>9.81</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.6060606060606061</v>
       </c>
     </row>
     <row r="50">
@@ -971,21 +1264,33 @@
         <v>0</v>
       </c>
       <c r="B50" t="n">
-        <v>10424.13</v>
+        <v>457.87</v>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>116.94</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-2.04</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.9696969696969697</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>662.0599999999999</v>
+        <v>254.41</v>
       </c>
       <c r="C51" t="n">
-        <v>0.8711340206185567</v>
+        <v>-8.67</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.6418732782369146</v>
       </c>
     </row>
     <row r="52">
@@ -993,10 +1298,16 @@
         <v>0</v>
       </c>
       <c r="B52" t="n">
-        <v>113.12</v>
+        <v>126.14</v>
       </c>
       <c r="C52" t="n">
-        <v>0.7577319587628866</v>
+        <v>45.6</v>
+      </c>
+      <c r="D52" t="n">
+        <v>19.79</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.9641873278236914</v>
       </c>
     </row>
     <row r="53">
@@ -1004,10 +1315,16 @@
         <v>0</v>
       </c>
       <c r="B53" t="n">
-        <v>252.11</v>
+        <v>202.42</v>
       </c>
       <c r="C53" t="n">
-        <v>0.538659793814433</v>
+        <v>-55.04</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-2.9</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.9421487603305785</v>
       </c>
     </row>
     <row r="54">
@@ -1015,21 +1332,33 @@
         <v>0</v>
       </c>
       <c r="B54" t="n">
-        <v>180.66</v>
+        <v>109.5</v>
       </c>
       <c r="C54" t="n">
-        <v>0.5438144329896907</v>
+        <v>67.15000000000001</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-4.24</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.9449035812672176</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.24</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="B55" t="n">
-        <v>4899</v>
+        <v>197.07</v>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>75.45</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.928374655647383</v>
       </c>
     </row>
     <row r="56">
@@ -1037,10 +1366,16 @@
         <v>0</v>
       </c>
       <c r="B56" t="n">
-        <v>88.45</v>
+        <v>130.74</v>
       </c>
       <c r="C56" t="n">
-        <v>0.8067010309278351</v>
+        <v>-3.73</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.628099173553719</v>
       </c>
     </row>
     <row r="57">
@@ -1048,21 +1383,33 @@
         <v>0</v>
       </c>
       <c r="B57" t="n">
-        <v>173.75</v>
+        <v>32.41</v>
       </c>
       <c r="C57" t="n">
-        <v>0.5695876288659794</v>
+        <v>5.8</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-0.78</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.6914600550964187</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="B58" t="n">
-        <v>1100.14</v>
+        <v>118.69</v>
       </c>
       <c r="C58" t="n">
-        <v>0.9484536082474226</v>
+        <v>17.2</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.5922865013774105</v>
       </c>
     </row>
     <row r="59">
@@ -1070,10 +1417,16 @@
         <v>0</v>
       </c>
       <c r="B59" t="n">
-        <v>178.19</v>
+        <v>231.3</v>
       </c>
       <c r="C59" t="n">
-        <v>0.5489690721649485</v>
+        <v>-15.88</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.7382920110192838</v>
       </c>
     </row>
     <row r="60">
@@ -1081,10 +1434,16 @@
         <v>0</v>
       </c>
       <c r="B60" t="n">
-        <v>399.11</v>
+        <v>1104.38</v>
       </c>
       <c r="C60" t="n">
-        <v>0.8608247422680413</v>
+        <v>11.04</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.8512396694214877</v>
       </c>
     </row>
     <row r="61">
@@ -1092,10 +1451,16 @@
         <v>0</v>
       </c>
       <c r="B61" t="n">
-        <v>2420.71</v>
+        <v>134.82</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>-29.74</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-4.95</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.9256198347107438</v>
       </c>
     </row>
     <row r="62">
@@ -1103,21 +1468,33 @@
         <v>0</v>
       </c>
       <c r="B62" t="n">
-        <v>131.13</v>
+        <v>121.56</v>
       </c>
       <c r="C62" t="n">
-        <v>0.6958762886597938</v>
+        <v>-3.48</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.5399449035812672</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="B63" t="n">
-        <v>141.62</v>
+        <v>271.89</v>
       </c>
       <c r="C63" t="n">
-        <v>0.6649484536082474</v>
+        <v>163.34</v>
+      </c>
+      <c r="D63" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="E63" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -1125,10 +1502,16 @@
         <v>0</v>
       </c>
       <c r="B64" t="n">
-        <v>30.96</v>
+        <v>3390.59</v>
       </c>
       <c r="C64" t="n">
-        <v>0.8685567010309279</v>
+        <v>1.3</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="E64" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -1136,10 +1519,16 @@
         <v>0</v>
       </c>
       <c r="B65" t="n">
-        <v>198.6</v>
+        <v>69.11</v>
       </c>
       <c r="C65" t="n">
-        <v>0.5025773195876289</v>
+        <v>-10.6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>-1.86</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.7988980716253443</v>
       </c>
     </row>
     <row r="66">
@@ -1147,10 +1536,16 @@
         <v>0</v>
       </c>
       <c r="B66" t="n">
-        <v>173.78</v>
+        <v>101.06</v>
       </c>
       <c r="C66" t="n">
-        <v>0.5644329896907216</v>
+        <v>-3.08</v>
+      </c>
+      <c r="D66" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.6446280991735537</v>
       </c>
     </row>
     <row r="67">
@@ -1158,32 +1553,50 @@
         <v>0</v>
       </c>
       <c r="B67" t="n">
-        <v>50.36</v>
+        <v>405.29</v>
       </c>
       <c r="C67" t="n">
-        <v>0.8530927835051546</v>
+        <v>-7.44</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.5509641873278237</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1.03</v>
+        <v>0.84</v>
       </c>
       <c r="B68" t="n">
-        <v>686.16</v>
+        <v>982.48</v>
       </c>
       <c r="C68" t="n">
-        <v>0.9072164948453608</v>
+        <v>-6.89</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.7741046831955923</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="B69" t="n">
-        <v>1202.63</v>
+        <v>500.28</v>
       </c>
       <c r="C69" t="n">
-        <v>0.9510309278350515</v>
+        <v>-25.12</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-1.64</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.8705234159779615</v>
       </c>
     </row>
     <row r="70">
@@ -1191,10 +1604,16 @@
         <v>0</v>
       </c>
       <c r="B70" t="n">
-        <v>166.77</v>
+        <v>933.4400000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>0.5876288659793815</v>
+        <v>3.02</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.7878787878787878</v>
       </c>
     </row>
     <row r="71">
@@ -1202,10 +1621,16 @@
         <v>0</v>
       </c>
       <c r="B71" t="n">
-        <v>101.07</v>
+        <v>193.37</v>
       </c>
       <c r="C71" t="n">
-        <v>0.7809278350515464</v>
+        <v>0.9</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-0.61</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.6584022038567493</v>
       </c>
     </row>
     <row r="72">
@@ -1213,10 +1638,16 @@
         <v>0</v>
       </c>
       <c r="B72" t="n">
-        <v>866.71</v>
+        <v>79.81999999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>0.9329896907216495</v>
+        <v>-5.54</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-4.98</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.8925619834710744</v>
       </c>
     </row>
     <row r="73">
@@ -1224,10 +1655,16 @@
         <v>0</v>
       </c>
       <c r="B73" t="n">
-        <v>445.34</v>
+        <v>164.19</v>
       </c>
       <c r="C73" t="n">
-        <v>0.884020618556701</v>
+        <v>2.45</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-1.75</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.7465564738292011</v>
       </c>
     </row>
     <row r="74">
@@ -1235,10 +1672,16 @@
         <v>0</v>
       </c>
       <c r="B74" t="n">
-        <v>118.54</v>
+        <v>7932.71</v>
       </c>
       <c r="C74" t="n">
-        <v>0.7448453608247423</v>
+        <v>25.93</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-0.41</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -1246,10 +1689,16 @@
         <v>0</v>
       </c>
       <c r="B75" t="n">
-        <v>69.98</v>
+        <v>129.71</v>
       </c>
       <c r="C75" t="n">
-        <v>0.8324742268041238</v>
+        <v>-2.04</v>
+      </c>
+      <c r="D75" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.6088154269972452</v>
       </c>
     </row>
     <row r="76">
@@ -1257,10 +1706,16 @@
         <v>0</v>
       </c>
       <c r="B76" t="n">
-        <v>109.7</v>
+        <v>445.1</v>
       </c>
       <c r="C76" t="n">
-        <v>0.7680412371134021</v>
+        <v>-1.89</v>
+      </c>
+      <c r="D76" t="n">
+        <v>-1.41</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.7493112947658402</v>
       </c>
     </row>
     <row r="77">
@@ -1268,21 +1723,33 @@
         <v>0</v>
       </c>
       <c r="B77" t="n">
-        <v>287.76</v>
+        <v>116.52</v>
       </c>
       <c r="C77" t="n">
-        <v>0.6469072164948454</v>
+        <v>-20.17</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-0.8100000000000001</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.8071625344352618</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="B78" t="n">
-        <v>1015.04</v>
+        <v>127.39</v>
       </c>
       <c r="C78" t="n">
-        <v>0.9355670103092784</v>
+        <v>33.38</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-9.75</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.9586776859504132</v>
       </c>
     </row>
     <row r="79">
@@ -1290,10 +1757,16 @@
         <v>0</v>
       </c>
       <c r="B79" t="n">
-        <v>124.03</v>
+        <v>120.81</v>
       </c>
       <c r="C79" t="n">
-        <v>0.7268041237113402</v>
+        <v>50.04</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.8677685950413223</v>
       </c>
     </row>
     <row r="80">
@@ -1301,10 +1774,16 @@
         <v>0</v>
       </c>
       <c r="B80" t="n">
-        <v>355.2</v>
+        <v>73.25</v>
       </c>
       <c r="C80" t="n">
-        <v>0.8195876288659794</v>
+        <v>-4.25</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.6143250688705234</v>
       </c>
     </row>
     <row r="81">
@@ -1312,10 +1791,16 @@
         <v>0</v>
       </c>
       <c r="B81" t="n">
-        <v>115.29</v>
+        <v>144.27</v>
       </c>
       <c r="C81" t="n">
-        <v>0.75</v>
+        <v>17.7</v>
+      </c>
+      <c r="D81" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.6556473829201102</v>
       </c>
     </row>
     <row r="82">
@@ -1323,10 +1808,16 @@
         <v>0</v>
       </c>
       <c r="B82" t="n">
-        <v>168.98</v>
+        <v>145.14</v>
       </c>
       <c r="C82" t="n">
-        <v>0.5798969072164949</v>
+        <v>-5.09</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.5537190082644629</v>
       </c>
     </row>
     <row r="83">
@@ -1334,10 +1825,16 @@
         <v>0</v>
       </c>
       <c r="B83" t="n">
-        <v>143.96</v>
+        <v>31.75</v>
       </c>
       <c r="C83" t="n">
-        <v>0.6597938144329897</v>
+        <v>-7.74</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.6749311294765841</v>
       </c>
     </row>
     <row r="84">
@@ -1345,10 +1842,16 @@
         <v>0</v>
       </c>
       <c r="B84" t="n">
-        <v>575.23</v>
+        <v>154.61</v>
       </c>
       <c r="C84" t="n">
-        <v>0.9097938144329897</v>
+        <v>50.99</v>
+      </c>
+      <c r="D84" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.8815426997245179</v>
       </c>
     </row>
     <row r="85">
@@ -1356,10 +1859,16 @@
         <v>0</v>
       </c>
       <c r="B85" t="n">
-        <v>789.71</v>
+        <v>85.33</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9278350515463918</v>
+        <v>9.44</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.5482093663911846</v>
       </c>
     </row>
     <row r="86">
@@ -1367,10 +1876,16 @@
         <v>0</v>
       </c>
       <c r="B86" t="n">
-        <v>102.9</v>
+        <v>114.47</v>
       </c>
       <c r="C86" t="n">
-        <v>0.7757731958762887</v>
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-2.36</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.790633608815427</v>
       </c>
     </row>
     <row r="87">
@@ -1378,10 +1893,16 @@
         <v>0</v>
       </c>
       <c r="B87" t="n">
-        <v>90.54000000000001</v>
+        <v>272.83</v>
       </c>
       <c r="C87" t="n">
-        <v>0.7989690721649485</v>
+        <v>-15.04</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.650137741046832</v>
       </c>
     </row>
     <row r="88">
@@ -1389,10 +1910,16 @@
         <v>0</v>
       </c>
       <c r="B88" t="n">
-        <v>667.16</v>
+        <v>1278.17</v>
       </c>
       <c r="C88" t="n">
-        <v>0.9201030927835051</v>
+        <v>-7.26</v>
+      </c>
+      <c r="D88" t="n">
+        <v>-1.66</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.9201101928374655</v>
       </c>
     </row>
     <row r="89">
@@ -1400,32 +1927,50 @@
         <v>0</v>
       </c>
       <c r="B89" t="n">
-        <v>190.56</v>
+        <v>146.01</v>
       </c>
       <c r="C89" t="n">
-        <v>0.5180412371134021</v>
+        <v>-4.97</v>
+      </c>
+      <c r="D89" t="n">
+        <v>-1.04</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.7245179063360881</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="B90" t="n">
-        <v>307.85</v>
+        <v>1033.44</v>
       </c>
       <c r="C90" t="n">
-        <v>0.7010309278350515</v>
+        <v>-14.52</v>
+      </c>
+      <c r="D90" t="n">
+        <v>-2.73</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.8953168044077136</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="B91" t="n">
-        <v>94.42</v>
+        <v>287.77</v>
       </c>
       <c r="C91" t="n">
-        <v>0.6855670103092784</v>
+        <v>-10.71</v>
+      </c>
+      <c r="D91" t="n">
+        <v>-2.15</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.8099173553719008</v>
       </c>
     </row>
     <row r="92">
@@ -1433,21 +1978,33 @@
         <v>0</v>
       </c>
       <c r="B92" t="n">
-        <v>65.13</v>
+        <v>126.04</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8427835051546392</v>
+        <v>-4.06</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.5013774104683195</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="B93" t="n">
-        <v>447.67</v>
+        <v>219.77</v>
       </c>
       <c r="C93" t="n">
-        <v>0.8865979381443299</v>
+        <v>-9.529999999999999</v>
+      </c>
+      <c r="D93" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.5234159779614325</v>
       </c>
     </row>
     <row r="94">
@@ -1455,10 +2012,16 @@
         <v>0</v>
       </c>
       <c r="B94" t="n">
-        <v>173.77</v>
+        <v>175.59</v>
       </c>
       <c r="C94" t="n">
-        <v>0.5670103092783505</v>
+        <v>1.37</v>
+      </c>
+      <c r="D94" t="n">
+        <v>-1.34</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.7107438016528925</v>
       </c>
     </row>
     <row r="95">
@@ -1466,21 +2029,33 @@
         <v>0</v>
       </c>
       <c r="B95" t="n">
-        <v>2965.57</v>
+        <v>122.38</v>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>-3.74</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.5151515151515151</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="B96" t="n">
-        <v>66.81</v>
+        <v>445.31</v>
       </c>
       <c r="C96" t="n">
-        <v>0.8402061855670103</v>
+        <v>40.59</v>
+      </c>
+      <c r="D96" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.6639118457300276</v>
       </c>
     </row>
     <row r="97">
@@ -1488,10 +2063,16 @@
         <v>0</v>
       </c>
       <c r="B97" t="n">
-        <v>118.92</v>
+        <v>168.38</v>
       </c>
       <c r="C97" t="n">
-        <v>0.7422680412371134</v>
+        <v>7.9</v>
+      </c>
+      <c r="D97" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.5757575757575758</v>
       </c>
     </row>
     <row r="98">
@@ -1499,10 +2080,16 @@
         <v>0</v>
       </c>
       <c r="B98" t="n">
-        <v>162.39</v>
+        <v>260.59</v>
       </c>
       <c r="C98" t="n">
-        <v>0.595360824742268</v>
+        <v>-9.970000000000001</v>
+      </c>
+      <c r="D98" t="n">
+        <v>-2.47</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.8236914600550964</v>
       </c>
     </row>
     <row r="99">
@@ -1510,10 +2097,16 @@
         <v>0</v>
       </c>
       <c r="B99" t="n">
-        <v>60.15</v>
+        <v>154.31</v>
       </c>
       <c r="C99" t="n">
-        <v>0.8479381443298969</v>
+        <v>-16.83</v>
+      </c>
+      <c r="D99" t="n">
+        <v>-1.63</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.8209366391184573</v>
       </c>
     </row>
     <row r="100">
@@ -1521,10 +2114,16 @@
         <v>0</v>
       </c>
       <c r="B100" t="n">
-        <v>182.66</v>
+        <v>251.28</v>
       </c>
       <c r="C100" t="n">
-        <v>0.5412371134020618</v>
+        <v>-5.04</v>
+      </c>
+      <c r="D100" t="n">
+        <v>-2.15</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.7823691460055097</v>
       </c>
     </row>
     <row r="101">
@@ -1532,10 +2131,16 @@
         <v>0</v>
       </c>
       <c r="B101" t="n">
-        <v>986.33</v>
+        <v>137.39</v>
       </c>
       <c r="C101" t="n">
-        <v>0.9432989690721649</v>
+        <v>11.68</v>
+      </c>
+      <c r="D101" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.6225895316804407</v>
       </c>
     </row>
     <row r="102">
@@ -1543,10 +2148,16 @@
         <v>0</v>
       </c>
       <c r="B102" t="n">
-        <v>142.34</v>
+        <v>127.98</v>
       </c>
       <c r="C102" t="n">
-        <v>0.6623711340206185</v>
+        <v>79.06</v>
+      </c>
+      <c r="D102" t="n">
+        <v>-2.58</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.9559228650137741</v>
       </c>
     </row>
     <row r="103">
@@ -1554,10 +2165,16 @@
         <v>0</v>
       </c>
       <c r="B103" t="n">
-        <v>521.8099999999999</v>
+        <v>67.73</v>
       </c>
       <c r="C103" t="n">
-        <v>0.8994845360824743</v>
+        <v>1.86</v>
+      </c>
+      <c r="D103" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.6336088154269972</v>
       </c>
     </row>
     <row r="104">
@@ -1565,10 +2182,16 @@
         <v>0</v>
       </c>
       <c r="B104" t="n">
-        <v>168.7</v>
+        <v>698.9400000000001</v>
       </c>
       <c r="C104" t="n">
-        <v>0.5824742268041238</v>
+        <v>-16.04</v>
+      </c>
+      <c r="D104" t="n">
+        <v>-3.99</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.9035812672176309</v>
       </c>
     </row>
     <row r="105">
@@ -1576,10 +2199,16 @@
         <v>0</v>
       </c>
       <c r="B105" t="n">
-        <v>124.92</v>
+        <v>59.91</v>
       </c>
       <c r="C105" t="n">
-        <v>0.7216494845360825</v>
+        <v>-7.56</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.5840220385674931</v>
       </c>
     </row>
     <row r="106">
@@ -1587,10 +2216,16 @@
         <v>0</v>
       </c>
       <c r="B106" t="n">
-        <v>1173.76</v>
+        <v>144.14</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9536082474226805</v>
+        <v>-6.29</v>
+      </c>
+      <c r="D106" t="n">
+        <v>-0.55</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.696969696969697</v>
       </c>
     </row>
     <row r="107">
@@ -1598,10 +2233,16 @@
         <v>0</v>
       </c>
       <c r="B107" t="n">
-        <v>75.98999999999999</v>
+        <v>901.4299999999999</v>
       </c>
       <c r="C107" t="n">
-        <v>0.8247422680412371</v>
+        <v>-2.46</v>
+      </c>
+      <c r="D107" t="n">
+        <v>-3.34</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.8870523415977961</v>
       </c>
     </row>
     <row r="108">
@@ -1609,10 +2250,16 @@
         <v>0</v>
       </c>
       <c r="B108" t="n">
-        <v>1278.22</v>
+        <v>458.93</v>
       </c>
       <c r="C108" t="n">
-        <v>0.9587628865979382</v>
+        <v>-1.35</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.5674931129476584</v>
       </c>
     </row>
     <row r="109">
@@ -1620,10 +2267,16 @@
         <v>0</v>
       </c>
       <c r="B109" t="n">
-        <v>249.9</v>
+        <v>82.75</v>
       </c>
       <c r="C109" t="n">
-        <v>0.5231958762886598</v>
+        <v>6.08</v>
+      </c>
+      <c r="D109" t="n">
+        <v>-1.78</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.7603305785123967</v>
       </c>
     </row>
     <row r="110">
@@ -1631,10 +2284,16 @@
         <v>0</v>
       </c>
       <c r="B110" t="n">
-        <v>157.28</v>
+        <v>765.61</v>
       </c>
       <c r="C110" t="n">
-        <v>0.615979381443299</v>
+        <v>-14.61</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.8126721763085399</v>
       </c>
     </row>
     <row r="111">
@@ -1642,10 +2301,16 @@
         <v>0</v>
       </c>
       <c r="B111" t="n">
-        <v>114.01</v>
+        <v>342.25</v>
       </c>
       <c r="C111" t="n">
-        <v>0.7551546391752577</v>
+        <v>-9.279999999999999</v>
+      </c>
+      <c r="D111" t="n">
+        <v>-2.14</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.8016528925619835</v>
       </c>
     </row>
     <row r="112">
@@ -1653,10 +2318,16 @@
         <v>0</v>
       </c>
       <c r="B112" t="n">
-        <v>128.18</v>
+        <v>9.69</v>
       </c>
       <c r="C112" t="n">
-        <v>0.7036082474226805</v>
+        <v>-20.86</v>
+      </c>
+      <c r="D112" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.8760330578512396</v>
       </c>
     </row>
     <row r="113">
@@ -1664,10 +2335,16 @@
         <v>0</v>
       </c>
       <c r="B113" t="n">
-        <v>159.52</v>
+        <v>248.5</v>
       </c>
       <c r="C113" t="n">
-        <v>0.6082474226804123</v>
+        <v>-14.17</v>
+      </c>
+      <c r="D113" t="n">
+        <v>-1.17</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.7768595041322314</v>
       </c>
     </row>
     <row r="114">
@@ -1675,10 +2352,16 @@
         <v>0</v>
       </c>
       <c r="B114" t="n">
-        <v>339.97</v>
+        <v>64.73</v>
       </c>
       <c r="C114" t="n">
-        <v>0.788659793814433</v>
+        <v>-13.43</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.6997245179063361</v>
       </c>
     </row>
     <row r="115">
@@ -1686,10 +2369,16 @@
         <v>0</v>
       </c>
       <c r="B115" t="n">
-        <v>144.42</v>
+        <v>1290.78</v>
       </c>
       <c r="C115" t="n">
-        <v>0.6572164948453608</v>
+        <v>0.4</v>
+      </c>
+      <c r="D115" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.9090909090909091</v>
       </c>
     </row>
     <row r="116">
@@ -1697,21 +2386,33 @@
         <v>0</v>
       </c>
       <c r="B116" t="n">
-        <v>127.16</v>
+        <v>467.82</v>
       </c>
       <c r="C116" t="n">
-        <v>0.7061855670103093</v>
+        <v>-6.74</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.6859504132231405</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="B117" t="n">
-        <v>799.61</v>
+        <v>147.7</v>
       </c>
       <c r="C117" t="n">
-        <v>0.9226804123711341</v>
+        <v>-16.85</v>
+      </c>
+      <c r="D117" t="n">
+        <v>-1.47</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.8154269972451791</v>
       </c>
     </row>
     <row r="118">
@@ -1719,10 +2420,16 @@
         <v>0</v>
       </c>
       <c r="B118" t="n">
-        <v>263.94</v>
+        <v>1078.55</v>
       </c>
       <c r="C118" t="n">
-        <v>0.5747422680412371</v>
+        <v>-4.02</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.8539944903581267</v>
       </c>
     </row>
     <row r="119">
@@ -1730,32 +2437,50 @@
         <v>0</v>
       </c>
       <c r="B119" t="n">
-        <v>148.92</v>
+        <v>7137.3</v>
       </c>
       <c r="C119" t="n">
-        <v>0.6417525773195877</v>
+        <v>0.57</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="E119" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="B120" t="n">
-        <v>432.96</v>
+        <v>99.48999999999999</v>
       </c>
       <c r="C120" t="n">
-        <v>0.8788659793814433</v>
+        <v>-1.49</v>
+      </c>
+      <c r="D120" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.5977961432506887</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="B121" t="n">
-        <v>166</v>
+        <v>2907.97</v>
       </c>
       <c r="C121" t="n">
-        <v>0.5902061855670103</v>
+        <v>-4.67</v>
+      </c>
+      <c r="D121" t="n">
+        <v>-0.54</v>
+      </c>
+      <c r="E121" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -1763,10 +2488,16 @@
         <v>0</v>
       </c>
       <c r="B122" t="n">
-        <v>89</v>
+        <v>333.62</v>
       </c>
       <c r="C122" t="n">
-        <v>0.8041237113402062</v>
+        <v>-12.54</v>
+      </c>
+      <c r="D122" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.7300275482093664</v>
       </c>
     </row>
     <row r="123">
@@ -1774,21 +2505,33 @@
         <v>0</v>
       </c>
       <c r="B123" t="n">
-        <v>148.83</v>
+        <v>246.62</v>
       </c>
       <c r="C123" t="n">
-        <v>0.6443298969072165</v>
+        <v>-3.94</v>
+      </c>
+      <c r="D123" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="B124" t="n">
-        <v>191.5</v>
+        <v>360.92</v>
       </c>
       <c r="C124" t="n">
-        <v>0.5128865979381443</v>
+        <v>-9.16</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.5316804407713499</v>
       </c>
     </row>
     <row r="125">
@@ -1796,10 +2539,16 @@
         <v>0</v>
       </c>
       <c r="B125" t="n">
-        <v>541.6</v>
+        <v>249.4</v>
       </c>
       <c r="C125" t="n">
-        <v>0.9020618556701031</v>
+        <v>19.25</v>
+      </c>
+      <c r="D125" t="n">
+        <v>-1.03</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.7134986225895317</v>
       </c>
     </row>
     <row r="126">
@@ -1807,21 +2556,33 @@
         <v>0</v>
       </c>
       <c r="B126" t="n">
-        <v>69.84</v>
+        <v>137.55</v>
       </c>
       <c r="C126" t="n">
-        <v>0.8350515463917526</v>
+        <v>10.54</v>
+      </c>
+      <c r="D126" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.5702479338842975</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="B127" t="n">
-        <v>124.84</v>
+        <v>140.61</v>
       </c>
       <c r="C127" t="n">
-        <v>0.7242268041237113</v>
+        <v>17.97</v>
+      </c>
+      <c r="D127" t="n">
+        <v>12.86</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.8842975206611571</v>
       </c>
     </row>
     <row r="128">
@@ -1829,10 +2590,16 @@
         <v>0</v>
       </c>
       <c r="B128" t="n">
-        <v>363.7</v>
+        <v>172.66</v>
       </c>
       <c r="C128" t="n">
-        <v>0.8298969072164949</v>
+        <v>0.58</v>
+      </c>
+      <c r="D128" t="n">
+        <v>-1.98</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.7658402203856749</v>
       </c>
     </row>
     <row r="129">
@@ -1840,10 +2607,16 @@
         <v>0</v>
       </c>
       <c r="B129" t="n">
-        <v>104.79</v>
+        <v>87.42</v>
       </c>
       <c r="C129" t="n">
-        <v>0.7731958762886598</v>
+        <v>-11.42</v>
+      </c>
+      <c r="D129" t="n">
+        <v>-1.67</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.7933884297520661</v>
       </c>
     </row>
     <row r="130">
@@ -1851,10 +2624,16 @@
         <v>0</v>
       </c>
       <c r="B130" t="n">
-        <v>444.62</v>
+        <v>998.53</v>
       </c>
       <c r="C130" t="n">
-        <v>0.8814432989690721</v>
+        <v>-1.56</v>
+      </c>
+      <c r="D130" t="n">
+        <v>-0.87</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.8650137741046832</v>
       </c>
     </row>
     <row r="131">
@@ -1862,10 +2641,16 @@
         <v>0</v>
       </c>
       <c r="B131" t="n">
-        <v>264.87</v>
+        <v>123.47</v>
       </c>
       <c r="C131" t="n">
-        <v>0.5773195876288659</v>
+        <v>-5.78</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.6005509641873278</v>
       </c>
     </row>
     <row r="132">
@@ -1873,10 +2658,16 @@
         <v>0</v>
       </c>
       <c r="B132" t="n">
-        <v>97.18000000000001</v>
+        <v>2510.92</v>
       </c>
       <c r="C132" t="n">
-        <v>0.7860824742268041</v>
+        <v>40.7</v>
+      </c>
+      <c r="D132" t="n">
+        <v>-5.25</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -1884,10 +2675,16 @@
         <v>0</v>
       </c>
       <c r="B133" t="n">
-        <v>1320.03</v>
+        <v>193.64</v>
       </c>
       <c r="C133" t="n">
-        <v>0.9639175257731959</v>
+        <v>-7.23</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.5371900826446281</v>
       </c>
     </row>
     <row r="134">
@@ -1895,10 +2692,16 @@
         <v>0</v>
       </c>
       <c r="B134" t="n">
-        <v>284.2</v>
+        <v>53.82</v>
       </c>
       <c r="C134" t="n">
-        <v>0.6314432989690721</v>
+        <v>-9.75</v>
+      </c>
+      <c r="D134" t="n">
+        <v>-1.49</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.7796143250688705</v>
       </c>
     </row>
     <row r="135">
@@ -1906,10 +2709,16 @@
         <v>0</v>
       </c>
       <c r="B135" t="n">
-        <v>46.66</v>
+        <v>89.45</v>
       </c>
       <c r="C135" t="n">
-        <v>0.8582474226804123</v>
+        <v>3.8</v>
+      </c>
+      <c r="D135" t="n">
+        <v>15.39</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.9393939393939394</v>
       </c>
     </row>
     <row r="136">
@@ -1917,21 +2726,33 @@
         <v>0</v>
       </c>
       <c r="B136" t="n">
-        <v>126.35</v>
+        <v>172.02</v>
       </c>
       <c r="C136" t="n">
-        <v>0.711340206185567</v>
+        <v>15.12</v>
+      </c>
+      <c r="D136" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.5867768595041323</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="B137" t="n">
-        <v>1353.51</v>
+        <v>166.24</v>
       </c>
       <c r="C137" t="n">
-        <v>0.9664948453608248</v>
+        <v>56.1</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.837465564738292</v>
       </c>
     </row>
     <row r="138">
@@ -1939,10 +2760,16 @@
         <v>0</v>
       </c>
       <c r="B138" t="n">
-        <v>75.92</v>
+        <v>460.74</v>
       </c>
       <c r="C138" t="n">
-        <v>0.8273195876288659</v>
+        <v>-4.84</v>
+      </c>
+      <c r="D138" t="n">
+        <v>-4.43</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.8787878787878788</v>
       </c>
     </row>
     <row r="139">
@@ -1950,10 +2777,16 @@
         <v>0</v>
       </c>
       <c r="B139" t="n">
-        <v>84.59999999999999</v>
+        <v>107.04</v>
       </c>
       <c r="C139" t="n">
-        <v>0.8118556701030928</v>
+        <v>-8.869999999999999</v>
+      </c>
+      <c r="D139" t="n">
+        <v>-0.61</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.721763085399449</v>
       </c>
     </row>
     <row r="140">
@@ -1961,10 +2794,16 @@
         <v>0</v>
       </c>
       <c r="B140" t="n">
-        <v>16.6</v>
+        <v>152.08</v>
       </c>
       <c r="C140" t="n">
-        <v>0.8737113402061856</v>
+        <v>8</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.5261707988980716</v>
       </c>
     </row>
     <row r="141">
@@ -1972,32 +2811,50 @@
         <v>0</v>
       </c>
       <c r="B141" t="n">
-        <v>137.96</v>
+        <v>10546.27</v>
       </c>
       <c r="C141" t="n">
-        <v>0.6701030927835051</v>
+        <v>9.68</v>
+      </c>
+      <c r="D141" t="n">
+        <v>-6.39</v>
+      </c>
+      <c r="E141" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="B142" t="n">
-        <v>5936.01</v>
+        <v>237.86</v>
       </c>
       <c r="C142" t="n">
-        <v>1</v>
+        <v>103.1</v>
+      </c>
+      <c r="D142" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.9614325068870524</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0</v>
+        <v>0.77</v>
       </c>
       <c r="B143" t="n">
-        <v>345.15</v>
+        <v>212.56</v>
       </c>
       <c r="C143" t="n">
-        <v>0.7963917525773195</v>
+        <v>-15.72</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.5206611570247934</v>
       </c>
     </row>
     <row r="144">
@@ -2005,21 +2862,33 @@
         <v>0</v>
       </c>
       <c r="B144" t="n">
-        <v>139.03</v>
+        <v>160.96</v>
       </c>
       <c r="C144" t="n">
-        <v>0.6675257731958762</v>
+        <v>18.73</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="B145" t="n">
-        <v>1317.16</v>
+        <v>147.05</v>
       </c>
       <c r="C145" t="n">
-        <v>0.961340206185567</v>
+        <v>56.5</v>
+      </c>
+      <c r="D145" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.8181818181818182</v>
       </c>
     </row>
     <row r="146">
@@ -2027,10 +2896,16 @@
         <v>0</v>
       </c>
       <c r="B146" t="n">
-        <v>160.28</v>
+        <v>108.16</v>
       </c>
       <c r="C146" t="n">
-        <v>0.6030927835051546</v>
+        <v>16.34</v>
+      </c>
+      <c r="D146" t="n">
+        <v>-6.6</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.9228650137741047</v>
       </c>
     </row>
     <row r="147">
@@ -2038,10 +2913,16 @@
         <v>0</v>
       </c>
       <c r="B147" t="n">
-        <v>145.57</v>
+        <v>410.02</v>
       </c>
       <c r="C147" t="n">
-        <v>0.654639175257732</v>
+        <v>-14.68</v>
+      </c>
+      <c r="D147" t="n">
+        <v>-2.03</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.8292011019283747</v>
       </c>
     </row>
     <row r="148">
@@ -2049,21 +2930,33 @@
         <v>0</v>
       </c>
       <c r="B148" t="n">
-        <v>281.56</v>
+        <v>303.4</v>
       </c>
       <c r="C148" t="n">
-        <v>0.6211340206185567</v>
+        <v>-34.51</v>
+      </c>
+      <c r="D148" t="n">
+        <v>-1.89</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.8898071625344353</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="B149" t="n">
-        <v>178.98</v>
+        <v>804.58</v>
       </c>
       <c r="C149" t="n">
-        <v>0.5463917525773195</v>
+        <v>1.9</v>
+      </c>
+      <c r="D149" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.5564738292011019</v>
       </c>
     </row>
     <row r="150">
@@ -2071,21 +2964,33 @@
         <v>0</v>
       </c>
       <c r="B150" t="n">
-        <v>284.37</v>
+        <v>102.67</v>
       </c>
       <c r="C150" t="n">
-        <v>0.634020618556701</v>
+        <v>-3.29</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.581267217630854</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0.42</v>
+        <v>1.64</v>
       </c>
       <c r="B151" t="n">
-        <v>945.62</v>
+        <v>1318.7</v>
       </c>
       <c r="C151" t="n">
-        <v>0.9407216494845361</v>
+        <v>112.51</v>
+      </c>
+      <c r="D151" t="n">
+        <v>50.37</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -2093,10 +2998,16 @@
         <v>0</v>
       </c>
       <c r="B152" t="n">
-        <v>158.95</v>
+        <v>42.11</v>
       </c>
       <c r="C152" t="n">
-        <v>0.6134020618556701</v>
+        <v>-0.49</v>
+      </c>
+      <c r="D152" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.6308539944903582</v>
       </c>
     </row>
     <row r="153">
@@ -2104,10 +3015,16 @@
         <v>0</v>
       </c>
       <c r="B153" t="n">
-        <v>111.91</v>
+        <v>251.97</v>
       </c>
       <c r="C153" t="n">
-        <v>0.7628865979381443</v>
+        <v>0.3</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.5179063360881543</v>
       </c>
     </row>
     <row r="154">
@@ -2115,10 +3032,16 @@
         <v>0</v>
       </c>
       <c r="B154" t="n">
-        <v>242.66</v>
+        <v>355.8</v>
       </c>
       <c r="C154" t="n">
-        <v>0.5051546391752577</v>
+        <v>-6.21</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.6033057851239669</v>
       </c>
     </row>
     <row r="155">
@@ -2126,10 +3049,16 @@
         <v>0</v>
       </c>
       <c r="B155" t="n">
-        <v>552.47</v>
+        <v>319.53</v>
       </c>
       <c r="C155" t="n">
-        <v>0.904639175257732</v>
+        <v>-1.11</v>
+      </c>
+      <c r="D155" t="n">
+        <v>-0.84</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0.6887052341597796</v>
       </c>
     </row>
     <row r="156">
@@ -2137,10 +3066,16 @@
         <v>0</v>
       </c>
       <c r="B156" t="n">
-        <v>261.16</v>
+        <v>125.63</v>
       </c>
       <c r="C156" t="n">
-        <v>0.5592783505154639</v>
+        <v>-3.2</v>
+      </c>
+      <c r="D156" t="n">
+        <v>-2.18</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0.7851239669421488</v>
       </c>
     </row>
     <row r="157">
@@ -2148,10 +3083,16 @@
         <v>0</v>
       </c>
       <c r="B157" t="n">
-        <v>134.92</v>
+        <v>1246.53</v>
       </c>
       <c r="C157" t="n">
-        <v>0.6752577319587629</v>
+        <v>64.34999999999999</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0.9476584022038568</v>
       </c>
     </row>
     <row r="158">
@@ -2159,10 +3100,16 @@
         <v>0</v>
       </c>
       <c r="B158" t="n">
-        <v>158.98</v>
+        <v>216.61</v>
       </c>
       <c r="C158" t="n">
-        <v>0.6108247422680413</v>
+        <v>-10.06</v>
+      </c>
+      <c r="D158" t="n">
+        <v>-3.78</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0.8732782369146006</v>
       </c>
     </row>
     <row r="159">
@@ -2170,10 +3117,16 @@
         <v>0</v>
       </c>
       <c r="B159" t="n">
-        <v>250.76</v>
+        <v>157.64</v>
       </c>
       <c r="C159" t="n">
-        <v>0.5283505154639175</v>
+        <v>41.54</v>
+      </c>
+      <c r="D159" t="n">
+        <v>-0.57</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0.8429752066115702</v>
       </c>
     </row>
     <row r="160">
@@ -2181,10 +3134,16 @@
         <v>0</v>
       </c>
       <c r="B160" t="n">
-        <v>155</v>
+        <v>561.95</v>
       </c>
       <c r="C160" t="n">
-        <v>0.6185567010309279</v>
+        <v>-3.71</v>
+      </c>
+      <c r="D160" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0.7713498622589532</v>
       </c>
     </row>
     <row r="161">
@@ -2192,10 +3151,16 @@
         <v>0</v>
       </c>
       <c r="B161" t="n">
-        <v>177.58</v>
+        <v>128.47</v>
       </c>
       <c r="C161" t="n">
-        <v>0.5515463917525774</v>
+        <v>9.1</v>
+      </c>
+      <c r="D161" t="n">
+        <v>-1.6</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.7438016528925619</v>
       </c>
     </row>
     <row r="162">
@@ -2203,31 +3168,49 @@
         <v>0</v>
       </c>
       <c r="B162" t="n">
-        <v>152.73</v>
+        <v>146.15</v>
       </c>
       <c r="C162" t="n">
-        <v>0.6262886597938144</v>
+        <v>36.42</v>
+      </c>
+      <c r="D162" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0.7961432506887053</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="B163" t="n">
-        <v>866.16</v>
+        <v>274.9</v>
       </c>
       <c r="C163" t="n">
-        <v>0.9304123711340206</v>
+        <v>-10.79</v>
+      </c>
+      <c r="D163" t="n">
+        <v>-4.12</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.8457300275482094</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>1.66</v>
+        <v>0.79</v>
       </c>
       <c r="B164" t="n">
-        <v>1933.67</v>
+        <v>3652.14</v>
       </c>
       <c r="C164" t="n">
+        <v>-0.82</v>
+      </c>
+      <c r="D164" t="n">
+        <v>-1.11</v>
+      </c>
+      <c r="E164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2236,10 +3219,16 @@
         <v>0</v>
       </c>
       <c r="B165" t="n">
-        <v>190.31</v>
+        <v>155.54</v>
       </c>
       <c r="C165" t="n">
-        <v>0.520618556701031</v>
+        <v>-25.02</v>
+      </c>
+      <c r="D165" t="n">
+        <v>-0.74</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.8319559228650137</v>
       </c>
     </row>
     <row r="166">
@@ -2247,10 +3236,16 @@
         <v>0</v>
       </c>
       <c r="B166" t="n">
-        <v>243.74</v>
+        <v>642.5</v>
       </c>
       <c r="C166" t="n">
-        <v>0.5077319587628866</v>
+        <v>-11.31</v>
+      </c>
+      <c r="D166" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.7272727272727273</v>
       </c>
     </row>
     <row r="167">
@@ -2258,10 +3253,16 @@
         <v>0</v>
       </c>
       <c r="B167" t="n">
-        <v>313.69</v>
+        <v>212.12</v>
       </c>
       <c r="C167" t="n">
-        <v>0.729381443298969</v>
+        <v>-14.34</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.6804407713498623</v>
       </c>
     </row>
     <row r="168">
@@ -2269,10 +3270,16 @@
         <v>0</v>
       </c>
       <c r="B168" t="n">
-        <v>631.53</v>
+        <v>438.53</v>
       </c>
       <c r="C168" t="n">
-        <v>0.9149484536082474</v>
+        <v>-14.71</v>
+      </c>
+      <c r="D168" t="n">
+        <v>-2.38</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.8402203856749312</v>
       </c>
     </row>
     <row r="169">
@@ -2280,21 +3287,33 @@
         <v>0</v>
       </c>
       <c r="B169" t="n">
-        <v>33.59</v>
+        <v>120.83</v>
       </c>
       <c r="C169" t="n">
-        <v>0.865979381443299</v>
+        <v>17.46</v>
+      </c>
+      <c r="D169" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.6528925619834711</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.77</v>
+        <v>0</v>
       </c>
       <c r="B170" t="n">
-        <v>582.09</v>
+        <v>163.73</v>
       </c>
       <c r="C170" t="n">
-        <v>0.8969072164948454</v>
+        <v>-0.74</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.5289256198347108</v>
       </c>
     </row>
     <row r="171">
@@ -2302,10 +3321,16 @@
         <v>0</v>
       </c>
       <c r="B171" t="n">
-        <v>160.57</v>
+        <v>74.02</v>
       </c>
       <c r="C171" t="n">
-        <v>0.6005154639175257</v>
+        <v>-6.14</v>
+      </c>
+      <c r="D171" t="n">
+        <v>-14.68</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.9669421487603306</v>
       </c>
     </row>
     <row r="172">
@@ -2313,21 +3338,33 @@
         <v>0</v>
       </c>
       <c r="B172" t="n">
-        <v>345.58</v>
+        <v>164.54</v>
       </c>
       <c r="C172" t="n">
-        <v>0.8015463917525774</v>
+        <v>13.26</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.5041322314049587</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="B173" t="n">
-        <v>184.04</v>
+        <v>322.66</v>
       </c>
       <c r="C173" t="n">
-        <v>0.5360824742268041</v>
+        <v>67.77</v>
+      </c>
+      <c r="D173" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0.9118457300275482</v>
       </c>
     </row>
     <row r="174">
@@ -2335,10 +3372,16 @@
         <v>0</v>
       </c>
       <c r="B174" t="n">
-        <v>81.11</v>
+        <v>72.56999999999999</v>
       </c>
       <c r="C174" t="n">
-        <v>0.8170103092783505</v>
+        <v>2.18</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0.5426997245179064</v>
       </c>
     </row>
     <row r="175">
@@ -2346,10 +3389,16 @@
         <v>0</v>
       </c>
       <c r="B175" t="n">
-        <v>58.7</v>
+        <v>1361.77</v>
       </c>
       <c r="C175" t="n">
-        <v>0.8505154639175257</v>
+        <v>16.71</v>
+      </c>
+      <c r="D175" t="n">
+        <v>-4.15</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0.9366391184573003</v>
       </c>
     </row>
     <row r="176">
@@ -2357,10 +3406,16 @@
         <v>0</v>
       </c>
       <c r="B176" t="n">
-        <v>1274.82</v>
+        <v>152.19</v>
       </c>
       <c r="C176" t="n">
-        <v>0.9561855670103093</v>
+        <v>-14.1</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0.71900826446281</v>
       </c>
     </row>
     <row r="177">
@@ -2368,32 +3423,50 @@
         <v>0</v>
       </c>
       <c r="B177" t="n">
-        <v>92.25</v>
+        <v>187.42</v>
       </c>
       <c r="C177" t="n">
-        <v>0.7938144329896907</v>
+        <v>-5.39</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0.5895316804407713</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="B178" t="n">
-        <v>126.36</v>
+        <v>388.12</v>
       </c>
       <c r="C178" t="n">
-        <v>0.7087628865979382</v>
+        <v>-13.7</v>
+      </c>
+      <c r="D178" t="n">
+        <v>-3.19</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0.7052341597796143</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0.38</v>
+        <v>0.45</v>
       </c>
       <c r="B179" t="n">
-        <v>2670.31</v>
+        <v>150.93</v>
       </c>
       <c r="C179" t="n">
-        <v>1</v>
+        <v>-2.32</v>
+      </c>
+      <c r="D179" t="n">
+        <v>-1.14</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0.6694214876033058</v>
       </c>
     </row>
     <row r="180">
@@ -2401,21 +3474,33 @@
         <v>0</v>
       </c>
       <c r="B180" t="n">
-        <v>101.4</v>
+        <v>156.41</v>
       </c>
       <c r="C180" t="n">
-        <v>0.7783505154639175</v>
+        <v>-1.45</v>
+      </c>
+      <c r="D180" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0.6198347107438017</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="B181" t="n">
-        <v>81.26000000000001</v>
+        <v>172.83</v>
       </c>
       <c r="C181" t="n">
-        <v>0.8144329896907216</v>
+        <v>68.61</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0.9146005509641874</v>
       </c>
     </row>
     <row r="182">
@@ -2423,10 +3508,16 @@
         <v>0</v>
       </c>
       <c r="B182" t="n">
-        <v>618.96</v>
+        <v>332.55</v>
       </c>
       <c r="C182" t="n">
-        <v>0.9123711340206185</v>
+        <v>-33.6</v>
+      </c>
+      <c r="D182" t="n">
+        <v>-2.55</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0.9008264462809917</v>
       </c>
     </row>
     <row r="183">
@@ -2434,142 +3525,16 @@
         <v>0</v>
       </c>
       <c r="B183" t="n">
-        <v>116.52</v>
+        <v>236.57</v>
       </c>
       <c r="C183" t="n">
-        <v>0.7474226804123711</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="n">
-        <v>0</v>
-      </c>
-      <c r="B184" t="n">
-        <v>301.76</v>
-      </c>
-      <c r="C184" t="n">
-        <v>0.6804123711340206</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="n">
-        <v>0</v>
-      </c>
-      <c r="B185" t="n">
-        <v>9506.860000000001</v>
-      </c>
-      <c r="C185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="n">
-        <v>0</v>
-      </c>
-      <c r="B186" t="n">
-        <v>121.23</v>
-      </c>
-      <c r="C186" t="n">
-        <v>0.7345360824742269</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="n">
-        <v>0</v>
-      </c>
-      <c r="B187" t="n">
-        <v>185.42</v>
-      </c>
-      <c r="C187" t="n">
-        <v>0.5257731958762887</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="n">
-        <v>0</v>
-      </c>
-      <c r="B188" t="n">
-        <v>131.35</v>
-      </c>
-      <c r="C188" t="n">
-        <v>0.6907216494845361</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="n">
-        <v>0</v>
-      </c>
-      <c r="B189" t="n">
-        <v>47.22</v>
-      </c>
-      <c r="C189" t="n">
-        <v>0.8556701030927835</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="n">
-        <v>0</v>
-      </c>
-      <c r="B190" t="n">
-        <v>94.45</v>
-      </c>
-      <c r="C190" t="n">
-        <v>0.7912371134020618</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="n">
-        <v>0</v>
-      </c>
-      <c r="B191" t="n">
-        <v>176.29</v>
-      </c>
-      <c r="C191" t="n">
-        <v>0.5567010309278351</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="n">
-        <v>0</v>
-      </c>
-      <c r="B192" t="n">
-        <v>60.51</v>
-      </c>
-      <c r="C192" t="n">
-        <v>0.845360824742268</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="n">
-        <v>0</v>
-      </c>
-      <c r="B193" t="n">
-        <v>263.43</v>
-      </c>
-      <c r="C193" t="n">
-        <v>0.5721649484536082</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="n">
-        <v>0</v>
-      </c>
-      <c r="B194" t="n">
-        <v>85.67</v>
-      </c>
-      <c r="C194" t="n">
-        <v>0.8092783505154639</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="B195" t="n">
-        <v>541.99</v>
-      </c>
-      <c r="C195" t="n">
-        <v>0.8891752577319587</v>
+        <v>-2.58</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0.5344352617079889</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -442,6 +442,11 @@
           <t>ROA</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -457,7 +462,7 @@
         <v>0.86</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5730027548209367</v>
+        <v>1.745192307692308</v>
       </c>
     </row>
     <row r="3">
@@ -491,7 +496,7 @@
         <v>-2.49</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8347107438016529</v>
+        <v>1.198019801980198</v>
       </c>
     </row>
     <row r="5">
@@ -508,7 +513,7 @@
         <v>7.6</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6473829201101928</v>
+        <v>1.54468085106383</v>
       </c>
     </row>
     <row r="6">
@@ -525,7 +530,7 @@
         <v>-0.34</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8622589531680441</v>
+        <v>1.159744408945687</v>
       </c>
     </row>
     <row r="7">
@@ -542,7 +547,7 @@
         <v>-1.04</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7355371900826446</v>
+        <v>1.359550561797753</v>
       </c>
     </row>
     <row r="8">
@@ -559,7 +564,7 @@
         <v>-0.43</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6363636363636364</v>
+        <v>1.571428571428571</v>
       </c>
     </row>
     <row r="9">
@@ -576,7 +581,7 @@
         <v>14.99</v>
       </c>
       <c r="E9" t="n">
-        <v>0.931129476584022</v>
+        <v>1.07396449704142</v>
       </c>
     </row>
     <row r="10">
@@ -593,7 +598,7 @@
         <v>-0.95</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8264462809917356</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="11">
@@ -610,7 +615,7 @@
         <v>0.22</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7162534435261708</v>
+        <v>1.396153846153846</v>
       </c>
     </row>
     <row r="12">
@@ -627,7 +632,7 @@
         <v>0.48</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6611570247933884</v>
+        <v>1.5125</v>
       </c>
     </row>
     <row r="13">
@@ -644,7 +649,7 @@
         <v>-1.02</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6942148760330579</v>
+        <v>1.44047619047619</v>
       </c>
     </row>
     <row r="14">
@@ -661,7 +666,7 @@
         <v>0.09</v>
       </c>
       <c r="E14" t="n">
-        <v>0.512396694214876</v>
+        <v>1.951612903225807</v>
       </c>
     </row>
     <row r="15">
@@ -678,7 +683,7 @@
         <v>8.18</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6391184573002755</v>
+        <v>1.564655172413793</v>
       </c>
     </row>
     <row r="16">
@@ -695,7 +700,7 @@
         <v>-2.69</v>
       </c>
       <c r="E16" t="n">
-        <v>0.859504132231405</v>
+        <v>1.163461538461538</v>
       </c>
     </row>
     <row r="17">
@@ -712,7 +717,7 @@
         <v>-0.88</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7410468319559229</v>
+        <v>1.349442379182156</v>
       </c>
     </row>
     <row r="18">
@@ -729,7 +734,7 @@
         <v>1.6</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5647382920110193</v>
+        <v>1.770731707317073</v>
       </c>
     </row>
     <row r="19">
@@ -746,7 +751,7 @@
         <v>-0.58</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7327823691460055</v>
+        <v>1.364661654135338</v>
       </c>
     </row>
     <row r="20">
@@ -763,7 +768,7 @@
         <v>-0.35</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9173553719008265</v>
+        <v>1.09009009009009</v>
       </c>
     </row>
     <row r="21">
@@ -780,7 +785,7 @@
         <v>-1.94</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7630853994490359</v>
+        <v>1.310469314079422</v>
       </c>
     </row>
     <row r="22">
@@ -797,7 +802,7 @@
         <v>-7.44</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9338842975206612</v>
+        <v>1.070796460176991</v>
       </c>
     </row>
     <row r="23">
@@ -814,7 +819,7 @@
         <v>0.14</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5950413223140496</v>
+        <v>1.680555555555556</v>
       </c>
     </row>
     <row r="24">
@@ -831,7 +836,7 @@
         <v>-4.51</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8980716253443526</v>
+        <v>1.113496932515337</v>
       </c>
     </row>
     <row r="25">
@@ -848,7 +853,7 @@
         <v>1.02</v>
       </c>
       <c r="E25" t="n">
-        <v>0.7575757575757576</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="26">
@@ -865,7 +870,7 @@
         <v>-0.2</v>
       </c>
       <c r="E26" t="n">
-        <v>0.6253443526170799</v>
+        <v>1.599118942731278</v>
       </c>
     </row>
     <row r="27">
@@ -882,7 +887,7 @@
         <v>0.42</v>
       </c>
       <c r="E27" t="n">
-        <v>0.509641873278237</v>
+        <v>1.962162162162162</v>
       </c>
     </row>
     <row r="28">
@@ -899,7 +904,7 @@
         <v>-0.21</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6115702479338843</v>
+        <v>1.635135135135135</v>
       </c>
     </row>
     <row r="29">
@@ -916,7 +921,7 @@
         <v>-0.34</v>
       </c>
       <c r="E29" t="n">
-        <v>0.6170798898071626</v>
+        <v>1.620535714285714</v>
       </c>
     </row>
     <row r="30">
@@ -933,7 +938,7 @@
         <v>-0.51</v>
       </c>
       <c r="E30" t="n">
-        <v>0.7520661157024794</v>
+        <v>1.32967032967033</v>
       </c>
     </row>
     <row r="31">
@@ -950,7 +955,7 @@
         <v>1.35</v>
       </c>
       <c r="E31" t="n">
-        <v>0.5619834710743802</v>
+        <v>1.779411764705882</v>
       </c>
     </row>
     <row r="32">
@@ -967,7 +972,7 @@
         <v>-1.08</v>
       </c>
       <c r="E32" t="n">
-        <v>0.7024793388429752</v>
+        <v>1.423529411764706</v>
       </c>
     </row>
     <row r="33">
@@ -984,7 +989,7 @@
         <v>-0.96</v>
       </c>
       <c r="E33" t="n">
-        <v>0.90633608815427</v>
+        <v>1.103343465045593</v>
       </c>
     </row>
     <row r="34">
@@ -1001,7 +1006,7 @@
         <v>-0.57</v>
       </c>
       <c r="E34" t="n">
-        <v>0.7079889807162535</v>
+        <v>1.412451361867704</v>
       </c>
     </row>
     <row r="35">
@@ -1018,7 +1023,7 @@
         <v>2.63</v>
       </c>
       <c r="E35" t="n">
-        <v>0.953168044077135</v>
+        <v>1.049132947976879</v>
       </c>
     </row>
     <row r="36">
@@ -1035,7 +1040,7 @@
         <v>-0.51</v>
       </c>
       <c r="E36" t="n">
-        <v>0.6776859504132231</v>
+        <v>1.475609756097561</v>
       </c>
     </row>
     <row r="37">
@@ -1052,7 +1057,7 @@
         <v>-2.47</v>
       </c>
       <c r="E37" t="n">
-        <v>0.8044077134986226</v>
+        <v>1.243150684931507</v>
       </c>
     </row>
     <row r="38">
@@ -1069,7 +1074,7 @@
         <v>-1.41</v>
       </c>
       <c r="E38" t="n">
-        <v>0.7548209366391184</v>
+        <v>1.324817518248175</v>
       </c>
     </row>
     <row r="39">
@@ -1086,7 +1091,7 @@
         <v>0.14</v>
       </c>
       <c r="E39" t="n">
-        <v>0.6721763085399449</v>
+        <v>1.487704918032787</v>
       </c>
     </row>
     <row r="40">
@@ -1103,7 +1108,7 @@
         <v>-0.01</v>
       </c>
       <c r="E40" t="n">
-        <v>0.5785123966942148</v>
+        <v>1.728571428571429</v>
       </c>
     </row>
     <row r="41">
@@ -1137,7 +1142,7 @@
         <v>1.32</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9504132231404959</v>
+        <v>1.052173913043478</v>
       </c>
     </row>
     <row r="43">
@@ -1154,7 +1159,7 @@
         <v>0.3</v>
       </c>
       <c r="E43" t="n">
-        <v>0.559228650137741</v>
+        <v>1.788177339901478</v>
       </c>
     </row>
     <row r="44">
@@ -1171,7 +1176,7 @@
         <v>-2.95</v>
       </c>
       <c r="E44" t="n">
-        <v>0.8484848484848485</v>
+        <v>1.178571428571429</v>
       </c>
     </row>
     <row r="45">
@@ -1188,7 +1193,7 @@
         <v>-0.35</v>
       </c>
       <c r="E45" t="n">
-        <v>0.768595041322314</v>
+        <v>1.301075268817204</v>
       </c>
     </row>
     <row r="46">
@@ -1205,7 +1210,7 @@
         <v>1.33</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5068870523415978</v>
+        <v>1.972826086956522</v>
       </c>
     </row>
     <row r="47">
@@ -1222,7 +1227,7 @@
         <v>-0.54</v>
       </c>
       <c r="E47" t="n">
-        <v>0.6831955922865014</v>
+        <v>1.463709677419355</v>
       </c>
     </row>
     <row r="48">
@@ -1239,7 +1244,7 @@
         <v>-3.61</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8567493112947658</v>
+        <v>1.167202572347267</v>
       </c>
     </row>
     <row r="49">
@@ -1256,7 +1261,7 @@
         <v>0.05</v>
       </c>
       <c r="E49" t="n">
-        <v>0.6060606060606061</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="50">
@@ -1273,7 +1278,7 @@
         <v>-2.04</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9696969696969697</v>
+        <v>1.03125</v>
       </c>
     </row>
     <row r="51">
@@ -1290,7 +1295,7 @@
         <v>0.31</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6418732782369146</v>
+        <v>1.55793991416309</v>
       </c>
     </row>
     <row r="52">
@@ -1307,7 +1312,7 @@
         <v>19.79</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9641873278236914</v>
+        <v>1.037142857142857</v>
       </c>
     </row>
     <row r="53">
@@ -1324,7 +1329,7 @@
         <v>-2.9</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9421487603305785</v>
+        <v>1.06140350877193</v>
       </c>
     </row>
     <row r="54">
@@ -1341,7 +1346,7 @@
         <v>-4.24</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9449035812672176</v>
+        <v>1.058309037900875</v>
       </c>
     </row>
     <row r="55">
@@ -1358,7 +1363,7 @@
         <v>2.94</v>
       </c>
       <c r="E55" t="n">
-        <v>0.928374655647383</v>
+        <v>1.077151335311573</v>
       </c>
     </row>
     <row r="56">
@@ -1375,7 +1380,7 @@
         <v>-0.05</v>
       </c>
       <c r="E56" t="n">
-        <v>0.628099173553719</v>
+        <v>1.592105263157895</v>
       </c>
     </row>
     <row r="57">
@@ -1392,7 +1397,7 @@
         <v>-0.78</v>
       </c>
       <c r="E57" t="n">
-        <v>0.6914600550964187</v>
+        <v>1.446215139442231</v>
       </c>
     </row>
     <row r="58">
@@ -1409,7 +1414,7 @@
         <v>0.23</v>
       </c>
       <c r="E58" t="n">
-        <v>0.5922865013774105</v>
+        <v>1.688372093023256</v>
       </c>
     </row>
     <row r="59">
@@ -1426,7 +1431,7 @@
         <v>0.04</v>
       </c>
       <c r="E59" t="n">
-        <v>0.7382920110192838</v>
+        <v>1.354477611940298</v>
       </c>
     </row>
     <row r="60">
@@ -1443,7 +1448,7 @@
         <v>1.17</v>
       </c>
       <c r="E60" t="n">
-        <v>0.8512396694214877</v>
+        <v>1.174757281553398</v>
       </c>
     </row>
     <row r="61">
@@ -1460,7 +1465,7 @@
         <v>-4.95</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9256198347107438</v>
+        <v>1.080357142857143</v>
       </c>
     </row>
     <row r="62">
@@ -1477,7 +1482,7 @@
         <v>0.6</v>
       </c>
       <c r="E62" t="n">
-        <v>0.5399449035812672</v>
+        <v>1.852040816326531</v>
       </c>
     </row>
     <row r="63">
@@ -1528,7 +1533,7 @@
         <v>-1.86</v>
       </c>
       <c r="E65" t="n">
-        <v>0.7988980716253443</v>
+        <v>1.251724137931034</v>
       </c>
     </row>
     <row r="66">
@@ -1545,7 +1550,7 @@
         <v>-0.09</v>
       </c>
       <c r="E66" t="n">
-        <v>0.6446280991735537</v>
+        <v>1.551282051282051</v>
       </c>
     </row>
     <row r="67">
@@ -1562,7 +1567,7 @@
         <v>1.16</v>
       </c>
       <c r="E67" t="n">
-        <v>0.5509641873278237</v>
+        <v>1.815</v>
       </c>
     </row>
     <row r="68">
@@ -1579,7 +1584,7 @@
         <v>1.08</v>
       </c>
       <c r="E68" t="n">
-        <v>0.7741046831955923</v>
+        <v>1.291814946619217</v>
       </c>
     </row>
     <row r="69">
@@ -1596,7 +1601,7 @@
         <v>-1.64</v>
       </c>
       <c r="E69" t="n">
-        <v>0.8705234159779615</v>
+        <v>1.14873417721519</v>
       </c>
     </row>
     <row r="70">
@@ -1613,7 +1618,7 @@
         <v>1.22</v>
       </c>
       <c r="E70" t="n">
-        <v>0.7878787878787878</v>
+        <v>1.269230769230769</v>
       </c>
     </row>
     <row r="71">
@@ -1630,7 +1635,7 @@
         <v>-0.61</v>
       </c>
       <c r="E71" t="n">
-        <v>0.6584022038567493</v>
+        <v>1.518828451882845</v>
       </c>
     </row>
     <row r="72">
@@ -1647,7 +1652,7 @@
         <v>-4.98</v>
       </c>
       <c r="E72" t="n">
-        <v>0.8925619834710744</v>
+        <v>1.12037037037037</v>
       </c>
     </row>
     <row r="73">
@@ -1664,7 +1669,7 @@
         <v>-1.75</v>
       </c>
       <c r="E73" t="n">
-        <v>0.7465564738292011</v>
+        <v>1.339483394833948</v>
       </c>
     </row>
     <row r="74">
@@ -1698,7 +1703,7 @@
         <v>-0.04</v>
       </c>
       <c r="E75" t="n">
-        <v>0.6088154269972452</v>
+        <v>1.642533936651584</v>
       </c>
     </row>
     <row r="76">
@@ -1715,7 +1720,7 @@
         <v>-1.41</v>
       </c>
       <c r="E76" t="n">
-        <v>0.7493112947658402</v>
+        <v>1.334558823529412</v>
       </c>
     </row>
     <row r="77">
@@ -1732,7 +1737,7 @@
         <v>-0.8100000000000001</v>
       </c>
       <c r="E77" t="n">
-        <v>0.8071625344352618</v>
+        <v>1.238907849829352</v>
       </c>
     </row>
     <row r="78">
@@ -1749,7 +1754,7 @@
         <v>-9.75</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9586776859504132</v>
+        <v>1.043103448275862</v>
       </c>
     </row>
     <row r="79">
@@ -1766,7 +1771,7 @@
         <v>1.35</v>
       </c>
       <c r="E79" t="n">
-        <v>0.8677685950413223</v>
+        <v>1.152380952380952</v>
       </c>
     </row>
     <row r="80">
@@ -1783,7 +1788,7 @@
         <v>0.29</v>
       </c>
       <c r="E80" t="n">
-        <v>0.6143250688705234</v>
+        <v>1.62780269058296</v>
       </c>
     </row>
     <row r="81">
@@ -1800,7 +1805,7 @@
         <v>-0.23</v>
       </c>
       <c r="E81" t="n">
-        <v>0.6556473829201102</v>
+        <v>1.525210084033614</v>
       </c>
     </row>
     <row r="82">
@@ -1817,7 +1822,7 @@
         <v>0.63</v>
       </c>
       <c r="E82" t="n">
-        <v>0.5537190082644629</v>
+        <v>1.805970149253731</v>
       </c>
     </row>
     <row r="83">
@@ -1834,7 +1839,7 @@
         <v>0.26</v>
       </c>
       <c r="E83" t="n">
-        <v>0.6749311294765841</v>
+        <v>1.481632653061224</v>
       </c>
     </row>
     <row r="84">
@@ -1851,7 +1856,7 @@
         <v>-0.27</v>
       </c>
       <c r="E84" t="n">
-        <v>0.8815426997245179</v>
+        <v>1.134375</v>
       </c>
     </row>
     <row r="85">
@@ -1868,7 +1873,7 @@
         <v>0.22</v>
       </c>
       <c r="E85" t="n">
-        <v>0.5482093663911846</v>
+        <v>1.824120603015075</v>
       </c>
     </row>
     <row r="86">
@@ -1885,7 +1890,7 @@
         <v>-2.36</v>
       </c>
       <c r="E86" t="n">
-        <v>0.790633608815427</v>
+        <v>1.264808362369338</v>
       </c>
     </row>
     <row r="87">
@@ -1902,7 +1907,7 @@
         <v>1.53</v>
       </c>
       <c r="E87" t="n">
-        <v>0.650137741046832</v>
+        <v>1.538135593220339</v>
       </c>
     </row>
     <row r="88">
@@ -1919,7 +1924,7 @@
         <v>-1.66</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9201101928374655</v>
+        <v>1.086826347305389</v>
       </c>
     </row>
     <row r="89">
@@ -1936,7 +1941,7 @@
         <v>-1.04</v>
       </c>
       <c r="E89" t="n">
-        <v>0.7245179063360881</v>
+        <v>1.380228136882129</v>
       </c>
     </row>
     <row r="90">
@@ -1953,7 +1958,7 @@
         <v>-2.73</v>
       </c>
       <c r="E90" t="n">
-        <v>0.8953168044077136</v>
+        <v>1.116923076923077</v>
       </c>
     </row>
     <row r="91">
@@ -1970,7 +1975,7 @@
         <v>-2.15</v>
       </c>
       <c r="E91" t="n">
-        <v>0.8099173553719008</v>
+        <v>1.234693877551021</v>
       </c>
     </row>
     <row r="92">
@@ -1987,7 +1992,7 @@
         <v>0.98</v>
       </c>
       <c r="E92" t="n">
-        <v>0.5013774104683195</v>
+        <v>1.994505494505495</v>
       </c>
     </row>
     <row r="93">
@@ -2004,7 +2009,7 @@
         <v>-0.29</v>
       </c>
       <c r="E93" t="n">
-        <v>0.5234159779614325</v>
+        <v>1.910526315789474</v>
       </c>
     </row>
     <row r="94">
@@ -2021,7 +2026,7 @@
         <v>-1.34</v>
       </c>
       <c r="E94" t="n">
-        <v>0.7107438016528925</v>
+        <v>1.406976744186047</v>
       </c>
     </row>
     <row r="95">
@@ -2038,7 +2043,7 @@
         <v>0.84</v>
       </c>
       <c r="E95" t="n">
-        <v>0.5151515151515151</v>
+        <v>1.941176470588235</v>
       </c>
     </row>
     <row r="96">
@@ -2055,7 +2060,7 @@
         <v>2.32</v>
       </c>
       <c r="E96" t="n">
-        <v>0.6639118457300276</v>
+        <v>1.506224066390041</v>
       </c>
     </row>
     <row r="97">
@@ -2072,7 +2077,7 @@
         <v>-0.24</v>
       </c>
       <c r="E97" t="n">
-        <v>0.5757575757575758</v>
+        <v>1.736842105263158</v>
       </c>
     </row>
     <row r="98">
@@ -2089,7 +2094,7 @@
         <v>-2.47</v>
       </c>
       <c r="E98" t="n">
-        <v>0.8236914600550964</v>
+        <v>1.214046822742475</v>
       </c>
     </row>
     <row r="99">
@@ -2106,7 +2111,7 @@
         <v>-1.63</v>
       </c>
       <c r="E99" t="n">
-        <v>0.8209366391184573</v>
+        <v>1.218120805369127</v>
       </c>
     </row>
     <row r="100">
@@ -2123,7 +2128,7 @@
         <v>-2.15</v>
       </c>
       <c r="E100" t="n">
-        <v>0.7823691460055097</v>
+        <v>1.278169014084507</v>
       </c>
     </row>
     <row r="101">
@@ -2140,7 +2145,7 @@
         <v>-0.34</v>
       </c>
       <c r="E101" t="n">
-        <v>0.6225895316804407</v>
+        <v>1.606194690265487</v>
       </c>
     </row>
     <row r="102">
@@ -2157,7 +2162,7 @@
         <v>-2.58</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9559228650137741</v>
+        <v>1.046109510086455</v>
       </c>
     </row>
     <row r="103">
@@ -2174,7 +2179,7 @@
         <v>-0.23</v>
       </c>
       <c r="E103" t="n">
-        <v>0.6336088154269972</v>
+        <v>1.578260869565217</v>
       </c>
     </row>
     <row r="104">
@@ -2191,7 +2196,7 @@
         <v>-3.99</v>
       </c>
       <c r="E104" t="n">
-        <v>0.9035812672176309</v>
+        <v>1.106707317073171</v>
       </c>
     </row>
     <row r="105">
@@ -2208,7 +2213,7 @@
         <v>0.98</v>
       </c>
       <c r="E105" t="n">
-        <v>0.5840220385674931</v>
+        <v>1.712264150943396</v>
       </c>
     </row>
     <row r="106">
@@ -2225,7 +2230,7 @@
         <v>-0.55</v>
       </c>
       <c r="E106" t="n">
-        <v>0.696969696969697</v>
+        <v>1.434782608695652</v>
       </c>
     </row>
     <row r="107">
@@ -2242,7 +2247,7 @@
         <v>-3.34</v>
       </c>
       <c r="E107" t="n">
-        <v>0.8870523415977961</v>
+        <v>1.127329192546584</v>
       </c>
     </row>
     <row r="108">
@@ -2259,7 +2264,7 @@
         <v>0.46</v>
       </c>
       <c r="E108" t="n">
-        <v>0.5674931129476584</v>
+        <v>1.762135922330097</v>
       </c>
     </row>
     <row r="109">
@@ -2276,7 +2281,7 @@
         <v>-1.78</v>
       </c>
       <c r="E109" t="n">
-        <v>0.7603305785123967</v>
+        <v>1.315217391304348</v>
       </c>
     </row>
     <row r="110">
@@ -2293,7 +2298,7 @@
         <v>0.35</v>
       </c>
       <c r="E110" t="n">
-        <v>0.8126721763085399</v>
+        <v>1.230508474576271</v>
       </c>
     </row>
     <row r="111">
@@ -2310,7 +2315,7 @@
         <v>-2.14</v>
       </c>
       <c r="E111" t="n">
-        <v>0.8016528925619835</v>
+        <v>1.247422680412371</v>
       </c>
     </row>
     <row r="112">
@@ -2327,7 +2332,7 @@
         <v>-3</v>
       </c>
       <c r="E112" t="n">
-        <v>0.8760330578512396</v>
+        <v>1.141509433962264</v>
       </c>
     </row>
     <row r="113">
@@ -2344,7 +2349,7 @@
         <v>-1.17</v>
       </c>
       <c r="E113" t="n">
-        <v>0.7768595041322314</v>
+        <v>1.287234042553192</v>
       </c>
     </row>
     <row r="114">
@@ -2361,7 +2366,7 @@
         <v>0.6</v>
       </c>
       <c r="E114" t="n">
-        <v>0.6997245179063361</v>
+        <v>1.429133858267717</v>
       </c>
     </row>
     <row r="115">
@@ -2378,7 +2383,7 @@
         <v>-0.32</v>
       </c>
       <c r="E115" t="n">
-        <v>0.9090909090909091</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="116">
@@ -2395,7 +2400,7 @@
         <v>0.02</v>
       </c>
       <c r="E116" t="n">
-        <v>0.6859504132231405</v>
+        <v>1.457831325301205</v>
       </c>
     </row>
     <row r="117">
@@ -2412,7 +2417,7 @@
         <v>-1.47</v>
       </c>
       <c r="E117" t="n">
-        <v>0.8154269972451791</v>
+        <v>1.226351351351351</v>
       </c>
     </row>
     <row r="118">
@@ -2429,7 +2434,7 @@
         <v>0.88</v>
       </c>
       <c r="E118" t="n">
-        <v>0.8539944903581267</v>
+        <v>1.170967741935484</v>
       </c>
     </row>
     <row r="119">
@@ -2463,7 +2468,7 @@
         <v>-0.16</v>
       </c>
       <c r="E120" t="n">
-        <v>0.5977961432506887</v>
+        <v>1.672811059907834</v>
       </c>
     </row>
     <row r="121">
@@ -2497,7 +2502,7 @@
         <v>-0.31</v>
       </c>
       <c r="E122" t="n">
-        <v>0.7300275482093664</v>
+        <v>1.369811320754717</v>
       </c>
     </row>
     <row r="123">
@@ -2514,7 +2519,7 @@
         <v>-0.46</v>
       </c>
       <c r="E123" t="n">
-        <v>0.6666666666666666</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="124">
@@ -2531,7 +2536,7 @@
         <v>0.73</v>
       </c>
       <c r="E124" t="n">
-        <v>0.5316804407713499</v>
+        <v>1.880829015544041</v>
       </c>
     </row>
     <row r="125">
@@ -2548,7 +2553,7 @@
         <v>-1.03</v>
       </c>
       <c r="E125" t="n">
-        <v>0.7134986225895317</v>
+        <v>1.401544401544402</v>
       </c>
     </row>
     <row r="126">
@@ -2565,7 +2570,7 @@
         <v>-0.1</v>
       </c>
       <c r="E126" t="n">
-        <v>0.5702479338842975</v>
+        <v>1.753623188405797</v>
       </c>
     </row>
     <row r="127">
@@ -2582,7 +2587,7 @@
         <v>12.86</v>
       </c>
       <c r="E127" t="n">
-        <v>0.8842975206611571</v>
+        <v>1.130841121495327</v>
       </c>
     </row>
     <row r="128">
@@ -2599,7 +2604,7 @@
         <v>-1.98</v>
       </c>
       <c r="E128" t="n">
-        <v>0.7658402203856749</v>
+        <v>1.305755395683453</v>
       </c>
     </row>
     <row r="129">
@@ -2616,7 +2621,7 @@
         <v>-1.67</v>
       </c>
       <c r="E129" t="n">
-        <v>0.7933884297520661</v>
+        <v>1.260416666666667</v>
       </c>
     </row>
     <row r="130">
@@ -2633,7 +2638,7 @@
         <v>-0.87</v>
       </c>
       <c r="E130" t="n">
-        <v>0.8650137741046832</v>
+        <v>1.156050955414013</v>
       </c>
     </row>
     <row r="131">
@@ -2650,7 +2655,7 @@
         <v>0.37</v>
       </c>
       <c r="E131" t="n">
-        <v>0.6005509641873278</v>
+        <v>1.665137614678899</v>
       </c>
     </row>
     <row r="132">
@@ -2684,7 +2689,7 @@
         <v>0.92</v>
       </c>
       <c r="E133" t="n">
-        <v>0.5371900826446281</v>
+        <v>1.861538461538462</v>
       </c>
     </row>
     <row r="134">
@@ -2701,7 +2706,7 @@
         <v>-1.49</v>
       </c>
       <c r="E134" t="n">
-        <v>0.7796143250688705</v>
+        <v>1.282685512367491</v>
       </c>
     </row>
     <row r="135">
@@ -2718,7 +2723,7 @@
         <v>15.39</v>
       </c>
       <c r="E135" t="n">
-        <v>0.9393939393939394</v>
+        <v>1.064516129032258</v>
       </c>
     </row>
     <row r="136">
@@ -2735,7 +2740,7 @@
         <v>-0.02</v>
       </c>
       <c r="E136" t="n">
-        <v>0.5867768595041323</v>
+        <v>1.704225352112676</v>
       </c>
     </row>
     <row r="137">
@@ -2752,7 +2757,7 @@
         <v>0.41</v>
       </c>
       <c r="E137" t="n">
-        <v>0.837465564738292</v>
+        <v>1.194078947368421</v>
       </c>
     </row>
     <row r="138">
@@ -2769,7 +2774,7 @@
         <v>-4.43</v>
       </c>
       <c r="E138" t="n">
-        <v>0.8787878787878788</v>
+        <v>1.137931034482759</v>
       </c>
     </row>
     <row r="139">
@@ -2786,7 +2791,7 @@
         <v>-0.61</v>
       </c>
       <c r="E139" t="n">
-        <v>0.721763085399449</v>
+        <v>1.385496183206107</v>
       </c>
     </row>
     <row r="140">
@@ -2803,7 +2808,7 @@
         <v>0.14</v>
       </c>
       <c r="E140" t="n">
-        <v>0.5261707988980716</v>
+        <v>1.900523560209424</v>
       </c>
     </row>
     <row r="141">
@@ -2837,7 +2842,7 @@
         <v>3.73</v>
       </c>
       <c r="E142" t="n">
-        <v>0.9614325068870524</v>
+        <v>1.040114613180516</v>
       </c>
     </row>
     <row r="143">
@@ -2854,7 +2859,7 @@
         <v>0.44</v>
       </c>
       <c r="E143" t="n">
-        <v>0.5206611570247934</v>
+        <v>1.92063492063492</v>
       </c>
     </row>
     <row r="144">
@@ -2871,7 +2876,7 @@
         <v>0.64</v>
       </c>
       <c r="E144" t="n">
-        <v>0.5454545454545454</v>
+        <v>1.833333333333333</v>
       </c>
     </row>
     <row r="145">
@@ -2888,7 +2893,7 @@
         <v>2.37</v>
       </c>
       <c r="E145" t="n">
-        <v>0.8181818181818182</v>
+        <v>1.222222222222222</v>
       </c>
     </row>
     <row r="146">
@@ -2905,7 +2910,7 @@
         <v>-6.6</v>
       </c>
       <c r="E146" t="n">
-        <v>0.9228650137741047</v>
+        <v>1.083582089552239</v>
       </c>
     </row>
     <row r="147">
@@ -2922,7 +2927,7 @@
         <v>-2.03</v>
       </c>
       <c r="E147" t="n">
-        <v>0.8292011019283747</v>
+        <v>1.205980066445183</v>
       </c>
     </row>
     <row r="148">
@@ -2939,7 +2944,7 @@
         <v>-1.89</v>
       </c>
       <c r="E148" t="n">
-        <v>0.8898071625344353</v>
+        <v>1.123839009287926</v>
       </c>
     </row>
     <row r="149">
@@ -2956,7 +2961,7 @@
         <v>3.85</v>
       </c>
       <c r="E149" t="n">
-        <v>0.5564738292011019</v>
+        <v>1.797029702970297</v>
       </c>
     </row>
     <row r="150">
@@ -2973,7 +2978,7 @@
         <v>0.3</v>
       </c>
       <c r="E150" t="n">
-        <v>0.581267217630854</v>
+        <v>1.720379146919431</v>
       </c>
     </row>
     <row r="151">
@@ -3007,7 +3012,7 @@
         <v>-0.01</v>
       </c>
       <c r="E152" t="n">
-        <v>0.6308539944903582</v>
+        <v>1.585152838427947</v>
       </c>
     </row>
     <row r="153">
@@ -3024,7 +3029,7 @@
         <v>0.31</v>
       </c>
       <c r="E153" t="n">
-        <v>0.5179063360881543</v>
+        <v>1.930851063829787</v>
       </c>
     </row>
     <row r="154">
@@ -3041,7 +3046,7 @@
         <v>0.36</v>
       </c>
       <c r="E154" t="n">
-        <v>0.6033057851239669</v>
+        <v>1.657534246575342</v>
       </c>
     </row>
     <row r="155">
@@ -3058,7 +3063,7 @@
         <v>-0.84</v>
       </c>
       <c r="E155" t="n">
-        <v>0.6887052341597796</v>
+        <v>1.452</v>
       </c>
     </row>
     <row r="156">
@@ -3075,7 +3080,7 @@
         <v>-2.18</v>
       </c>
       <c r="E156" t="n">
-        <v>0.7851239669421488</v>
+        <v>1.273684210526316</v>
       </c>
     </row>
     <row r="157">
@@ -3092,7 +3097,7 @@
         <v>1.42</v>
       </c>
       <c r="E157" t="n">
-        <v>0.9476584022038568</v>
+        <v>1.055232558139535</v>
       </c>
     </row>
     <row r="158">
@@ -3109,7 +3114,7 @@
         <v>-3.78</v>
       </c>
       <c r="E158" t="n">
-        <v>0.8732782369146006</v>
+        <v>1.145110410094637</v>
       </c>
     </row>
     <row r="159">
@@ -3126,7 +3131,7 @@
         <v>-0.57</v>
       </c>
       <c r="E159" t="n">
-        <v>0.8429752066115702</v>
+        <v>1.186274509803922</v>
       </c>
     </row>
     <row r="160">
@@ -3143,7 +3148,7 @@
         <v>-1.3</v>
       </c>
       <c r="E160" t="n">
-        <v>0.7713498622589532</v>
+        <v>1.296428571428571</v>
       </c>
     </row>
     <row r="161">
@@ -3160,7 +3165,7 @@
         <v>-1.6</v>
       </c>
       <c r="E161" t="n">
-        <v>0.7438016528925619</v>
+        <v>1.344444444444445</v>
       </c>
     </row>
     <row r="162">
@@ -3177,7 +3182,7 @@
         <v>-0.09</v>
       </c>
       <c r="E162" t="n">
-        <v>0.7961432506887053</v>
+        <v>1.256055363321799</v>
       </c>
     </row>
     <row r="163">
@@ -3194,7 +3199,7 @@
         <v>-4.12</v>
       </c>
       <c r="E163" t="n">
-        <v>0.8457300275482094</v>
+        <v>1.182410423452769</v>
       </c>
     </row>
     <row r="164">
@@ -3228,7 +3233,7 @@
         <v>-0.74</v>
       </c>
       <c r="E165" t="n">
-        <v>0.8319559228650137</v>
+        <v>1.201986754966887</v>
       </c>
     </row>
     <row r="166">
@@ -3245,7 +3250,7 @@
         <v>1.1</v>
       </c>
       <c r="E166" t="n">
-        <v>0.7272727272727273</v>
+        <v>1.375</v>
       </c>
     </row>
     <row r="167">
@@ -3262,7 +3267,7 @@
         <v>0.79</v>
       </c>
       <c r="E167" t="n">
-        <v>0.6804407713498623</v>
+        <v>1.469635627530364</v>
       </c>
     </row>
     <row r="168">
@@ -3279,7 +3284,7 @@
         <v>-2.38</v>
       </c>
       <c r="E168" t="n">
-        <v>0.8402203856749312</v>
+        <v>1.190163934426229</v>
       </c>
     </row>
     <row r="169">
@@ -3296,7 +3301,7 @@
         <v>-0.16</v>
       </c>
       <c r="E169" t="n">
-        <v>0.6528925619834711</v>
+        <v>1.531645569620253</v>
       </c>
     </row>
     <row r="170">
@@ -3313,7 +3318,7 @@
         <v>0.36</v>
       </c>
       <c r="E170" t="n">
-        <v>0.5289256198347108</v>
+        <v>1.890625</v>
       </c>
     </row>
     <row r="171">
@@ -3330,7 +3335,7 @@
         <v>-14.68</v>
       </c>
       <c r="E171" t="n">
-        <v>0.9669421487603306</v>
+        <v>1.034188034188034</v>
       </c>
     </row>
     <row r="172">
@@ -3347,7 +3352,7 @@
         <v>0.47</v>
       </c>
       <c r="E172" t="n">
-        <v>0.5041322314049587</v>
+        <v>1.983606557377049</v>
       </c>
     </row>
     <row r="173">
@@ -3364,7 +3369,7 @@
         <v>4.33</v>
       </c>
       <c r="E173" t="n">
-        <v>0.9118457300275482</v>
+        <v>1.096676737160121</v>
       </c>
     </row>
     <row r="174">
@@ -3381,7 +3386,7 @@
         <v>0.34</v>
       </c>
       <c r="E174" t="n">
-        <v>0.5426997245179064</v>
+        <v>1.842639593908629</v>
       </c>
     </row>
     <row r="175">
@@ -3398,7 +3403,7 @@
         <v>-4.15</v>
       </c>
       <c r="E175" t="n">
-        <v>0.9366391184573003</v>
+        <v>1.067647058823529</v>
       </c>
     </row>
     <row r="176">
@@ -3415,7 +3420,7 @@
         <v>0.03</v>
       </c>
       <c r="E176" t="n">
-        <v>0.71900826446281</v>
+        <v>1.390804597701149</v>
       </c>
     </row>
     <row r="177">
@@ -3432,7 +3437,7 @@
         <v>0.28</v>
       </c>
       <c r="E177" t="n">
-        <v>0.5895316804407713</v>
+        <v>1.696261682242991</v>
       </c>
     </row>
     <row r="178">
@@ -3449,7 +3454,7 @@
         <v>-3.19</v>
       </c>
       <c r="E178" t="n">
-        <v>0.7052341597796143</v>
+        <v>1.41796875</v>
       </c>
     </row>
     <row r="179">
@@ -3466,7 +3471,7 @@
         <v>-1.14</v>
       </c>
       <c r="E179" t="n">
-        <v>0.6694214876033058</v>
+        <v>1.493827160493827</v>
       </c>
     </row>
     <row r="180">
@@ -3483,7 +3488,7 @@
         <v>-0.16</v>
       </c>
       <c r="E180" t="n">
-        <v>0.6198347107438017</v>
+        <v>1.613333333333333</v>
       </c>
     </row>
     <row r="181">
@@ -3500,7 +3505,7 @@
         <v>0.57</v>
       </c>
       <c r="E181" t="n">
-        <v>0.9146005509641874</v>
+        <v>1.093373493975904</v>
       </c>
     </row>
     <row r="182">
@@ -3517,7 +3522,7 @@
         <v>-2.55</v>
       </c>
       <c r="E182" t="n">
-        <v>0.9008264462809917</v>
+        <v>1.110091743119266</v>
       </c>
     </row>
     <row r="183">
@@ -3534,7 +3539,7 @@
         <v>0.36</v>
       </c>
       <c r="E183" t="n">
-        <v>0.5344352617079889</v>
+        <v>1.871134020618557</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -462,7 +462,7 @@
         <v>0.86</v>
       </c>
       <c r="E2" t="n">
-        <v>1.745192307692308</v>
+        <v>1.586412585661271</v>
       </c>
     </row>
     <row r="3">
@@ -479,7 +479,7 @@
         <v>17.76</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="4">
@@ -496,7 +496,7 @@
         <v>-2.49</v>
       </c>
       <c r="E4" t="n">
-        <v>1.198019801980198</v>
+        <v>2.310976026227717</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         <v>7.6</v>
       </c>
       <c r="E5" t="n">
-        <v>1.54468085106383</v>
+        <v>1.79234114245384</v>
       </c>
     </row>
     <row r="6">
@@ -530,7 +530,7 @@
         <v>-0.34</v>
       </c>
       <c r="E6" t="n">
-        <v>1.159744408945687</v>
+        <v>2.387245862076816</v>
       </c>
     </row>
     <row r="7">
@@ -547,7 +547,7 @@
         <v>-1.04</v>
       </c>
       <c r="E7" t="n">
-        <v>1.359550561797753</v>
+        <v>2.036404617170958</v>
       </c>
     </row>
     <row r="8">
@@ -564,7 +564,7 @@
         <v>-0.43</v>
       </c>
       <c r="E8" t="n">
-        <v>1.571428571428571</v>
+        <v>1.7618332081142</v>
       </c>
     </row>
     <row r="9">
@@ -581,7 +581,7 @@
         <v>14.99</v>
       </c>
       <c r="E9" t="n">
-        <v>1.07396449704142</v>
+        <v>2.577920451699565</v>
       </c>
     </row>
     <row r="10">
@@ -598,7 +598,7 @@
         <v>-0.95</v>
       </c>
       <c r="E10" t="n">
-        <v>1.21</v>
+        <v>2.288095075472987</v>
       </c>
     </row>
     <row r="11">
@@ -615,7 +615,7 @@
         <v>0.22</v>
       </c>
       <c r="E11" t="n">
-        <v>1.396153846153846</v>
+        <v>1.983015732076589</v>
       </c>
     </row>
     <row r="12">
@@ -632,7 +632,7 @@
         <v>0.48</v>
       </c>
       <c r="E12" t="n">
-        <v>1.5125</v>
+        <v>1.830476060378389</v>
       </c>
     </row>
     <row r="13">
@@ -649,7 +649,7 @@
         <v>-1.02</v>
       </c>
       <c r="E13" t="n">
-        <v>1.44047619047619</v>
+        <v>1.921999863397309</v>
       </c>
     </row>
     <row r="14">
@@ -666,7 +666,7 @@
         <v>0.09</v>
       </c>
       <c r="E14" t="n">
-        <v>1.951612903225807</v>
+        <v>1.418618946793252</v>
       </c>
     </row>
     <row r="15">
@@ -683,7 +683,7 @@
         <v>8.18</v>
       </c>
       <c r="E15" t="n">
-        <v>1.564655172413793</v>
+        <v>1.76946019169911</v>
       </c>
     </row>
     <row r="16">
@@ -700,7 +700,7 @@
         <v>-2.69</v>
       </c>
       <c r="E16" t="n">
-        <v>1.163461538461538</v>
+        <v>2.379618878491906</v>
       </c>
     </row>
     <row r="17">
@@ -717,7 +717,7 @@
         <v>-0.88</v>
       </c>
       <c r="E17" t="n">
-        <v>1.349442379182156</v>
+        <v>2.051658584340778</v>
       </c>
     </row>
     <row r="18">
@@ -734,7 +734,7 @@
         <v>1.6</v>
       </c>
       <c r="E18" t="n">
-        <v>1.770731707317073</v>
+        <v>1.563531634906541</v>
       </c>
     </row>
     <row r="19">
@@ -751,7 +751,7 @@
         <v>-0.58</v>
       </c>
       <c r="E19" t="n">
-        <v>1.364661654135338</v>
+        <v>2.028777633586048</v>
       </c>
     </row>
     <row r="20">
@@ -768,7 +768,7 @@
         <v>-0.35</v>
       </c>
       <c r="E20" t="n">
-        <v>1.09009009009009</v>
+        <v>2.539785533775015</v>
       </c>
     </row>
     <row r="21">
@@ -785,7 +785,7 @@
         <v>-1.94</v>
       </c>
       <c r="E21" t="n">
-        <v>1.310469314079422</v>
+        <v>2.112674453020058</v>
       </c>
     </row>
     <row r="22">
@@ -802,7 +802,7 @@
         <v>-7.44</v>
       </c>
       <c r="E22" t="n">
-        <v>1.070796460176991</v>
+        <v>2.585547435284475</v>
       </c>
     </row>
     <row r="23">
@@ -819,7 +819,7 @@
         <v>0.14</v>
       </c>
       <c r="E23" t="n">
-        <v>1.680555555555556</v>
+        <v>1.64742845434055</v>
       </c>
     </row>
     <row r="24">
@@ -836,7 +836,7 @@
         <v>-4.51</v>
       </c>
       <c r="E24" t="n">
-        <v>1.113496932515337</v>
+        <v>2.486396648680646</v>
       </c>
     </row>
     <row r="25">
@@ -853,7 +853,7 @@
         <v>1.02</v>
       </c>
       <c r="E25" t="n">
-        <v>1.32</v>
+        <v>2.097420485850238</v>
       </c>
     </row>
     <row r="26">
@@ -870,7 +870,7 @@
         <v>-0.2</v>
       </c>
       <c r="E26" t="n">
-        <v>1.599118942731278</v>
+        <v>1.73132527377456</v>
       </c>
     </row>
     <row r="27">
@@ -887,7 +887,7 @@
         <v>0.42</v>
       </c>
       <c r="E27" t="n">
-        <v>1.962162162162162</v>
+        <v>1.410991963208342</v>
       </c>
     </row>
     <row r="28">
@@ -904,7 +904,7 @@
         <v>-0.21</v>
       </c>
       <c r="E28" t="n">
-        <v>1.635135135135135</v>
+        <v>1.69319035585001</v>
       </c>
     </row>
     <row r="29">
@@ -921,7 +921,7 @@
         <v>-0.34</v>
       </c>
       <c r="E29" t="n">
-        <v>1.620535714285714</v>
+        <v>1.70844432301983</v>
       </c>
     </row>
     <row r="30">
@@ -938,7 +938,7 @@
         <v>-0.51</v>
       </c>
       <c r="E30" t="n">
-        <v>1.32967032967033</v>
+        <v>2.082166518680418</v>
       </c>
     </row>
     <row r="31">
@@ -955,7 +955,7 @@
         <v>1.35</v>
       </c>
       <c r="E31" t="n">
-        <v>1.779411764705882</v>
+        <v>1.555904651321631</v>
       </c>
     </row>
     <row r="32">
@@ -972,7 +972,7 @@
         <v>-1.08</v>
       </c>
       <c r="E32" t="n">
-        <v>1.423529411764706</v>
+        <v>1.944880814152039</v>
       </c>
     </row>
     <row r="33">
@@ -989,7 +989,7 @@
         <v>-0.96</v>
       </c>
       <c r="E33" t="n">
-        <v>1.103343465045593</v>
+        <v>2.509277599435376</v>
       </c>
     </row>
     <row r="34">
@@ -1006,7 +1006,7 @@
         <v>-0.57</v>
       </c>
       <c r="E34" t="n">
-        <v>1.412451361867704</v>
+        <v>1.960134781321859</v>
       </c>
     </row>
     <row r="35">
@@ -1023,7 +1023,7 @@
         <v>2.63</v>
       </c>
       <c r="E35" t="n">
-        <v>1.049132947976879</v>
+        <v>2.638936320378845</v>
       </c>
     </row>
     <row r="36">
@@ -1040,7 +1040,7 @@
         <v>-0.51</v>
       </c>
       <c r="E36" t="n">
-        <v>1.475609756097561</v>
+        <v>1.876237961887849</v>
       </c>
     </row>
     <row r="37">
@@ -1057,7 +1057,7 @@
         <v>-2.47</v>
       </c>
       <c r="E37" t="n">
-        <v>1.243150684931507</v>
+        <v>2.227079206793707</v>
       </c>
     </row>
     <row r="38">
@@ -1074,7 +1074,7 @@
         <v>-1.41</v>
       </c>
       <c r="E38" t="n">
-        <v>1.324817518248175</v>
+        <v>2.089793502265328</v>
       </c>
     </row>
     <row r="39">
@@ -1091,7 +1091,7 @@
         <v>0.14</v>
       </c>
       <c r="E39" t="n">
-        <v>1.487704918032787</v>
+        <v>1.860983994718029</v>
       </c>
     </row>
     <row r="40">
@@ -1108,7 +1108,7 @@
         <v>-0.01</v>
       </c>
       <c r="E40" t="n">
-        <v>1.728571428571429</v>
+        <v>1.601666552831091</v>
       </c>
     </row>
     <row r="41">
@@ -1125,7 +1125,7 @@
         <v>0.06</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="42">
@@ -1142,7 +1142,7 @@
         <v>1.32</v>
       </c>
       <c r="E42" t="n">
-        <v>1.052173913043478</v>
+        <v>2.631309336793935</v>
       </c>
     </row>
     <row r="43">
@@ -1159,7 +1159,7 @@
         <v>0.3</v>
       </c>
       <c r="E43" t="n">
-        <v>1.788177339901478</v>
+        <v>1.548277667736721</v>
       </c>
     </row>
     <row r="44">
@@ -1176,7 +1176,7 @@
         <v>-2.95</v>
       </c>
       <c r="E44" t="n">
-        <v>1.178571428571429</v>
+        <v>2.349110944152267</v>
       </c>
     </row>
     <row r="45">
@@ -1193,7 +1193,7 @@
         <v>-0.35</v>
       </c>
       <c r="E45" t="n">
-        <v>1.301075268817204</v>
+        <v>2.127928420189878</v>
       </c>
     </row>
     <row r="46">
@@ -1210,7 +1210,7 @@
         <v>1.33</v>
       </c>
       <c r="E46" t="n">
-        <v>1.972826086956522</v>
+        <v>1.403364979623432</v>
       </c>
     </row>
     <row r="47">
@@ -1227,7 +1227,7 @@
         <v>-0.54</v>
       </c>
       <c r="E47" t="n">
-        <v>1.463709677419355</v>
+        <v>1.891491929057669</v>
       </c>
     </row>
     <row r="48">
@@ -1244,7 +1244,7 @@
         <v>-3.61</v>
       </c>
       <c r="E48" t="n">
-        <v>1.167202572347267</v>
+        <v>2.371991894906996</v>
       </c>
     </row>
     <row r="49">
@@ -1261,7 +1261,7 @@
         <v>0.05</v>
       </c>
       <c r="E49" t="n">
-        <v>1.65</v>
+        <v>1.67793638868019</v>
       </c>
     </row>
     <row r="50">
@@ -1278,7 +1278,7 @@
         <v>-2.04</v>
       </c>
       <c r="E50" t="n">
-        <v>1.03125</v>
+        <v>2.684698221888305</v>
       </c>
     </row>
     <row r="51">
@@ -1295,7 +1295,7 @@
         <v>0.31</v>
       </c>
       <c r="E51" t="n">
-        <v>1.55793991416309</v>
+        <v>1.77708717528402</v>
       </c>
     </row>
     <row r="52">
@@ -1312,7 +1312,7 @@
         <v>19.79</v>
       </c>
       <c r="E52" t="n">
-        <v>1.037142857142857</v>
+        <v>2.669444254718484</v>
       </c>
     </row>
     <row r="53">
@@ -1329,7 +1329,7 @@
         <v>-2.9</v>
       </c>
       <c r="E53" t="n">
-        <v>1.06140350877193</v>
+        <v>2.608428386039205</v>
       </c>
     </row>
     <row r="54">
@@ -1346,7 +1346,7 @@
         <v>-4.24</v>
       </c>
       <c r="E54" t="n">
-        <v>1.058309037900875</v>
+        <v>2.616055369624115</v>
       </c>
     </row>
     <row r="55">
@@ -1363,7 +1363,7 @@
         <v>2.94</v>
       </c>
       <c r="E55" t="n">
-        <v>1.077151335311573</v>
+        <v>2.570293468114655</v>
       </c>
     </row>
     <row r="56">
@@ -1380,7 +1380,7 @@
         <v>-0.05</v>
       </c>
       <c r="E56" t="n">
-        <v>1.592105263157895</v>
+        <v>1.73895225735947</v>
       </c>
     </row>
     <row r="57">
@@ -1397,7 +1397,7 @@
         <v>-0.78</v>
       </c>
       <c r="E57" t="n">
-        <v>1.446215139442231</v>
+        <v>1.914372879812399</v>
       </c>
     </row>
     <row r="58">
@@ -1414,7 +1414,7 @@
         <v>0.23</v>
       </c>
       <c r="E58" t="n">
-        <v>1.688372093023256</v>
+        <v>1.639801470755641</v>
       </c>
     </row>
     <row r="59">
@@ -1431,7 +1431,7 @@
         <v>0.04</v>
       </c>
       <c r="E59" t="n">
-        <v>1.354477611940298</v>
+        <v>2.044031600755868</v>
       </c>
     </row>
     <row r="60">
@@ -1448,7 +1448,7 @@
         <v>1.17</v>
       </c>
       <c r="E60" t="n">
-        <v>1.174757281553398</v>
+        <v>2.356737927737177</v>
       </c>
     </row>
     <row r="61">
@@ -1465,7 +1465,7 @@
         <v>-4.95</v>
       </c>
       <c r="E61" t="n">
-        <v>1.080357142857143</v>
+        <v>2.562666484529745</v>
       </c>
     </row>
     <row r="62">
@@ -1482,7 +1482,7 @@
         <v>0.6</v>
       </c>
       <c r="E62" t="n">
-        <v>1.852040816326531</v>
+        <v>1.494888782642351</v>
       </c>
     </row>
     <row r="63">
@@ -1499,7 +1499,7 @@
         <v>5.15</v>
       </c>
       <c r="E63" t="n">
-        <v>1</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="64">
@@ -1516,7 +1516,7 @@
         <v>1.61</v>
       </c>
       <c r="E64" t="n">
-        <v>1</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="65">
@@ -1533,7 +1533,7 @@
         <v>-1.86</v>
       </c>
       <c r="E65" t="n">
-        <v>1.251724137931034</v>
+        <v>2.211825239623887</v>
       </c>
     </row>
     <row r="66">
@@ -1550,7 +1550,7 @@
         <v>-0.09</v>
       </c>
       <c r="E66" t="n">
-        <v>1.551282051282051</v>
+        <v>1.784714158868929</v>
       </c>
     </row>
     <row r="67">
@@ -1567,7 +1567,7 @@
         <v>1.16</v>
       </c>
       <c r="E67" t="n">
-        <v>1.815</v>
+        <v>1.525396716981991</v>
       </c>
     </row>
     <row r="68">
@@ -1584,7 +1584,7 @@
         <v>1.08</v>
       </c>
       <c r="E68" t="n">
-        <v>1.291814946619217</v>
+        <v>2.143182387359698</v>
       </c>
     </row>
     <row r="69">
@@ -1601,7 +1601,7 @@
         <v>-1.64</v>
       </c>
       <c r="E69" t="n">
-        <v>1.14873417721519</v>
+        <v>2.410126812831546</v>
       </c>
     </row>
     <row r="70">
@@ -1618,7 +1618,7 @@
         <v>1.22</v>
       </c>
       <c r="E70" t="n">
-        <v>1.269230769230769</v>
+        <v>2.181317305284247</v>
       </c>
     </row>
     <row r="71">
@@ -1635,7 +1635,7 @@
         <v>-0.61</v>
       </c>
       <c r="E71" t="n">
-        <v>1.518828451882845</v>
+        <v>1.82284907679348</v>
       </c>
     </row>
     <row r="72">
@@ -1652,7 +1652,7 @@
         <v>-4.98</v>
       </c>
       <c r="E72" t="n">
-        <v>1.12037037037037</v>
+        <v>2.471142681510826</v>
       </c>
     </row>
     <row r="73">
@@ -1669,7 +1669,7 @@
         <v>-1.75</v>
       </c>
       <c r="E73" t="n">
-        <v>1.339483394833948</v>
+        <v>2.066912551510598</v>
       </c>
     </row>
     <row r="74">
@@ -1686,7 +1686,7 @@
         <v>-0.41</v>
       </c>
       <c r="E74" t="n">
-        <v>1</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="75">
@@ -1703,7 +1703,7 @@
         <v>-0.04</v>
       </c>
       <c r="E75" t="n">
-        <v>1.642533936651584</v>
+        <v>1.6855633722651</v>
       </c>
     </row>
     <row r="76">
@@ -1720,7 +1720,7 @@
         <v>-1.41</v>
       </c>
       <c r="E76" t="n">
-        <v>1.334558823529412</v>
+        <v>2.074539535095508</v>
       </c>
     </row>
     <row r="77">
@@ -1737,7 +1737,7 @@
         <v>-0.8100000000000001</v>
       </c>
       <c r="E77" t="n">
-        <v>1.238907849829352</v>
+        <v>2.234706190378617</v>
       </c>
     </row>
     <row r="78">
@@ -1754,7 +1754,7 @@
         <v>-9.75</v>
       </c>
       <c r="E78" t="n">
-        <v>1.043103448275862</v>
+        <v>2.654190287548665</v>
       </c>
     </row>
     <row r="79">
@@ -1771,7 +1771,7 @@
         <v>1.35</v>
       </c>
       <c r="E79" t="n">
-        <v>1.152380952380952</v>
+        <v>2.402499829246636</v>
       </c>
     </row>
     <row r="80">
@@ -1788,7 +1788,7 @@
         <v>0.29</v>
       </c>
       <c r="E80" t="n">
-        <v>1.62780269058296</v>
+        <v>1.70081733943492</v>
       </c>
     </row>
     <row r="81">
@@ -1805,7 +1805,7 @@
         <v>-0.23</v>
       </c>
       <c r="E81" t="n">
-        <v>1.525210084033614</v>
+        <v>1.815222093208569</v>
       </c>
     </row>
     <row r="82">
@@ -1822,7 +1822,7 @@
         <v>0.63</v>
       </c>
       <c r="E82" t="n">
-        <v>1.805970149253731</v>
+        <v>1.533023700566901</v>
       </c>
     </row>
     <row r="83">
@@ -1839,7 +1839,7 @@
         <v>0.26</v>
       </c>
       <c r="E83" t="n">
-        <v>1.481632653061224</v>
+        <v>1.868610978302939</v>
       </c>
     </row>
     <row r="84">
@@ -1856,7 +1856,7 @@
         <v>-0.27</v>
       </c>
       <c r="E84" t="n">
-        <v>1.134375</v>
+        <v>2.440634747171186</v>
       </c>
     </row>
     <row r="85">
@@ -1873,7 +1873,7 @@
         <v>0.22</v>
       </c>
       <c r="E85" t="n">
-        <v>1.824120603015075</v>
+        <v>1.517769733397081</v>
       </c>
     </row>
     <row r="86">
@@ -1890,7 +1890,7 @@
         <v>-2.36</v>
       </c>
       <c r="E86" t="n">
-        <v>1.264808362369338</v>
+        <v>2.188944288869157</v>
       </c>
     </row>
     <row r="87">
@@ -1907,7 +1907,7 @@
         <v>1.53</v>
       </c>
       <c r="E87" t="n">
-        <v>1.538135593220339</v>
+        <v>1.79996812603875</v>
       </c>
     </row>
     <row r="88">
@@ -1924,7 +1924,7 @@
         <v>-1.66</v>
       </c>
       <c r="E88" t="n">
-        <v>1.086826347305389</v>
+        <v>2.547412517359925</v>
       </c>
     </row>
     <row r="89">
@@ -1941,7 +1941,7 @@
         <v>-1.04</v>
       </c>
       <c r="E89" t="n">
-        <v>1.380228136882129</v>
+        <v>2.005896682831319</v>
       </c>
     </row>
     <row r="90">
@@ -1958,7 +1958,7 @@
         <v>-2.73</v>
       </c>
       <c r="E90" t="n">
-        <v>1.116923076923077</v>
+        <v>2.478769665095736</v>
       </c>
     </row>
     <row r="91">
@@ -1975,7 +1975,7 @@
         <v>-2.15</v>
       </c>
       <c r="E91" t="n">
-        <v>1.234693877551021</v>
+        <v>2.242333173963527</v>
       </c>
     </row>
     <row r="92">
@@ -1992,7 +1992,7 @@
         <v>0.98</v>
       </c>
       <c r="E92" t="n">
-        <v>1.994505494505495</v>
+        <v>1.388111012453612</v>
       </c>
     </row>
     <row r="93">
@@ -2009,7 +2009,7 @@
         <v>-0.29</v>
       </c>
       <c r="E93" t="n">
-        <v>1.910526315789474</v>
+        <v>1.449126881132891</v>
       </c>
     </row>
     <row r="94">
@@ -2026,7 +2026,7 @@
         <v>-1.34</v>
       </c>
       <c r="E94" t="n">
-        <v>1.406976744186047</v>
+        <v>1.967761764906768</v>
       </c>
     </row>
     <row r="95">
@@ -2043,7 +2043,7 @@
         <v>0.84</v>
       </c>
       <c r="E95" t="n">
-        <v>1.941176470588235</v>
+        <v>1.426245930378162</v>
       </c>
     </row>
     <row r="96">
@@ -2060,7 +2060,7 @@
         <v>2.32</v>
       </c>
       <c r="E96" t="n">
-        <v>1.506224066390041</v>
+        <v>1.838103043963299</v>
       </c>
     </row>
     <row r="97">
@@ -2077,7 +2077,7 @@
         <v>-0.24</v>
       </c>
       <c r="E97" t="n">
-        <v>1.736842105263158</v>
+        <v>1.594039569246181</v>
       </c>
     </row>
     <row r="98">
@@ -2094,7 +2094,7 @@
         <v>-2.47</v>
       </c>
       <c r="E98" t="n">
-        <v>1.214046822742475</v>
+        <v>2.280468091888077</v>
       </c>
     </row>
     <row r="99">
@@ -2111,7 +2111,7 @@
         <v>-1.63</v>
       </c>
       <c r="E99" t="n">
-        <v>1.218120805369127</v>
+        <v>2.272841108303167</v>
       </c>
     </row>
     <row r="100">
@@ -2128,7 +2128,7 @@
         <v>-2.15</v>
       </c>
       <c r="E100" t="n">
-        <v>1.278169014084507</v>
+        <v>2.166063338114427</v>
       </c>
     </row>
     <row r="101">
@@ -2145,7 +2145,7 @@
         <v>-0.34</v>
       </c>
       <c r="E101" t="n">
-        <v>1.606194690265487</v>
+        <v>1.72369829018965</v>
       </c>
     </row>
     <row r="102">
@@ -2162,7 +2162,7 @@
         <v>-2.58</v>
       </c>
       <c r="E102" t="n">
-        <v>1.046109510086455</v>
+        <v>2.646563303963755</v>
       </c>
     </row>
     <row r="103">
@@ -2179,7 +2179,7 @@
         <v>-0.23</v>
       </c>
       <c r="E103" t="n">
-        <v>1.578260869565217</v>
+        <v>1.75420622452929</v>
       </c>
     </row>
     <row r="104">
@@ -2196,7 +2196,7 @@
         <v>-3.99</v>
       </c>
       <c r="E104" t="n">
-        <v>1.106707317073171</v>
+        <v>2.501650615850465</v>
       </c>
     </row>
     <row r="105">
@@ -2213,7 +2213,7 @@
         <v>0.98</v>
       </c>
       <c r="E105" t="n">
-        <v>1.712264150943396</v>
+        <v>1.616920520000911</v>
       </c>
     </row>
     <row r="106">
@@ -2230,7 +2230,7 @@
         <v>-0.55</v>
       </c>
       <c r="E106" t="n">
-        <v>1.434782608695652</v>
+        <v>1.929626846982219</v>
       </c>
     </row>
     <row r="107">
@@ -2247,7 +2247,7 @@
         <v>-3.34</v>
       </c>
       <c r="E107" t="n">
-        <v>1.127329192546584</v>
+        <v>2.455888714341006</v>
       </c>
     </row>
     <row r="108">
@@ -2264,7 +2264,7 @@
         <v>0.46</v>
       </c>
       <c r="E108" t="n">
-        <v>1.762135922330097</v>
+        <v>1.571158618491451</v>
       </c>
     </row>
     <row r="109">
@@ -2281,7 +2281,7 @@
         <v>-1.78</v>
       </c>
       <c r="E109" t="n">
-        <v>1.315217391304348</v>
+        <v>2.105047469435148</v>
       </c>
     </row>
     <row r="110">
@@ -2298,7 +2298,7 @@
         <v>0.35</v>
       </c>
       <c r="E110" t="n">
-        <v>1.230508474576271</v>
+        <v>2.249960157548437</v>
       </c>
     </row>
     <row r="111">
@@ -2315,7 +2315,7 @@
         <v>-2.14</v>
       </c>
       <c r="E111" t="n">
-        <v>1.247422680412371</v>
+        <v>2.219452223208797</v>
       </c>
     </row>
     <row r="112">
@@ -2332,7 +2332,7 @@
         <v>-3</v>
       </c>
       <c r="E112" t="n">
-        <v>1.141509433962264</v>
+        <v>2.425380780001366</v>
       </c>
     </row>
     <row r="113">
@@ -2349,7 +2349,7 @@
         <v>-1.17</v>
       </c>
       <c r="E113" t="n">
-        <v>1.287234042553192</v>
+        <v>2.150809370944608</v>
       </c>
     </row>
     <row r="114">
@@ -2366,7 +2366,7 @@
         <v>0.6</v>
       </c>
       <c r="E114" t="n">
-        <v>1.429133858267717</v>
+        <v>1.937253830567129</v>
       </c>
     </row>
     <row r="115">
@@ -2383,7 +2383,7 @@
         <v>-0.32</v>
       </c>
       <c r="E115" t="n">
-        <v>1.1</v>
+        <v>2.516904583020285</v>
       </c>
     </row>
     <row r="116">
@@ -2400,7 +2400,7 @@
         <v>0.02</v>
       </c>
       <c r="E116" t="n">
-        <v>1.457831325301205</v>
+        <v>1.899118912642579</v>
       </c>
     </row>
     <row r="117">
@@ -2417,7 +2417,7 @@
         <v>-1.47</v>
       </c>
       <c r="E117" t="n">
-        <v>1.226351351351351</v>
+        <v>2.257587141133347</v>
       </c>
     </row>
     <row r="118">
@@ -2434,7 +2434,7 @@
         <v>0.88</v>
       </c>
       <c r="E118" t="n">
-        <v>1.170967741935484</v>
+        <v>2.364364911322086</v>
       </c>
     </row>
     <row r="119">
@@ -2451,7 +2451,7 @@
         <v>1.38</v>
       </c>
       <c r="E119" t="n">
-        <v>1</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="120">
@@ -2468,7 +2468,7 @@
         <v>-0.16</v>
       </c>
       <c r="E120" t="n">
-        <v>1.672811059907834</v>
+        <v>1.655055437925461</v>
       </c>
     </row>
     <row r="121">
@@ -2485,7 +2485,7 @@
         <v>-0.54</v>
       </c>
       <c r="E121" t="n">
-        <v>1</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="122">
@@ -2502,7 +2502,7 @@
         <v>-0.31</v>
       </c>
       <c r="E122" t="n">
-        <v>1.369811320754717</v>
+        <v>2.021150650001138</v>
       </c>
     </row>
     <row r="123">
@@ -2519,7 +2519,7 @@
         <v>-0.46</v>
       </c>
       <c r="E123" t="n">
-        <v>1.5</v>
+        <v>1.845730027548209</v>
       </c>
     </row>
     <row r="124">
@@ -2536,7 +2536,7 @@
         <v>0.73</v>
       </c>
       <c r="E124" t="n">
-        <v>1.880829015544041</v>
+        <v>1.472007831887622</v>
       </c>
     </row>
     <row r="125">
@@ -2553,7 +2553,7 @@
         <v>-1.03</v>
       </c>
       <c r="E125" t="n">
-        <v>1.401544401544402</v>
+        <v>1.975388748491679</v>
       </c>
     </row>
     <row r="126">
@@ -2570,7 +2570,7 @@
         <v>-0.1</v>
       </c>
       <c r="E126" t="n">
-        <v>1.753623188405797</v>
+        <v>1.578785602076361</v>
       </c>
     </row>
     <row r="127">
@@ -2587,7 +2587,7 @@
         <v>12.86</v>
       </c>
       <c r="E127" t="n">
-        <v>1.130841121495327</v>
+        <v>2.448261730756096</v>
       </c>
     </row>
     <row r="128">
@@ -2604,7 +2604,7 @@
         <v>-1.98</v>
       </c>
       <c r="E128" t="n">
-        <v>1.305755395683453</v>
+        <v>2.120301436604968</v>
       </c>
     </row>
     <row r="129">
@@ -2621,7 +2621,7 @@
         <v>-1.67</v>
       </c>
       <c r="E129" t="n">
-        <v>1.260416666666667</v>
+        <v>2.196571272454067</v>
       </c>
     </row>
     <row r="130">
@@ -2638,7 +2638,7 @@
         <v>-0.87</v>
       </c>
       <c r="E130" t="n">
-        <v>1.156050955414013</v>
+        <v>2.394872845661726</v>
       </c>
     </row>
     <row r="131">
@@ -2655,7 +2655,7 @@
         <v>0.37</v>
       </c>
       <c r="E131" t="n">
-        <v>1.665137614678899</v>
+        <v>1.66268242151037</v>
       </c>
     </row>
     <row r="132">
@@ -2672,7 +2672,7 @@
         <v>-5.25</v>
       </c>
       <c r="E132" t="n">
-        <v>1</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="133">
@@ -2689,7 +2689,7 @@
         <v>0.92</v>
       </c>
       <c r="E133" t="n">
-        <v>1.861538461538462</v>
+        <v>1.487261799057441</v>
       </c>
     </row>
     <row r="134">
@@ -2706,7 +2706,7 @@
         <v>-1.49</v>
       </c>
       <c r="E134" t="n">
-        <v>1.282685512367491</v>
+        <v>2.158436354529517</v>
       </c>
     </row>
     <row r="135">
@@ -2723,7 +2723,7 @@
         <v>15.39</v>
       </c>
       <c r="E135" t="n">
-        <v>1.064516129032258</v>
+        <v>2.600801402454295</v>
       </c>
     </row>
     <row r="136">
@@ -2740,7 +2740,7 @@
         <v>-0.02</v>
       </c>
       <c r="E136" t="n">
-        <v>1.704225352112676</v>
+        <v>1.624547503585821</v>
       </c>
     </row>
     <row r="137">
@@ -2757,7 +2757,7 @@
         <v>0.41</v>
       </c>
       <c r="E137" t="n">
-        <v>1.194078947368421</v>
+        <v>2.318603009812627</v>
       </c>
     </row>
     <row r="138">
@@ -2774,7 +2774,7 @@
         <v>-4.43</v>
       </c>
       <c r="E138" t="n">
-        <v>1.137931034482759</v>
+        <v>2.433007763586276</v>
       </c>
     </row>
     <row r="139">
@@ -2791,7 +2791,7 @@
         <v>-0.61</v>
       </c>
       <c r="E139" t="n">
-        <v>1.385496183206107</v>
+        <v>1.998269699246408</v>
       </c>
     </row>
     <row r="140">
@@ -2808,7 +2808,7 @@
         <v>0.14</v>
       </c>
       <c r="E140" t="n">
-        <v>1.900523560209424</v>
+        <v>1.456753864717802</v>
       </c>
     </row>
     <row r="141">
@@ -2825,7 +2825,7 @@
         <v>-6.39</v>
       </c>
       <c r="E141" t="n">
-        <v>1</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="142">
@@ -2842,7 +2842,7 @@
         <v>3.73</v>
       </c>
       <c r="E142" t="n">
-        <v>1.040114613180516</v>
+        <v>2.661817271133575</v>
       </c>
     </row>
     <row r="143">
@@ -2859,7 +2859,7 @@
         <v>0.44</v>
       </c>
       <c r="E143" t="n">
-        <v>1.92063492063492</v>
+        <v>1.441499897547982</v>
       </c>
     </row>
     <row r="144">
@@ -2876,7 +2876,7 @@
         <v>0.64</v>
       </c>
       <c r="E144" t="n">
-        <v>1.833333333333333</v>
+        <v>1.510142749812171</v>
       </c>
     </row>
     <row r="145">
@@ -2893,7 +2893,7 @@
         <v>2.37</v>
       </c>
       <c r="E145" t="n">
-        <v>1.222222222222222</v>
+        <v>2.265214124718257</v>
       </c>
     </row>
     <row r="146">
@@ -2910,7 +2910,7 @@
         <v>-6.6</v>
       </c>
       <c r="E146" t="n">
-        <v>1.083582089552239</v>
+        <v>2.555039500944835</v>
       </c>
     </row>
     <row r="147">
@@ -2927,7 +2927,7 @@
         <v>-2.03</v>
       </c>
       <c r="E147" t="n">
-        <v>1.205980066445183</v>
+        <v>2.295722059057897</v>
       </c>
     </row>
     <row r="148">
@@ -2944,7 +2944,7 @@
         <v>-1.89</v>
       </c>
       <c r="E148" t="n">
-        <v>1.123839009287926</v>
+        <v>2.463515697925916</v>
       </c>
     </row>
     <row r="149">
@@ -2961,7 +2961,7 @@
         <v>3.85</v>
       </c>
       <c r="E149" t="n">
-        <v>1.797029702970297</v>
+        <v>1.540650684151811</v>
       </c>
     </row>
     <row r="150">
@@ -2978,7 +2978,7 @@
         <v>0.3</v>
       </c>
       <c r="E150" t="n">
-        <v>1.720379146919431</v>
+        <v>1.609293536416001</v>
       </c>
     </row>
     <row r="151">
@@ -2995,7 +2995,7 @@
         <v>50.37</v>
       </c>
       <c r="E151" t="n">
-        <v>1</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="152">
@@ -3012,7 +3012,7 @@
         <v>-0.01</v>
       </c>
       <c r="E152" t="n">
-        <v>1.585152838427947</v>
+        <v>1.74657924094438</v>
       </c>
     </row>
     <row r="153">
@@ -3029,7 +3029,7 @@
         <v>0.31</v>
       </c>
       <c r="E153" t="n">
-        <v>1.930851063829787</v>
+        <v>1.433872913963072</v>
       </c>
     </row>
     <row r="154">
@@ -3046,7 +3046,7 @@
         <v>0.36</v>
       </c>
       <c r="E154" t="n">
-        <v>1.657534246575342</v>
+        <v>1.67030940509528</v>
       </c>
     </row>
     <row r="155">
@@ -3063,7 +3063,7 @@
         <v>-0.84</v>
       </c>
       <c r="E155" t="n">
-        <v>1.452</v>
+        <v>1.906745896227489</v>
       </c>
     </row>
     <row r="156">
@@ -3080,7 +3080,7 @@
         <v>-2.18</v>
       </c>
       <c r="E156" t="n">
-        <v>1.273684210526316</v>
+        <v>2.173690321699338</v>
       </c>
     </row>
     <row r="157">
@@ -3097,7 +3097,7 @@
         <v>1.42</v>
       </c>
       <c r="E157" t="n">
-        <v>1.055232558139535</v>
+        <v>2.623682353209025</v>
       </c>
     </row>
     <row r="158">
@@ -3114,7 +3114,7 @@
         <v>-3.78</v>
       </c>
       <c r="E158" t="n">
-        <v>1.145110410094637</v>
+        <v>2.417753796416456</v>
       </c>
     </row>
     <row r="159">
@@ -3131,7 +3131,7 @@
         <v>-0.57</v>
       </c>
       <c r="E159" t="n">
-        <v>1.186274509803922</v>
+        <v>2.333856976982446</v>
       </c>
     </row>
     <row r="160">
@@ -3148,7 +3148,7 @@
         <v>-1.3</v>
       </c>
       <c r="E160" t="n">
-        <v>1.296428571428571</v>
+        <v>2.135555403774787</v>
       </c>
     </row>
     <row r="161">
@@ -3165,7 +3165,7 @@
         <v>-1.6</v>
       </c>
       <c r="E161" t="n">
-        <v>1.344444444444445</v>
+        <v>2.059285567925688</v>
       </c>
     </row>
     <row r="162">
@@ -3182,7 +3182,7 @@
         <v>-0.09</v>
       </c>
       <c r="E162" t="n">
-        <v>1.256055363321799</v>
+        <v>2.204198256038977</v>
       </c>
     </row>
     <row r="163">
@@ -3199,7 +3199,7 @@
         <v>-4.12</v>
       </c>
       <c r="E163" t="n">
-        <v>1.182410423452769</v>
+        <v>2.341483960567357</v>
       </c>
     </row>
     <row r="164">
@@ -3216,7 +3216,7 @@
         <v>-1.11</v>
       </c>
       <c r="E164" t="n">
-        <v>1</v>
+        <v>2.768595041322314</v>
       </c>
     </row>
     <row r="165">
@@ -3233,7 +3233,7 @@
         <v>-0.74</v>
       </c>
       <c r="E165" t="n">
-        <v>1.201986754966887</v>
+        <v>2.303349042642806</v>
       </c>
     </row>
     <row r="166">
@@ -3250,7 +3250,7 @@
         <v>1.1</v>
       </c>
       <c r="E166" t="n">
-        <v>1.375</v>
+        <v>2.013523666416229</v>
       </c>
     </row>
     <row r="167">
@@ -3267,7 +3267,7 @@
         <v>0.79</v>
       </c>
       <c r="E167" t="n">
-        <v>1.469635627530364</v>
+        <v>1.883864945472759</v>
       </c>
     </row>
     <row r="168">
@@ -3284,7 +3284,7 @@
         <v>-2.38</v>
       </c>
       <c r="E168" t="n">
-        <v>1.190163934426229</v>
+        <v>2.326229993397537</v>
       </c>
     </row>
     <row r="169">
@@ -3301,7 +3301,7 @@
         <v>-0.16</v>
       </c>
       <c r="E169" t="n">
-        <v>1.531645569620253</v>
+        <v>1.80759510962366</v>
       </c>
     </row>
     <row r="170">
@@ -3318,7 +3318,7 @@
         <v>0.36</v>
       </c>
       <c r="E170" t="n">
-        <v>1.890625</v>
+        <v>1.464380848302712</v>
       </c>
     </row>
     <row r="171">
@@ -3335,7 +3335,7 @@
         <v>-14.68</v>
       </c>
       <c r="E171" t="n">
-        <v>1.034188034188034</v>
+        <v>2.677071238303395</v>
       </c>
     </row>
     <row r="172">
@@ -3352,7 +3352,7 @@
         <v>0.47</v>
       </c>
       <c r="E172" t="n">
-        <v>1.983606557377049</v>
+        <v>1.395737996038522</v>
       </c>
     </row>
     <row r="173">
@@ -3369,7 +3369,7 @@
         <v>4.33</v>
       </c>
       <c r="E173" t="n">
-        <v>1.096676737160121</v>
+        <v>2.524531566605195</v>
       </c>
     </row>
     <row r="174">
@@ -3386,7 +3386,7 @@
         <v>0.34</v>
       </c>
       <c r="E174" t="n">
-        <v>1.842639593908629</v>
+        <v>1.502515766227261</v>
       </c>
     </row>
     <row r="175">
@@ -3403,7 +3403,7 @@
         <v>-4.15</v>
       </c>
       <c r="E175" t="n">
-        <v>1.067647058823529</v>
+        <v>2.593174418869385</v>
       </c>
     </row>
     <row r="176">
@@ -3420,7 +3420,7 @@
         <v>0.03</v>
       </c>
       <c r="E176" t="n">
-        <v>1.390804597701149</v>
+        <v>1.990642715661499</v>
       </c>
     </row>
     <row r="177">
@@ -3437,7 +3437,7 @@
         <v>0.28</v>
       </c>
       <c r="E177" t="n">
-        <v>1.696261682242991</v>
+        <v>1.63217448717073</v>
       </c>
     </row>
     <row r="178">
@@ -3454,7 +3454,7 @@
         <v>-3.19</v>
       </c>
       <c r="E178" t="n">
-        <v>1.41796875</v>
+        <v>1.952507797736949</v>
       </c>
     </row>
     <row r="179">
@@ -3471,7 +3471,7 @@
         <v>-1.14</v>
       </c>
       <c r="E179" t="n">
-        <v>1.493827160493827</v>
+        <v>1.853357011133119</v>
       </c>
     </row>
     <row r="180">
@@ -3488,7 +3488,7 @@
         <v>-0.16</v>
       </c>
       <c r="E180" t="n">
-        <v>1.613333333333333</v>
+        <v>1.71607130660474</v>
       </c>
     </row>
     <row r="181">
@@ -3505,7 +3505,7 @@
         <v>0.57</v>
       </c>
       <c r="E181" t="n">
-        <v>1.093373493975904</v>
+        <v>2.532158550190105</v>
       </c>
     </row>
     <row r="182">
@@ -3522,7 +3522,7 @@
         <v>-2.55</v>
       </c>
       <c r="E182" t="n">
-        <v>1.110091743119266</v>
+        <v>2.494023632265555</v>
       </c>
     </row>
     <row r="183">
@@ -3539,7 +3539,7 @@
         <v>0.36</v>
       </c>
       <c r="E183" t="n">
-        <v>1.871134020618557</v>
+        <v>1.479634815472531</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -450,104 +450,104 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.58</v>
+        <v>1.26</v>
       </c>
       <c r="B2" t="n">
-        <v>718</v>
+        <v>249.44</v>
       </c>
       <c r="C2" t="n">
-        <v>2.22</v>
+        <v>-9.06</v>
       </c>
       <c r="D2" t="n">
-        <v>0.86</v>
+        <v>-1.2</v>
       </c>
       <c r="E2" t="n">
-        <v>1.586412585661271</v>
+        <v>0.6584022038567493</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.37</v>
+        <v>1.53</v>
       </c>
       <c r="B3" t="n">
-        <v>840.6</v>
+        <v>227.26</v>
       </c>
       <c r="C3" t="n">
-        <v>118.9</v>
+        <v>11.87</v>
       </c>
       <c r="D3" t="n">
-        <v>17.76</v>
+        <v>2.91</v>
       </c>
       <c r="E3" t="n">
-        <v>2.768595041322314</v>
+        <v>0.9752066115702479</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="B4" t="n">
-        <v>78.16</v>
+        <v>167.96</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.23</v>
+        <v>6.7</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.49</v>
+        <v>2.83</v>
       </c>
       <c r="E4" t="n">
-        <v>2.310976026227717</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="B5" t="n">
-        <v>192.51</v>
+        <v>412.7</v>
       </c>
       <c r="C5" t="n">
-        <v>5.26</v>
+        <v>28.42</v>
       </c>
       <c r="D5" t="n">
-        <v>7.6</v>
+        <v>0.63</v>
       </c>
       <c r="E5" t="n">
-        <v>1.79234114245384</v>
+        <v>0.7768595041322314</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="B6" t="n">
-        <v>934.73</v>
+        <v>144.12</v>
       </c>
       <c r="C6" t="n">
-        <v>-13.79</v>
+        <v>5.57</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.34</v>
+        <v>-0.02</v>
       </c>
       <c r="E6" t="n">
-        <v>2.387245862076816</v>
+        <v>0.7300275482093664</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="B7" t="n">
-        <v>71.94</v>
+        <v>129.52</v>
       </c>
       <c r="C7" t="n">
-        <v>-3.84</v>
+        <v>5.33</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.04</v>
+        <v>1.17</v>
       </c>
       <c r="E7" t="n">
-        <v>2.036404617170958</v>
+        <v>0.8429752066115702</v>
       </c>
     </row>
     <row r="8">
@@ -555,50 +555,50 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>151.53</v>
+        <v>136.56</v>
       </c>
       <c r="C8" t="n">
-        <v>12.08</v>
+        <v>2.84</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.43</v>
+        <v>1.02</v>
       </c>
       <c r="E8" t="n">
-        <v>1.7618332081142</v>
+        <v>0.5730027548209367</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>72.63</v>
+        <v>120.22</v>
       </c>
       <c r="C9" t="n">
-        <v>37.72</v>
+        <v>5.55</v>
       </c>
       <c r="D9" t="n">
-        <v>14.99</v>
+        <v>0.46</v>
       </c>
       <c r="E9" t="n">
-        <v>2.577920451699565</v>
+        <v>0.509641873278237</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="B10" t="n">
-        <v>101.52</v>
+        <v>258.6</v>
       </c>
       <c r="C10" t="n">
-        <v>-21.76</v>
+        <v>16.04</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.95</v>
+        <v>1.9</v>
       </c>
       <c r="E10" t="n">
-        <v>2.288095075472987</v>
+        <v>0.8539944903581267</v>
       </c>
     </row>
     <row r="11">
@@ -606,16 +606,16 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>598.0700000000001</v>
+        <v>142.61</v>
       </c>
       <c r="C11" t="n">
-        <v>-7.8</v>
+        <v>10.03</v>
       </c>
       <c r="D11" t="n">
-        <v>0.22</v>
+        <v>4.45</v>
       </c>
       <c r="E11" t="n">
-        <v>1.983015732076589</v>
+        <v>0.6308539944903582</v>
       </c>
     </row>
     <row r="12">
@@ -623,169 +623,169 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>118.22</v>
+        <v>56.39</v>
       </c>
       <c r="C12" t="n">
-        <v>-9.869999999999999</v>
+        <v>-3.53</v>
       </c>
       <c r="D12" t="n">
-        <v>0.48</v>
+        <v>1.36</v>
       </c>
       <c r="E12" t="n">
-        <v>1.830476060378389</v>
+        <v>0.512396694214876</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="B13" t="n">
-        <v>121.25</v>
+        <v>92.47</v>
       </c>
       <c r="C13" t="n">
-        <v>4.66</v>
+        <v>-5.03</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.02</v>
+        <v>1.4</v>
       </c>
       <c r="E13" t="n">
-        <v>1.921999863397309</v>
+        <v>0.9008264462809917</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>168.71</v>
+        <v>89.11</v>
       </c>
       <c r="C14" t="n">
-        <v>5.13</v>
+        <v>4.47</v>
       </c>
       <c r="D14" t="n">
-        <v>0.09</v>
+        <v>1.03</v>
       </c>
       <c r="E14" t="n">
-        <v>1.418618946793252</v>
+        <v>0.5647382920110193</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.84</v>
+        <v>1.67</v>
       </c>
       <c r="B15" t="n">
-        <v>160.28</v>
+        <v>252.34</v>
       </c>
       <c r="C15" t="n">
-        <v>23.99</v>
+        <v>1.2</v>
       </c>
       <c r="D15" t="n">
-        <v>8.18</v>
+        <v>4.22</v>
       </c>
       <c r="E15" t="n">
-        <v>1.76946019169911</v>
+        <v>0.9972451790633609</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="B16" t="n">
-        <v>118.57</v>
+        <v>154.03</v>
       </c>
       <c r="C16" t="n">
-        <v>-17.75</v>
+        <v>20.85</v>
       </c>
       <c r="D16" t="n">
-        <v>-2.69</v>
+        <v>1.14</v>
       </c>
       <c r="E16" t="n">
-        <v>2.379618878491906</v>
+        <v>0.628099173553719</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="B17" t="n">
-        <v>265.51</v>
+        <v>142.34</v>
       </c>
       <c r="C17" t="n">
-        <v>-9.81</v>
+        <v>10.17</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.88</v>
+        <v>0.99</v>
       </c>
       <c r="E17" t="n">
-        <v>2.051658584340778</v>
+        <v>0.6859504132231405</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="B18" t="n">
-        <v>271.76</v>
+        <v>165.75</v>
       </c>
       <c r="C18" t="n">
-        <v>-12.26</v>
+        <v>5.72</v>
       </c>
       <c r="D18" t="n">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="E18" t="n">
-        <v>1.563531634906541</v>
+        <v>0.8292011019283747</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="B19" t="n">
-        <v>91.23</v>
+        <v>169.83</v>
       </c>
       <c r="C19" t="n">
-        <v>-9.49</v>
+        <v>-1.47</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.58</v>
+        <v>1.35</v>
       </c>
       <c r="E19" t="n">
-        <v>2.028777633586048</v>
+        <v>0.8925619834710744</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0</v>
+        <v>0.79</v>
       </c>
       <c r="B20" t="n">
-        <v>1379.36</v>
+        <v>371.35</v>
       </c>
       <c r="C20" t="n">
-        <v>5.95</v>
+        <v>-2.39</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.35</v>
+        <v>0.8</v>
       </c>
       <c r="E20" t="n">
-        <v>2.539785533775015</v>
+        <v>0.696969696969697</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="B21" t="n">
-        <v>242.97</v>
+        <v>215.18</v>
       </c>
       <c r="C21" t="n">
-        <v>2.63</v>
+        <v>23.81</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.94</v>
+        <v>4.47</v>
       </c>
       <c r="E21" t="n">
-        <v>2.112674453020058</v>
+        <v>0.8980716253443526</v>
       </c>
     </row>
     <row r="22">
@@ -793,84 +793,84 @@
         <v>0</v>
       </c>
       <c r="B22" t="n">
-        <v>50.47</v>
+        <v>361.17</v>
       </c>
       <c r="C22" t="n">
-        <v>-20.67</v>
+        <v>5.11</v>
       </c>
       <c r="D22" t="n">
-        <v>-7.44</v>
+        <v>0.53</v>
       </c>
       <c r="E22" t="n">
-        <v>2.585547435284475</v>
+        <v>0.5206611570247934</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="B23" t="n">
-        <v>16.76</v>
+        <v>64.3</v>
       </c>
       <c r="C23" t="n">
-        <v>9.42</v>
+        <v>-7.15</v>
       </c>
       <c r="D23" t="n">
-        <v>0.14</v>
+        <v>1.02</v>
       </c>
       <c r="E23" t="n">
-        <v>1.64742845434055</v>
+        <v>0.7630853994490359</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="B24" t="n">
-        <v>191.1</v>
+        <v>159.99</v>
       </c>
       <c r="C24" t="n">
-        <v>-18.74</v>
+        <v>-12.56</v>
       </c>
       <c r="D24" t="n">
-        <v>-4.51</v>
+        <v>0.09</v>
       </c>
       <c r="E24" t="n">
-        <v>2.486396648680646</v>
+        <v>0.6804407713498623</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.84</v>
+        <v>1.02</v>
       </c>
       <c r="B25" t="n">
-        <v>982.3099999999999</v>
+        <v>130.42</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.1</v>
+        <v>36.91</v>
       </c>
       <c r="D25" t="n">
-        <v>1.02</v>
+        <v>3.77</v>
       </c>
       <c r="E25" t="n">
-        <v>2.097420485850238</v>
+        <v>0.5674931129476584</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="B26" t="n">
-        <v>126.54</v>
+        <v>161.81</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.77</v>
+        <v>-0.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.2</v>
+        <v>1.5</v>
       </c>
       <c r="E26" t="n">
-        <v>1.73132527377456</v>
+        <v>0.7107438016528925</v>
       </c>
     </row>
     <row r="27">
@@ -878,33 +878,33 @@
         <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>186.58</v>
+        <v>101.24</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.24</v>
+        <v>0.15</v>
       </c>
       <c r="D27" t="n">
-        <v>0.42</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E27" t="n">
-        <v>1.410991963208342</v>
+        <v>0.5371900826446281</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.88</v>
+        <v>1.62</v>
       </c>
       <c r="B28" t="n">
-        <v>130.82</v>
+        <v>176.16</v>
       </c>
       <c r="C28" t="n">
-        <v>-17.32</v>
+        <v>-0.26</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.21</v>
+        <v>-0.02</v>
       </c>
       <c r="E28" t="n">
-        <v>1.69319035585001</v>
+        <v>0.928374655647383</v>
       </c>
     </row>
     <row r="29">
@@ -912,16 +912,16 @@
         <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>117.49</v>
+        <v>97.20999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>6.46</v>
+        <v>-0.8</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.34</v>
+        <v>2.21</v>
       </c>
       <c r="E29" t="n">
-        <v>1.70844432301983</v>
+        <v>0.6143250688705234</v>
       </c>
     </row>
     <row r="30">
@@ -929,16 +929,16 @@
         <v>0</v>
       </c>
       <c r="B30" t="n">
-        <v>341.82</v>
+        <v>209.86</v>
       </c>
       <c r="C30" t="n">
-        <v>-14.27</v>
+        <v>-4.93</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.51</v>
+        <v>2.84</v>
       </c>
       <c r="E30" t="n">
-        <v>2.082166518680418</v>
+        <v>0.6170798898071626</v>
       </c>
     </row>
     <row r="31">
@@ -946,67 +946,67 @@
         <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>76.98</v>
+        <v>109.78</v>
       </c>
       <c r="C31" t="n">
-        <v>-9.23</v>
+        <v>-2.62</v>
       </c>
       <c r="D31" t="n">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="E31" t="n">
-        <v>1.555904651321631</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="B32" t="n">
-        <v>243.72</v>
+        <v>153.89</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.49</v>
+        <v>-5.36</v>
       </c>
       <c r="D32" t="n">
-        <v>-1.08</v>
+        <v>0.92</v>
       </c>
       <c r="E32" t="n">
-        <v>1.944880814152039</v>
+        <v>0.8347107438016529</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="B33" t="n">
-        <v>1247.15</v>
+        <v>394.37</v>
       </c>
       <c r="C33" t="n">
-        <v>0.41</v>
+        <v>6.11</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.96</v>
+        <v>0.32</v>
       </c>
       <c r="E33" t="n">
-        <v>2.509277599435376</v>
+        <v>0.931129476584022</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="B34" t="n">
-        <v>116.6</v>
+        <v>129.22</v>
       </c>
       <c r="C34" t="n">
-        <v>-8.380000000000001</v>
+        <v>4.16</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.57</v>
+        <v>1.53</v>
       </c>
       <c r="E34" t="n">
-        <v>1.960134781321859</v>
+        <v>0.9146005509641874</v>
       </c>
     </row>
     <row r="35">
@@ -1014,67 +1014,67 @@
         <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>1855.29</v>
+        <v>180.37</v>
       </c>
       <c r="C35" t="n">
-        <v>1.94</v>
+        <v>-4.9</v>
       </c>
       <c r="D35" t="n">
-        <v>2.63</v>
+        <v>2.17</v>
       </c>
       <c r="E35" t="n">
-        <v>2.638936320378845</v>
+        <v>0.5977961432506887</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="B36" t="n">
-        <v>180.4</v>
+        <v>99.87</v>
       </c>
       <c r="C36" t="n">
-        <v>-4.36</v>
+        <v>-0.3</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.51</v>
+        <v>1.56</v>
       </c>
       <c r="E36" t="n">
-        <v>1.876237961887849</v>
+        <v>0.9476584022038568</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="B37" t="n">
-        <v>168.37</v>
+        <v>140.18</v>
       </c>
       <c r="C37" t="n">
-        <v>-5.44</v>
+        <v>23.76</v>
       </c>
       <c r="D37" t="n">
-        <v>-2.47</v>
+        <v>2.87</v>
       </c>
       <c r="E37" t="n">
-        <v>2.227079206793707</v>
+        <v>0.8484848484848485</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="B38" t="n">
-        <v>247.85</v>
+        <v>105.07</v>
       </c>
       <c r="C38" t="n">
-        <v>-6.94</v>
+        <v>-3.48</v>
       </c>
       <c r="D38" t="n">
-        <v>-1.41</v>
+        <v>0.54</v>
       </c>
       <c r="E38" t="n">
-        <v>2.089793502265328</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="39">
@@ -1082,152 +1082,152 @@
         <v>0</v>
       </c>
       <c r="B39" t="n">
-        <v>249.59</v>
+        <v>183.4</v>
       </c>
       <c r="C39" t="n">
-        <v>-10.06</v>
+        <v>-5.33</v>
       </c>
       <c r="D39" t="n">
-        <v>0.14</v>
+        <v>1.41</v>
       </c>
       <c r="E39" t="n">
-        <v>1.860983994718029</v>
+        <v>0.5482093663911846</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="B40" t="n">
-        <v>70.06</v>
+        <v>271.66</v>
       </c>
       <c r="C40" t="n">
-        <v>5.67</v>
+        <v>7.08</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.01</v>
+        <v>4.16</v>
       </c>
       <c r="E40" t="n">
-        <v>1.601666552831091</v>
+        <v>0.9173553719008265</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="B41" t="n">
-        <v>6580.26</v>
+        <v>199.16</v>
       </c>
       <c r="C41" t="n">
-        <v>-2.25</v>
+        <v>-8.029999999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>0.06</v>
+        <v>0.77</v>
       </c>
       <c r="E41" t="n">
-        <v>2.768595041322314</v>
+        <v>0.6418732782369146</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="B42" t="n">
-        <v>1789.9</v>
+        <v>157.07</v>
       </c>
       <c r="C42" t="n">
-        <v>-4.69</v>
+        <v>7.68</v>
       </c>
       <c r="D42" t="n">
-        <v>1.32</v>
+        <v>2.45</v>
       </c>
       <c r="E42" t="n">
-        <v>2.631309336793935</v>
+        <v>0.9669421487603306</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="B43" t="n">
-        <v>167.84</v>
+        <v>212.67</v>
       </c>
       <c r="C43" t="n">
-        <v>-3.54</v>
+        <v>22.54</v>
       </c>
       <c r="D43" t="n">
-        <v>0.3</v>
+        <v>0.84</v>
       </c>
       <c r="E43" t="n">
-        <v>1.548277667736721</v>
+        <v>0.8842975206611571</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="B44" t="n">
-        <v>36.15</v>
+        <v>213.21</v>
       </c>
       <c r="C44" t="n">
-        <v>-11.63</v>
+        <v>-0.85</v>
       </c>
       <c r="D44" t="n">
-        <v>-2.95</v>
+        <v>0.51</v>
       </c>
       <c r="E44" t="n">
-        <v>2.349110944152267</v>
+        <v>0.790633608815427</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="B45" t="n">
-        <v>649.91</v>
+        <v>194.16</v>
       </c>
       <c r="C45" t="n">
-        <v>-8.66</v>
+        <v>18.19</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.35</v>
+        <v>0.8</v>
       </c>
       <c r="E45" t="n">
-        <v>2.127928420189878</v>
+        <v>0.8016528925619835</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="B46" t="n">
-        <v>453.24</v>
+        <v>109.9</v>
       </c>
       <c r="C46" t="n">
-        <v>-3.94</v>
+        <v>30.68</v>
       </c>
       <c r="D46" t="n">
-        <v>1.33</v>
+        <v>1.87</v>
       </c>
       <c r="E46" t="n">
-        <v>1.403364979623432</v>
+        <v>0.7713498622589532</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="B47" t="n">
-        <v>169.08</v>
+        <v>429.07</v>
       </c>
       <c r="C47" t="n">
-        <v>-4.56</v>
+        <v>4.44</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.54</v>
+        <v>1.58</v>
       </c>
       <c r="E47" t="n">
-        <v>1.891491929057669</v>
+        <v>0.768595041322314</v>
       </c>
     </row>
     <row r="48">
@@ -1235,67 +1235,67 @@
         <v>0</v>
       </c>
       <c r="B48" t="n">
-        <v>53.01</v>
+        <v>112.47</v>
       </c>
       <c r="C48" t="n">
-        <v>-4.17</v>
+        <v>-1.03</v>
       </c>
       <c r="D48" t="n">
-        <v>-3.61</v>
+        <v>1.46</v>
       </c>
       <c r="E48" t="n">
-        <v>2.371991894906996</v>
+        <v>0.5785123966942148</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="B49" t="n">
-        <v>22.23</v>
+        <v>216.39</v>
       </c>
       <c r="C49" t="n">
-        <v>9.81</v>
+        <v>-0.05</v>
       </c>
       <c r="D49" t="n">
-        <v>0.05</v>
+        <v>1.46</v>
       </c>
       <c r="E49" t="n">
-        <v>1.67793638868019</v>
+        <v>0.7134986225895317</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="B50" t="n">
-        <v>457.87</v>
+        <v>119.77</v>
       </c>
       <c r="C50" t="n">
-        <v>116.94</v>
+        <v>0.35</v>
       </c>
       <c r="D50" t="n">
-        <v>-2.04</v>
+        <v>-0.28</v>
       </c>
       <c r="E50" t="n">
-        <v>2.684698221888305</v>
+        <v>0.9035812672176309</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="B51" t="n">
-        <v>254.41</v>
+        <v>203.16</v>
       </c>
       <c r="C51" t="n">
-        <v>-8.67</v>
+        <v>-3.62</v>
       </c>
       <c r="D51" t="n">
-        <v>0.31</v>
+        <v>1.16</v>
       </c>
       <c r="E51" t="n">
-        <v>1.77708717528402</v>
+        <v>0.7603305785123967</v>
       </c>
     </row>
     <row r="52">
@@ -1303,33 +1303,33 @@
         <v>0</v>
       </c>
       <c r="B52" t="n">
-        <v>126.14</v>
+        <v>221.96</v>
       </c>
       <c r="C52" t="n">
-        <v>45.6</v>
+        <v>3.29</v>
       </c>
       <c r="D52" t="n">
-        <v>19.79</v>
+        <v>1.76</v>
       </c>
       <c r="E52" t="n">
-        <v>2.669444254718484</v>
+        <v>0.6363636363636364</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="B53" t="n">
-        <v>202.42</v>
+        <v>219.01</v>
       </c>
       <c r="C53" t="n">
-        <v>-55.04</v>
+        <v>4.07</v>
       </c>
       <c r="D53" t="n">
-        <v>-2.9</v>
+        <v>2.33</v>
       </c>
       <c r="E53" t="n">
-        <v>2.608428386039205</v>
+        <v>0.9118457300275482</v>
       </c>
     </row>
     <row r="54">
@@ -1337,33 +1337,33 @@
         <v>0</v>
       </c>
       <c r="B54" t="n">
-        <v>109.5</v>
+        <v>453.24</v>
       </c>
       <c r="C54" t="n">
-        <v>67.15000000000001</v>
+        <v>-3.94</v>
       </c>
       <c r="D54" t="n">
-        <v>-4.24</v>
+        <v>1.33</v>
       </c>
       <c r="E54" t="n">
-        <v>2.616055369624115</v>
+        <v>0.5013774104683195</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="B55" t="n">
-        <v>197.07</v>
+        <v>148.94</v>
       </c>
       <c r="C55" t="n">
-        <v>75.45</v>
+        <v>4.78</v>
       </c>
       <c r="D55" t="n">
-        <v>2.94</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="E55" t="n">
-        <v>2.570293468114655</v>
+        <v>0.581267217630854</v>
       </c>
     </row>
     <row r="56">
@@ -1371,50 +1371,50 @@
         <v>0</v>
       </c>
       <c r="B56" t="n">
-        <v>130.74</v>
+        <v>208.85</v>
       </c>
       <c r="C56" t="n">
-        <v>-3.73</v>
+        <v>-6.71</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.05</v>
+        <v>2.27</v>
       </c>
       <c r="E56" t="n">
-        <v>1.73895225735947</v>
+        <v>0.5867768595041323</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="B57" t="n">
-        <v>32.41</v>
+        <v>127.41</v>
       </c>
       <c r="C57" t="n">
-        <v>5.8</v>
+        <v>26.63</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.78</v>
+        <v>2.85</v>
       </c>
       <c r="E57" t="n">
-        <v>1.914372879812399</v>
+        <v>0.8512396694214877</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="B58" t="n">
-        <v>118.69</v>
+        <v>359.43</v>
       </c>
       <c r="C58" t="n">
-        <v>17.2</v>
+        <v>-7.73</v>
       </c>
       <c r="D58" t="n">
-        <v>0.23</v>
+        <v>-0.12</v>
       </c>
       <c r="E58" t="n">
-        <v>1.639801470755641</v>
+        <v>0.7052341597796143</v>
       </c>
     </row>
     <row r="59">
@@ -1422,135 +1422,135 @@
         <v>0</v>
       </c>
       <c r="B59" t="n">
-        <v>231.3</v>
+        <v>238.57</v>
       </c>
       <c r="C59" t="n">
-        <v>-15.88</v>
+        <v>2.51</v>
       </c>
       <c r="D59" t="n">
-        <v>0.04</v>
+        <v>2.25</v>
       </c>
       <c r="E59" t="n">
-        <v>2.044031600755868</v>
+        <v>0.650137741046832</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="B60" t="n">
-        <v>1104.38</v>
+        <v>247.01</v>
       </c>
       <c r="C60" t="n">
-        <v>11.04</v>
+        <v>-6.48</v>
       </c>
       <c r="D60" t="n">
-        <v>1.17</v>
+        <v>0.58</v>
       </c>
       <c r="E60" t="n">
-        <v>2.356737927737177</v>
+        <v>0.6887052341597796</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="B61" t="n">
-        <v>134.82</v>
+        <v>202.41</v>
       </c>
       <c r="C61" t="n">
-        <v>-29.74</v>
+        <v>-2.77</v>
       </c>
       <c r="D61" t="n">
-        <v>-4.95</v>
+        <v>0.93</v>
       </c>
       <c r="E61" t="n">
-        <v>2.562666484529745</v>
+        <v>0.953168044077135</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="B62" t="n">
-        <v>121.56</v>
+        <v>106.58</v>
       </c>
       <c r="C62" t="n">
-        <v>-3.48</v>
+        <v>0.19</v>
       </c>
       <c r="D62" t="n">
-        <v>0.6</v>
+        <v>1.19</v>
       </c>
       <c r="E62" t="n">
-        <v>1.494888782642351</v>
+        <v>0.7382920110192838</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.68</v>
+        <v>1.22</v>
       </c>
       <c r="B63" t="n">
-        <v>271.89</v>
+        <v>224.04</v>
       </c>
       <c r="C63" t="n">
-        <v>163.34</v>
+        <v>1.25</v>
       </c>
       <c r="D63" t="n">
-        <v>5.15</v>
+        <v>1.33</v>
       </c>
       <c r="E63" t="n">
-        <v>2.768595041322314</v>
+        <v>0.8760330578512396</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="B64" t="n">
-        <v>3390.59</v>
+        <v>128.2</v>
       </c>
       <c r="C64" t="n">
-        <v>1.3</v>
+        <v>-0.03</v>
       </c>
       <c r="D64" t="n">
-        <v>1.61</v>
+        <v>0.87</v>
       </c>
       <c r="E64" t="n">
-        <v>2.768595041322314</v>
+        <v>0.8457300275482094</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="B65" t="n">
-        <v>69.11</v>
+        <v>172.56</v>
       </c>
       <c r="C65" t="n">
-        <v>-10.6</v>
+        <v>-0.4</v>
       </c>
       <c r="D65" t="n">
-        <v>-1.86</v>
+        <v>3.61</v>
       </c>
       <c r="E65" t="n">
-        <v>2.211825239623887</v>
+        <v>0.837465564738292</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="B66" t="n">
-        <v>101.06</v>
+        <v>185.93</v>
       </c>
       <c r="C66" t="n">
-        <v>-3.08</v>
+        <v>1.98</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.09</v>
+        <v>0.19</v>
       </c>
       <c r="E66" t="n">
-        <v>1.784714158868929</v>
+        <v>0.6391184573002755</v>
       </c>
     </row>
     <row r="67">
@@ -1558,33 +1558,33 @@
         <v>0</v>
       </c>
       <c r="B67" t="n">
-        <v>405.29</v>
+        <v>281</v>
       </c>
       <c r="C67" t="n">
-        <v>-7.44</v>
+        <v>9.81</v>
       </c>
       <c r="D67" t="n">
-        <v>1.16</v>
+        <v>1.01</v>
       </c>
       <c r="E67" t="n">
-        <v>1.525396716981991</v>
+        <v>0.5950413223140496</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.84</v>
+        <v>1.08</v>
       </c>
       <c r="B68" t="n">
-        <v>982.48</v>
+        <v>831.22</v>
       </c>
       <c r="C68" t="n">
-        <v>-6.89</v>
+        <v>0.03</v>
       </c>
       <c r="D68" t="n">
-        <v>1.08</v>
+        <v>1.35</v>
       </c>
       <c r="E68" t="n">
-        <v>2.143182387359698</v>
+        <v>0.5922865013774105</v>
       </c>
     </row>
     <row r="69">
@@ -1592,33 +1592,33 @@
         <v>0</v>
       </c>
       <c r="B69" t="n">
-        <v>500.28</v>
+        <v>180.37</v>
       </c>
       <c r="C69" t="n">
-        <v>-25.12</v>
+        <v>3.63</v>
       </c>
       <c r="D69" t="n">
-        <v>-1.64</v>
+        <v>0.59</v>
       </c>
       <c r="E69" t="n">
-        <v>2.410126812831546</v>
+        <v>0.5426997245179064</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="B70" t="n">
-        <v>933.4400000000001</v>
+        <v>232.65</v>
       </c>
       <c r="C70" t="n">
-        <v>3.02</v>
+        <v>8.16</v>
       </c>
       <c r="D70" t="n">
-        <v>1.22</v>
+        <v>5.09</v>
       </c>
       <c r="E70" t="n">
-        <v>2.181317305284247</v>
+        <v>0.8236914600550964</v>
       </c>
     </row>
     <row r="71">
@@ -1626,67 +1626,67 @@
         <v>0</v>
       </c>
       <c r="B71" t="n">
-        <v>193.37</v>
+        <v>163.14</v>
       </c>
       <c r="C71" t="n">
-        <v>0.9</v>
+        <v>13.88</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.61</v>
+        <v>0.78</v>
       </c>
       <c r="E71" t="n">
-        <v>1.82284907679348</v>
+        <v>0.5344352617079889</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="B72" t="n">
-        <v>79.81999999999999</v>
+        <v>289.39</v>
       </c>
       <c r="C72" t="n">
-        <v>-5.54</v>
+        <v>13.65</v>
       </c>
       <c r="D72" t="n">
-        <v>-4.98</v>
+        <v>1.93</v>
       </c>
       <c r="E72" t="n">
-        <v>2.471142681510826</v>
+        <v>0.7355371900826446</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="B73" t="n">
-        <v>164.19</v>
+        <v>166.41</v>
       </c>
       <c r="C73" t="n">
-        <v>2.45</v>
+        <v>6.17</v>
       </c>
       <c r="D73" t="n">
-        <v>-1.75</v>
+        <v>4.28</v>
       </c>
       <c r="E73" t="n">
-        <v>2.066912551510598</v>
+        <v>0.9779614325068871</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="B74" t="n">
-        <v>7932.71</v>
+        <v>172.51</v>
       </c>
       <c r="C74" t="n">
-        <v>25.93</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.41</v>
+        <v>1.73</v>
       </c>
       <c r="E74" t="n">
-        <v>2.768595041322314</v>
+        <v>0.8650137741046832</v>
       </c>
     </row>
     <row r="75">
@@ -1694,33 +1694,33 @@
         <v>0</v>
       </c>
       <c r="B75" t="n">
-        <v>129.71</v>
+        <v>224.78</v>
       </c>
       <c r="C75" t="n">
-        <v>-2.04</v>
+        <v>4.71</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.04</v>
+        <v>1.25</v>
       </c>
       <c r="E75" t="n">
-        <v>1.6855633722651</v>
+        <v>0.6088154269972452</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="B76" t="n">
-        <v>445.1</v>
+        <v>160.18</v>
       </c>
       <c r="C76" t="n">
-        <v>-1.89</v>
+        <v>-10.82</v>
       </c>
       <c r="D76" t="n">
-        <v>-1.41</v>
+        <v>0.01</v>
       </c>
       <c r="E76" t="n">
-        <v>2.074539535095508</v>
+        <v>0.8099173553719008</v>
       </c>
     </row>
     <row r="77">
@@ -1728,16 +1728,16 @@
         <v>0</v>
       </c>
       <c r="B77" t="n">
-        <v>116.52</v>
+        <v>281.54</v>
       </c>
       <c r="C77" t="n">
-        <v>-20.17</v>
+        <v>1.88</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.8100000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="E77" t="n">
-        <v>2.234706190378617</v>
+        <v>0.5702479338842975</v>
       </c>
     </row>
     <row r="78">
@@ -1745,118 +1745,118 @@
         <v>0</v>
       </c>
       <c r="B78" t="n">
-        <v>127.39</v>
+        <v>131.27</v>
       </c>
       <c r="C78" t="n">
-        <v>33.38</v>
+        <v>-1.82</v>
       </c>
       <c r="D78" t="n">
-        <v>-9.75</v>
+        <v>0.93</v>
       </c>
       <c r="E78" t="n">
-        <v>2.654190287548665</v>
+        <v>0.5234159779614325</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="B79" t="n">
-        <v>120.81</v>
+        <v>235.33</v>
       </c>
       <c r="C79" t="n">
-        <v>50.04</v>
+        <v>11.97</v>
       </c>
       <c r="D79" t="n">
-        <v>1.35</v>
+        <v>-0.52</v>
       </c>
       <c r="E79" t="n">
-        <v>2.402499829246636</v>
+        <v>0.7988980716253443</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="B80" t="n">
-        <v>73.25</v>
+        <v>387.54</v>
       </c>
       <c r="C80" t="n">
-        <v>-4.25</v>
+        <v>23.01</v>
       </c>
       <c r="D80" t="n">
-        <v>0.29</v>
+        <v>1.88</v>
       </c>
       <c r="E80" t="n">
-        <v>1.70081733943492</v>
+        <v>0.7465564738292011</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="B81" t="n">
-        <v>144.27</v>
+        <v>81.06</v>
       </c>
       <c r="C81" t="n">
-        <v>17.7</v>
+        <v>11.32</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.23</v>
+        <v>-0.03</v>
       </c>
       <c r="E81" t="n">
-        <v>1.815222093208569</v>
+        <v>0.6997245179063361</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="B82" t="n">
-        <v>145.14</v>
+        <v>19.71</v>
       </c>
       <c r="C82" t="n">
-        <v>-5.09</v>
+        <v>-7.11</v>
       </c>
       <c r="D82" t="n">
-        <v>0.63</v>
+        <v>0.45</v>
       </c>
       <c r="E82" t="n">
-        <v>1.533023700566901</v>
+        <v>0.6721763085399449</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="B83" t="n">
-        <v>31.75</v>
+        <v>161.71</v>
       </c>
       <c r="C83" t="n">
-        <v>-7.74</v>
+        <v>6.68</v>
       </c>
       <c r="D83" t="n">
-        <v>0.26</v>
+        <v>2.43</v>
       </c>
       <c r="E83" t="n">
-        <v>1.868610978302939</v>
+        <v>0.9917355371900827</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="B84" t="n">
-        <v>154.61</v>
+        <v>258.29</v>
       </c>
       <c r="C84" t="n">
-        <v>50.99</v>
+        <v>-4.17</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.27</v>
+        <v>0.37</v>
       </c>
       <c r="E84" t="n">
-        <v>2.440634747171186</v>
+        <v>0.5316804407713499</v>
       </c>
     </row>
     <row r="85">
@@ -1864,169 +1864,169 @@
         <v>0</v>
       </c>
       <c r="B85" t="n">
-        <v>85.33</v>
+        <v>225.2</v>
       </c>
       <c r="C85" t="n">
-        <v>9.44</v>
+        <v>3.79</v>
       </c>
       <c r="D85" t="n">
-        <v>0.22</v>
+        <v>0.39</v>
       </c>
       <c r="E85" t="n">
-        <v>1.517769733397081</v>
+        <v>0.5151515151515151</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="B86" t="n">
-        <v>114.47</v>
+        <v>128.72</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.6899999999999999</v>
+        <v>-19.37</v>
       </c>
       <c r="D86" t="n">
-        <v>-2.36</v>
+        <v>0.97</v>
       </c>
       <c r="E86" t="n">
-        <v>2.188944288869157</v>
+        <v>0.7245179063360881</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="B87" t="n">
-        <v>272.83</v>
+        <v>129.68</v>
       </c>
       <c r="C87" t="n">
-        <v>-15.04</v>
+        <v>-0.55</v>
       </c>
       <c r="D87" t="n">
-        <v>1.53</v>
+        <v>0.22</v>
       </c>
       <c r="E87" t="n">
-        <v>1.79996812603875</v>
+        <v>0.8732782369146006</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="B88" t="n">
-        <v>1278.17</v>
+        <v>832.64</v>
       </c>
       <c r="C88" t="n">
-        <v>-7.26</v>
+        <v>2.63</v>
       </c>
       <c r="D88" t="n">
-        <v>-1.66</v>
+        <v>0.85</v>
       </c>
       <c r="E88" t="n">
-        <v>2.547412517359925</v>
+        <v>0.6914600550964187</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="B89" t="n">
-        <v>146.01</v>
+        <v>193.51</v>
       </c>
       <c r="C89" t="n">
-        <v>-4.97</v>
+        <v>16.84</v>
       </c>
       <c r="D89" t="n">
-        <v>-1.04</v>
+        <v>3.08</v>
       </c>
       <c r="E89" t="n">
-        <v>2.005896682831319</v>
+        <v>0.8898071625344353</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.7</v>
+        <v>1.07</v>
       </c>
       <c r="B90" t="n">
-        <v>1033.44</v>
+        <v>123.12</v>
       </c>
       <c r="C90" t="n">
-        <v>-14.52</v>
+        <v>-8.380000000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>-2.73</v>
+        <v>0.83</v>
       </c>
       <c r="E90" t="n">
-        <v>2.478769665095736</v>
+        <v>0.7438016528925619</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="B91" t="n">
-        <v>287.77</v>
+        <v>234.83</v>
       </c>
       <c r="C91" t="n">
-        <v>-10.71</v>
+        <v>-9.18</v>
       </c>
       <c r="D91" t="n">
-        <v>-2.15</v>
+        <v>0.82</v>
       </c>
       <c r="E91" t="n">
-        <v>2.242333173963527</v>
+        <v>0.7933884297520661</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="B92" t="n">
-        <v>126.04</v>
+        <v>187.17</v>
       </c>
       <c r="C92" t="n">
-        <v>-4.06</v>
+        <v>19.65</v>
       </c>
       <c r="D92" t="n">
-        <v>0.98</v>
+        <v>1.89</v>
       </c>
       <c r="E92" t="n">
-        <v>1.388111012453612</v>
+        <v>0.9366391184573003</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="B93" t="n">
-        <v>219.77</v>
+        <v>333.2</v>
       </c>
       <c r="C93" t="n">
-        <v>-9.529999999999999</v>
+        <v>24.64</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.29</v>
+        <v>2.31</v>
       </c>
       <c r="E93" t="n">
-        <v>1.449126881132891</v>
+        <v>0.6942148760330579</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="B94" t="n">
-        <v>175.59</v>
+        <v>99.59</v>
       </c>
       <c r="C94" t="n">
-        <v>1.37</v>
+        <v>43.4</v>
       </c>
       <c r="D94" t="n">
-        <v>-1.34</v>
+        <v>4.1</v>
       </c>
       <c r="E94" t="n">
-        <v>1.967761764906768</v>
+        <v>0.7162534435261708</v>
       </c>
     </row>
     <row r="95">
@@ -2034,33 +2034,33 @@
         <v>0</v>
       </c>
       <c r="B95" t="n">
-        <v>122.38</v>
+        <v>126.04</v>
       </c>
       <c r="C95" t="n">
-        <v>-3.74</v>
+        <v>-4.06</v>
       </c>
       <c r="D95" t="n">
-        <v>0.84</v>
+        <v>0.98</v>
       </c>
       <c r="E95" t="n">
-        <v>1.426245930378162</v>
+        <v>0.5041322314049587</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="B96" t="n">
-        <v>445.31</v>
+        <v>252.87</v>
       </c>
       <c r="C96" t="n">
-        <v>40.59</v>
+        <v>1.48</v>
       </c>
       <c r="D96" t="n">
-        <v>2.32</v>
+        <v>1.31</v>
       </c>
       <c r="E96" t="n">
-        <v>1.838103043963299</v>
+        <v>0.6033057851239669</v>
       </c>
     </row>
     <row r="97">
@@ -2068,33 +2068,33 @@
         <v>0</v>
       </c>
       <c r="B97" t="n">
-        <v>168.38</v>
+        <v>106.97</v>
       </c>
       <c r="C97" t="n">
-        <v>7.9</v>
+        <v>0.71</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.24</v>
+        <v>0.83</v>
       </c>
       <c r="E97" t="n">
-        <v>1.594039569246181</v>
+        <v>0.5289256198347108</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0</v>
+        <v>0.76</v>
       </c>
       <c r="B98" t="n">
-        <v>260.59</v>
+        <v>229.48</v>
       </c>
       <c r="C98" t="n">
-        <v>-9.970000000000001</v>
+        <v>-1.31</v>
       </c>
       <c r="D98" t="n">
-        <v>-2.47</v>
+        <v>0.71</v>
       </c>
       <c r="E98" t="n">
-        <v>2.280468091888077</v>
+        <v>0.7024793388429752</v>
       </c>
     </row>
     <row r="99">
@@ -2102,33 +2102,33 @@
         <v>0</v>
       </c>
       <c r="B99" t="n">
-        <v>154.31</v>
+        <v>406.12</v>
       </c>
       <c r="C99" t="n">
-        <v>-16.83</v>
+        <v>-3.64</v>
       </c>
       <c r="D99" t="n">
-        <v>-1.63</v>
+        <v>2.08</v>
       </c>
       <c r="E99" t="n">
-        <v>2.272841108303167</v>
+        <v>0.5895316804407713</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="B100" t="n">
-        <v>251.28</v>
+        <v>216</v>
       </c>
       <c r="C100" t="n">
-        <v>-5.04</v>
+        <v>4.24</v>
       </c>
       <c r="D100" t="n">
-        <v>-2.15</v>
+        <v>0.57</v>
       </c>
       <c r="E100" t="n">
-        <v>2.166063338114427</v>
+        <v>0.9586776859504132</v>
       </c>
     </row>
     <row r="101">
@@ -2136,16 +2136,16 @@
         <v>0</v>
       </c>
       <c r="B101" t="n">
-        <v>137.39</v>
+        <v>122.16</v>
       </c>
       <c r="C101" t="n">
-        <v>11.68</v>
+        <v>11.72</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.34</v>
+        <v>3.13</v>
       </c>
       <c r="E101" t="n">
-        <v>1.72369829018965</v>
+        <v>0.6473829201101928</v>
       </c>
     </row>
     <row r="102">
@@ -2153,67 +2153,67 @@
         <v>0</v>
       </c>
       <c r="B102" t="n">
-        <v>127.98</v>
+        <v>132.09</v>
       </c>
       <c r="C102" t="n">
-        <v>79.06</v>
+        <v>3.39</v>
       </c>
       <c r="D102" t="n">
-        <v>-2.58</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>2.646563303963755</v>
+        <v>0.5179063360881543</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="B103" t="n">
-        <v>67.73</v>
+        <v>133.13</v>
       </c>
       <c r="C103" t="n">
-        <v>1.86</v>
+        <v>3.07</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.23</v>
+        <v>0.77</v>
       </c>
       <c r="E103" t="n">
-        <v>1.75420622452929</v>
+        <v>0.9834710743801653</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="B104" t="n">
-        <v>698.9400000000001</v>
+        <v>118.44</v>
       </c>
       <c r="C104" t="n">
-        <v>-16.04</v>
+        <v>2.17</v>
       </c>
       <c r="D104" t="n">
-        <v>-3.99</v>
+        <v>0.65</v>
       </c>
       <c r="E104" t="n">
-        <v>2.501650615850465</v>
+        <v>0.90633608815427</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="B105" t="n">
-        <v>59.91</v>
+        <v>247.31</v>
       </c>
       <c r="C105" t="n">
-        <v>-7.56</v>
+        <v>-5.66</v>
       </c>
       <c r="D105" t="n">
-        <v>0.98</v>
+        <v>2.47</v>
       </c>
       <c r="E105" t="n">
-        <v>1.616920520000911</v>
+        <v>0.6115702479338843</v>
       </c>
     </row>
     <row r="106">
@@ -2221,50 +2221,50 @@
         <v>0</v>
       </c>
       <c r="B106" t="n">
-        <v>144.14</v>
+        <v>102.06</v>
       </c>
       <c r="C106" t="n">
-        <v>-6.29</v>
+        <v>3.43</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.55</v>
+        <v>4.08</v>
       </c>
       <c r="E106" t="n">
-        <v>1.929626846982219</v>
+        <v>0.6336088154269972</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="B107" t="n">
-        <v>901.4299999999999</v>
+        <v>302.32</v>
       </c>
       <c r="C107" t="n">
-        <v>-2.46</v>
+        <v>25.49</v>
       </c>
       <c r="D107" t="n">
-        <v>-3.34</v>
+        <v>-0.96</v>
       </c>
       <c r="E107" t="n">
-        <v>2.455888714341006</v>
+        <v>0.6556473829201102</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="B108" t="n">
-        <v>458.93</v>
+        <v>792.1</v>
       </c>
       <c r="C108" t="n">
-        <v>-1.35</v>
+        <v>-2.72</v>
       </c>
       <c r="D108" t="n">
-        <v>0.46</v>
+        <v>1.75</v>
       </c>
       <c r="E108" t="n">
-        <v>1.571158618491451</v>
+        <v>0.7823691460055097</v>
       </c>
     </row>
     <row r="109">
@@ -2272,169 +2272,169 @@
         <v>0</v>
       </c>
       <c r="B109" t="n">
-        <v>82.75</v>
+        <v>190.21</v>
       </c>
       <c r="C109" t="n">
-        <v>6.08</v>
+        <v>1.89</v>
       </c>
       <c r="D109" t="n">
-        <v>-1.78</v>
+        <v>1.77</v>
       </c>
       <c r="E109" t="n">
-        <v>2.105047469435148</v>
+        <v>0.6253443526170799</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="B110" t="n">
-        <v>765.61</v>
+        <v>287.17</v>
       </c>
       <c r="C110" t="n">
-        <v>-14.61</v>
+        <v>-3.39</v>
       </c>
       <c r="D110" t="n">
-        <v>0.35</v>
+        <v>1.27</v>
       </c>
       <c r="E110" t="n">
-        <v>2.249960157548437</v>
+        <v>0.7878787878787878</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B111" t="n">
-        <v>342.25</v>
+        <v>255.01</v>
       </c>
       <c r="C111" t="n">
-        <v>-9.279999999999999</v>
+        <v>-8.380000000000001</v>
       </c>
       <c r="D111" t="n">
-        <v>-2.14</v>
+        <v>0.46</v>
       </c>
       <c r="E111" t="n">
-        <v>2.219452223208797</v>
+        <v>0.7079889807162535</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="B112" t="n">
-        <v>9.69</v>
+        <v>137.94</v>
       </c>
       <c r="C112" t="n">
-        <v>-20.86</v>
+        <v>1.84</v>
       </c>
       <c r="D112" t="n">
-        <v>-3</v>
+        <v>2.12</v>
       </c>
       <c r="E112" t="n">
-        <v>2.425380780001366</v>
+        <v>0.9256198347107438</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="B113" t="n">
-        <v>248.5</v>
+        <v>178.14</v>
       </c>
       <c r="C113" t="n">
-        <v>-14.17</v>
+        <v>-2.05</v>
       </c>
       <c r="D113" t="n">
-        <v>-1.17</v>
+        <v>1.41</v>
       </c>
       <c r="E113" t="n">
-        <v>2.150809370944608</v>
+        <v>0.9614325068870524</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="B114" t="n">
-        <v>64.73</v>
+        <v>168.62</v>
       </c>
       <c r="C114" t="n">
-        <v>-13.43</v>
+        <v>-4.64</v>
       </c>
       <c r="D114" t="n">
-        <v>0.6</v>
+        <v>1.12</v>
       </c>
       <c r="E114" t="n">
-        <v>1.937253830567129</v>
+        <v>0.8953168044077136</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="B115" t="n">
-        <v>1290.78</v>
+        <v>306.5</v>
       </c>
       <c r="C115" t="n">
-        <v>0.4</v>
+        <v>-0.86</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.32</v>
+        <v>1.19</v>
       </c>
       <c r="E115" t="n">
-        <v>2.516904583020285</v>
+        <v>0.9504132231404959</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="B116" t="n">
-        <v>467.82</v>
+        <v>258.82</v>
       </c>
       <c r="C116" t="n">
-        <v>-6.74</v>
+        <v>-13.15</v>
       </c>
       <c r="D116" t="n">
-        <v>0.02</v>
+        <v>1.74</v>
       </c>
       <c r="E116" t="n">
-        <v>1.899118912642579</v>
+        <v>0.5840220385674931</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="B117" t="n">
-        <v>147.7</v>
+        <v>161.49</v>
       </c>
       <c r="C117" t="n">
-        <v>-16.85</v>
+        <v>1.13</v>
       </c>
       <c r="D117" t="n">
-        <v>-1.47</v>
+        <v>-0.68</v>
       </c>
       <c r="E117" t="n">
-        <v>2.257587141133347</v>
+        <v>0.8209366391184573</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="B118" t="n">
-        <v>1078.55</v>
+        <v>151.21</v>
       </c>
       <c r="C118" t="n">
-        <v>-4.02</v>
+        <v>4.51</v>
       </c>
       <c r="D118" t="n">
-        <v>0.88</v>
+        <v>-0.05</v>
       </c>
       <c r="E118" t="n">
-        <v>2.364364911322086</v>
+        <v>0.9393939393939394</v>
       </c>
     </row>
     <row r="119">
@@ -2442,67 +2442,67 @@
         <v>0</v>
       </c>
       <c r="B119" t="n">
-        <v>7137.3</v>
+        <v>155.25</v>
       </c>
       <c r="C119" t="n">
-        <v>0.57</v>
+        <v>-7.05</v>
       </c>
       <c r="D119" t="n">
-        <v>1.38</v>
+        <v>1.95</v>
       </c>
       <c r="E119" t="n">
-        <v>2.768595041322314</v>
+        <v>0.5537190082644629</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="B120" t="n">
-        <v>99.48999999999999</v>
+        <v>204.12</v>
       </c>
       <c r="C120" t="n">
-        <v>-1.49</v>
+        <v>7.79</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.16</v>
+        <v>2.23</v>
       </c>
       <c r="E120" t="n">
-        <v>1.655055437925461</v>
+        <v>0.6528925619834711</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.42</v>
+        <v>1.47</v>
       </c>
       <c r="B121" t="n">
-        <v>2907.97</v>
+        <v>197.7</v>
       </c>
       <c r="C121" t="n">
-        <v>-4.67</v>
+        <v>16.79</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.54</v>
+        <v>1.98</v>
       </c>
       <c r="E121" t="n">
-        <v>2.768595041322314</v>
+        <v>0.9421487603305785</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="B122" t="n">
-        <v>333.62</v>
+        <v>196.32</v>
       </c>
       <c r="C122" t="n">
-        <v>-12.54</v>
+        <v>0.26</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.31</v>
+        <v>1.98</v>
       </c>
       <c r="E122" t="n">
-        <v>2.021150650001138</v>
+        <v>0.9696969696969697</v>
       </c>
     </row>
     <row r="123">
@@ -2510,33 +2510,33 @@
         <v>0</v>
       </c>
       <c r="B123" t="n">
-        <v>246.62</v>
+        <v>139.48</v>
       </c>
       <c r="C123" t="n">
-        <v>-3.94</v>
+        <v>3.11</v>
       </c>
       <c r="D123" t="n">
-        <v>-0.46</v>
+        <v>1.32</v>
       </c>
       <c r="E123" t="n">
-        <v>1.845730027548209</v>
+        <v>0.6005509641873278</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="B124" t="n">
-        <v>360.92</v>
+        <v>197.6</v>
       </c>
       <c r="C124" t="n">
-        <v>-9.16</v>
+        <v>7.53</v>
       </c>
       <c r="D124" t="n">
-        <v>0.73</v>
+        <v>3.3</v>
       </c>
       <c r="E124" t="n">
-        <v>1.472007831887622</v>
+        <v>0.6694214876033058</v>
       </c>
     </row>
     <row r="125">
@@ -2544,492 +2544,492 @@
         <v>0</v>
       </c>
       <c r="B125" t="n">
-        <v>249.4</v>
+        <v>352.37</v>
       </c>
       <c r="C125" t="n">
-        <v>19.25</v>
+        <v>-2.5</v>
       </c>
       <c r="D125" t="n">
-        <v>-1.03</v>
+        <v>1.26</v>
       </c>
       <c r="E125" t="n">
-        <v>1.975388748491679</v>
+        <v>0.559228650137741</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="B126" t="n">
-        <v>137.55</v>
+        <v>722.29</v>
       </c>
       <c r="C126" t="n">
-        <v>10.54</v>
+        <v>5.43</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.1</v>
+        <v>1.73</v>
       </c>
       <c r="E126" t="n">
-        <v>1.578785602076361</v>
+        <v>0.8402203856749312</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>1.03</v>
+        <v>1.71</v>
       </c>
       <c r="B127" t="n">
-        <v>140.61</v>
+        <v>619.64</v>
       </c>
       <c r="C127" t="n">
-        <v>17.97</v>
+        <v>39.91</v>
       </c>
       <c r="D127" t="n">
-        <v>12.86</v>
+        <v>0.55</v>
       </c>
       <c r="E127" t="n">
-        <v>2.448261730756096</v>
+        <v>0.6749311294765841</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="B128" t="n">
-        <v>172.66</v>
+        <v>130.25</v>
       </c>
       <c r="C128" t="n">
-        <v>0.58</v>
+        <v>4.96</v>
       </c>
       <c r="D128" t="n">
-        <v>-1.98</v>
+        <v>0.26</v>
       </c>
       <c r="E128" t="n">
-        <v>2.120301436604968</v>
+        <v>0.7410468319559229</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="B129" t="n">
-        <v>87.42</v>
+        <v>235.78</v>
       </c>
       <c r="C129" t="n">
-        <v>-11.42</v>
+        <v>-3.32</v>
       </c>
       <c r="D129" t="n">
-        <v>-1.67</v>
+        <v>1.27</v>
       </c>
       <c r="E129" t="n">
-        <v>2.196571272454067</v>
+        <v>0.9641873278236914</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="B130" t="n">
-        <v>998.53</v>
+        <v>138.11</v>
       </c>
       <c r="C130" t="n">
-        <v>-1.56</v>
+        <v>6.7</v>
       </c>
       <c r="D130" t="n">
-        <v>-0.87</v>
+        <v>1.18</v>
       </c>
       <c r="E130" t="n">
-        <v>2.394872845661726</v>
+        <v>0.8787878787878788</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="B131" t="n">
-        <v>123.47</v>
+        <v>290.63</v>
       </c>
       <c r="C131" t="n">
-        <v>-5.78</v>
+        <v>5.98</v>
       </c>
       <c r="D131" t="n">
-        <v>0.37</v>
+        <v>1.74</v>
       </c>
       <c r="E131" t="n">
-        <v>1.66268242151037</v>
+        <v>0.8181818181818182</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="B132" t="n">
-        <v>2510.92</v>
+        <v>105.2</v>
       </c>
       <c r="C132" t="n">
-        <v>40.7</v>
+        <v>-11.13</v>
       </c>
       <c r="D132" t="n">
-        <v>-5.25</v>
+        <v>2.72</v>
       </c>
       <c r="E132" t="n">
-        <v>2.768595041322314</v>
+        <v>0.71900826446281</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B133" t="n">
-        <v>193.64</v>
+        <v>210.82</v>
       </c>
       <c r="C133" t="n">
-        <v>-7.23</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D133" t="n">
-        <v>0.92</v>
+        <v>4.01</v>
       </c>
       <c r="E133" t="n">
-        <v>1.487261799057441</v>
+        <v>0.8264462809917356</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="B134" t="n">
-        <v>53.82</v>
+        <v>193.39</v>
       </c>
       <c r="C134" t="n">
-        <v>-9.75</v>
+        <v>-4.6</v>
       </c>
       <c r="D134" t="n">
-        <v>-1.49</v>
+        <v>0.33</v>
       </c>
       <c r="E134" t="n">
-        <v>2.158436354529517</v>
+        <v>0.6831955922865014</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="B135" t="n">
-        <v>89.45</v>
+        <v>168.75</v>
       </c>
       <c r="C135" t="n">
-        <v>3.8</v>
+        <v>-2.81</v>
       </c>
       <c r="D135" t="n">
-        <v>15.39</v>
+        <v>1.34</v>
       </c>
       <c r="E135" t="n">
-        <v>2.600801402454295</v>
+        <v>0.859504132231405</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="B136" t="n">
-        <v>172.02</v>
+        <v>317.72</v>
       </c>
       <c r="C136" t="n">
-        <v>15.12</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="D136" t="n">
-        <v>-0.02</v>
+        <v>1.25</v>
       </c>
       <c r="E136" t="n">
-        <v>1.624547503585821</v>
+        <v>0.7575757575757576</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>1.29</v>
+        <v>1.57</v>
       </c>
       <c r="B137" t="n">
-        <v>166.24</v>
+        <v>191.15</v>
       </c>
       <c r="C137" t="n">
-        <v>56.1</v>
+        <v>6.15</v>
       </c>
       <c r="D137" t="n">
-        <v>0.41</v>
+        <v>2.14</v>
       </c>
       <c r="E137" t="n">
-        <v>2.318603009812627</v>
+        <v>0.9807162534435262</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="B138" t="n">
-        <v>460.74</v>
+        <v>174.16</v>
       </c>
       <c r="C138" t="n">
-        <v>-4.84</v>
+        <v>7.77</v>
       </c>
       <c r="D138" t="n">
-        <v>-4.43</v>
+        <v>0.68</v>
       </c>
       <c r="E138" t="n">
-        <v>2.433007763586276</v>
+        <v>0.7741046831955923</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="B139" t="n">
-        <v>107.04</v>
+        <v>144.8</v>
       </c>
       <c r="C139" t="n">
-        <v>-8.869999999999999</v>
+        <v>1.39</v>
       </c>
       <c r="D139" t="n">
-        <v>-0.61</v>
+        <v>1.71</v>
       </c>
       <c r="E139" t="n">
-        <v>1.998269699246408</v>
+        <v>0.6639118457300276</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="B140" t="n">
-        <v>152.08</v>
+        <v>239.02</v>
       </c>
       <c r="C140" t="n">
-        <v>8</v>
+        <v>14.71</v>
       </c>
       <c r="D140" t="n">
-        <v>0.14</v>
+        <v>4.71</v>
       </c>
       <c r="E140" t="n">
-        <v>1.456753864717802</v>
+        <v>0.9862258953168044</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="B141" t="n">
-        <v>10546.27</v>
+        <v>217.95</v>
       </c>
       <c r="C141" t="n">
-        <v>9.68</v>
+        <v>10.46</v>
       </c>
       <c r="D141" t="n">
-        <v>-6.39</v>
+        <v>1.57</v>
       </c>
       <c r="E141" t="n">
-        <v>2.768595041322314</v>
+        <v>0.9944903581267218</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.87</v>
+        <v>1.12</v>
       </c>
       <c r="B142" t="n">
-        <v>237.86</v>
+        <v>143.61</v>
       </c>
       <c r="C142" t="n">
-        <v>103.1</v>
+        <v>-0.79</v>
       </c>
       <c r="D142" t="n">
-        <v>3.73</v>
+        <v>1.05</v>
       </c>
       <c r="E142" t="n">
-        <v>2.661817271133575</v>
+        <v>0.7961432506887053</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.77</v>
+        <v>0</v>
       </c>
       <c r="B143" t="n">
-        <v>212.56</v>
+        <v>572.71</v>
       </c>
       <c r="C143" t="n">
-        <v>-15.72</v>
+        <v>0.73</v>
       </c>
       <c r="D143" t="n">
-        <v>0.44</v>
+        <v>1.94</v>
       </c>
       <c r="E143" t="n">
-        <v>1.441499897547982</v>
+        <v>0.5068870523415978</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="B144" t="n">
-        <v>160.96</v>
+        <v>377.17</v>
       </c>
       <c r="C144" t="n">
-        <v>18.73</v>
+        <v>2.43</v>
       </c>
       <c r="D144" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="E144" t="n">
-        <v>1.510142749812171</v>
+        <v>0.8071625344352618</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>1.32</v>
+        <v>1.08</v>
       </c>
       <c r="B145" t="n">
-        <v>147.05</v>
+        <v>201.96</v>
       </c>
       <c r="C145" t="n">
-        <v>56.5</v>
+        <v>5.28</v>
       </c>
       <c r="D145" t="n">
-        <v>2.37</v>
+        <v>0.4</v>
       </c>
       <c r="E145" t="n">
-        <v>2.265214124718257</v>
+        <v>0.7796143250688705</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="B146" t="n">
-        <v>108.16</v>
+        <v>184.72</v>
       </c>
       <c r="C146" t="n">
-        <v>16.34</v>
+        <v>11.7</v>
       </c>
       <c r="D146" t="n">
-        <v>-6.6</v>
+        <v>0.58</v>
       </c>
       <c r="E146" t="n">
-        <v>2.555039500944835</v>
+        <v>0.9090909090909091</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="B147" t="n">
-        <v>410.02</v>
+        <v>186.8</v>
       </c>
       <c r="C147" t="n">
-        <v>-14.68</v>
+        <v>0.01</v>
       </c>
       <c r="D147" t="n">
-        <v>-2.03</v>
+        <v>2.32</v>
       </c>
       <c r="E147" t="n">
-        <v>2.295722059057897</v>
+        <v>0.9228650137741047</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="B148" t="n">
-        <v>303.4</v>
+        <v>131.05</v>
       </c>
       <c r="C148" t="n">
-        <v>-34.51</v>
+        <v>5.93</v>
       </c>
       <c r="D148" t="n">
-        <v>-1.89</v>
+        <v>0.91</v>
       </c>
       <c r="E148" t="n">
-        <v>2.463515697925916</v>
+        <v>0.8126721763085399</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="B149" t="n">
-        <v>804.58</v>
+        <v>295.11</v>
       </c>
       <c r="C149" t="n">
-        <v>1.9</v>
+        <v>-3.29</v>
       </c>
       <c r="D149" t="n">
-        <v>3.85</v>
+        <v>1.18</v>
       </c>
       <c r="E149" t="n">
-        <v>1.540650684151811</v>
+        <v>0.8319559228650137</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="B150" t="n">
-        <v>102.67</v>
+        <v>205.86</v>
       </c>
       <c r="C150" t="n">
-        <v>-3.29</v>
+        <v>-3.02</v>
       </c>
       <c r="D150" t="n">
-        <v>0.3</v>
+        <v>1.72</v>
       </c>
       <c r="E150" t="n">
-        <v>1.609293536416001</v>
+        <v>0.7520661157024794</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>1.64</v>
+        <v>1.23</v>
       </c>
       <c r="B151" t="n">
-        <v>1318.7</v>
+        <v>659</v>
       </c>
       <c r="C151" t="n">
-        <v>112.51</v>
+        <v>-11.29</v>
       </c>
       <c r="D151" t="n">
-        <v>50.37</v>
+        <v>0.68</v>
       </c>
       <c r="E151" t="n">
-        <v>2.768595041322314</v>
+        <v>0.6611570247933884</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="B152" t="n">
-        <v>42.11</v>
+        <v>138.32</v>
       </c>
       <c r="C152" t="n">
-        <v>-0.49</v>
+        <v>22.43</v>
       </c>
       <c r="D152" t="n">
-        <v>-0.01</v>
+        <v>-0.18</v>
       </c>
       <c r="E152" t="n">
-        <v>1.74657924094438</v>
+        <v>0.6776859504132231</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="B153" t="n">
-        <v>251.97</v>
+        <v>268.48</v>
       </c>
       <c r="C153" t="n">
-        <v>0.3</v>
+        <v>0.22</v>
       </c>
       <c r="D153" t="n">
-        <v>0.31</v>
+        <v>2.05</v>
       </c>
       <c r="E153" t="n">
-        <v>1.433872913963072</v>
+        <v>0.7851239669421488</v>
       </c>
     </row>
     <row r="154">
@@ -3037,50 +3037,50 @@
         <v>0</v>
       </c>
       <c r="B154" t="n">
-        <v>355.8</v>
+        <v>216.84</v>
       </c>
       <c r="C154" t="n">
-        <v>-6.21</v>
+        <v>-0.79</v>
       </c>
       <c r="D154" t="n">
-        <v>0.36</v>
+        <v>0.93</v>
       </c>
       <c r="E154" t="n">
-        <v>1.67030940509528</v>
+        <v>0.5564738292011019</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="B155" t="n">
-        <v>319.53</v>
+        <v>117.03</v>
       </c>
       <c r="C155" t="n">
-        <v>-1.11</v>
+        <v>-2.17</v>
       </c>
       <c r="D155" t="n">
-        <v>-0.84</v>
+        <v>0.79</v>
       </c>
       <c r="E155" t="n">
-        <v>1.906745896227489</v>
+        <v>0.6446280991735537</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="B156" t="n">
-        <v>125.63</v>
+        <v>246.68</v>
       </c>
       <c r="C156" t="n">
-        <v>-3.2</v>
+        <v>4.34</v>
       </c>
       <c r="D156" t="n">
-        <v>-2.18</v>
+        <v>2.63</v>
       </c>
       <c r="E156" t="n">
-        <v>2.173690321699338</v>
+        <v>0.8677685950413223</v>
       </c>
     </row>
     <row r="157">
@@ -3088,33 +3088,33 @@
         <v>0</v>
       </c>
       <c r="B157" t="n">
-        <v>1246.53</v>
+        <v>112.85</v>
       </c>
       <c r="C157" t="n">
-        <v>64.34999999999999</v>
+        <v>2.19</v>
       </c>
       <c r="D157" t="n">
-        <v>1.42</v>
+        <v>1.87</v>
       </c>
       <c r="E157" t="n">
-        <v>2.623682353209025</v>
+        <v>0.6198347107438017</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="B158" t="n">
-        <v>216.61</v>
+        <v>227.72</v>
       </c>
       <c r="C158" t="n">
-        <v>-10.06</v>
+        <v>-1.96</v>
       </c>
       <c r="D158" t="n">
-        <v>-3.78</v>
+        <v>1.16</v>
       </c>
       <c r="E158" t="n">
-        <v>2.417753796416456</v>
+        <v>0.721763085399449</v>
       </c>
     </row>
     <row r="159">
@@ -3122,16 +3122,16 @@
         <v>0</v>
       </c>
       <c r="B159" t="n">
-        <v>157.64</v>
+        <v>177.37</v>
       </c>
       <c r="C159" t="n">
-        <v>41.54</v>
+        <v>2.84</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.57</v>
+        <v>0.8</v>
       </c>
       <c r="E159" t="n">
-        <v>2.333856976982446</v>
+        <v>0.5619834710743802</v>
       </c>
     </row>
     <row r="160">
@@ -3139,152 +3139,152 @@
         <v>0</v>
       </c>
       <c r="B160" t="n">
-        <v>561.95</v>
+        <v>176.49</v>
       </c>
       <c r="C160" t="n">
-        <v>-3.71</v>
+        <v>10.8</v>
       </c>
       <c r="D160" t="n">
-        <v>-1.3</v>
+        <v>1.38</v>
       </c>
       <c r="E160" t="n">
-        <v>2.135555403774787</v>
+        <v>0.6060606060606061</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="B161" t="n">
-        <v>128.47</v>
+        <v>173.01</v>
       </c>
       <c r="C161" t="n">
-        <v>9.1</v>
+        <v>5.61</v>
       </c>
       <c r="D161" t="n">
-        <v>-1.6</v>
+        <v>3.56</v>
       </c>
       <c r="E161" t="n">
-        <v>2.059285567925688</v>
+        <v>0.9338842975206612</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="B162" t="n">
-        <v>146.15</v>
+        <v>172.93</v>
       </c>
       <c r="C162" t="n">
-        <v>36.42</v>
+        <v>-0.78</v>
       </c>
       <c r="D162" t="n">
-        <v>-0.09</v>
+        <v>2.69</v>
       </c>
       <c r="E162" t="n">
-        <v>2.204198256038977</v>
+        <v>0.9201101928374655</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.83</v>
+        <v>1.12</v>
       </c>
       <c r="B163" t="n">
-        <v>274.9</v>
+        <v>181.86</v>
       </c>
       <c r="C163" t="n">
-        <v>-10.79</v>
+        <v>6.85</v>
       </c>
       <c r="D163" t="n">
-        <v>-4.12</v>
+        <v>3.15</v>
       </c>
       <c r="E163" t="n">
-        <v>2.341483960567357</v>
+        <v>0.8870523415977961</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0.79</v>
+        <v>1.02</v>
       </c>
       <c r="B164" t="n">
-        <v>3652.14</v>
+        <v>150.57</v>
       </c>
       <c r="C164" t="n">
-        <v>-0.82</v>
+        <v>-8.24</v>
       </c>
       <c r="D164" t="n">
-        <v>-1.11</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E164" t="n">
-        <v>2.768595041322314</v>
+        <v>0.7327823691460055</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="B165" t="n">
-        <v>155.54</v>
+        <v>184.5</v>
       </c>
       <c r="C165" t="n">
-        <v>-25.02</v>
+        <v>0.57</v>
       </c>
       <c r="D165" t="n">
-        <v>-0.74</v>
+        <v>4.01</v>
       </c>
       <c r="E165" t="n">
-        <v>2.303349042642806</v>
+        <v>0.9559228650137741</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="B166" t="n">
-        <v>642.5</v>
+        <v>122.21</v>
       </c>
       <c r="C166" t="n">
-        <v>-11.31</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D166" t="n">
-        <v>1.1</v>
+        <v>-0.36</v>
       </c>
       <c r="E166" t="n">
-        <v>2.013523666416229</v>
+        <v>0.7272727272727273</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="B167" t="n">
-        <v>212.12</v>
+        <v>274.53</v>
       </c>
       <c r="C167" t="n">
-        <v>-14.34</v>
+        <v>-8.029999999999999</v>
       </c>
       <c r="D167" t="n">
-        <v>0.79</v>
+        <v>1.05</v>
       </c>
       <c r="E167" t="n">
-        <v>1.883864945472759</v>
+        <v>0.8705234159779615</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="B168" t="n">
-        <v>438.53</v>
+        <v>236.42</v>
       </c>
       <c r="C168" t="n">
-        <v>-14.71</v>
+        <v>18.45</v>
       </c>
       <c r="D168" t="n">
-        <v>-2.38</v>
+        <v>4.31</v>
       </c>
       <c r="E168" t="n">
-        <v>2.326229993397537</v>
+        <v>0.9449035812672176</v>
       </c>
     </row>
     <row r="169">
@@ -3292,50 +3292,50 @@
         <v>0</v>
       </c>
       <c r="B169" t="n">
-        <v>120.83</v>
+        <v>140.81</v>
       </c>
       <c r="C169" t="n">
-        <v>17.46</v>
+        <v>6.45</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.16</v>
+        <v>0.6</v>
       </c>
       <c r="E169" t="n">
-        <v>1.80759510962366</v>
+        <v>0.5399449035812672</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="B170" t="n">
-        <v>163.73</v>
+        <v>215.54</v>
       </c>
       <c r="C170" t="n">
-        <v>-0.74</v>
+        <v>-2.17</v>
       </c>
       <c r="D170" t="n">
-        <v>0.36</v>
+        <v>1.11</v>
       </c>
       <c r="E170" t="n">
-        <v>1.464380848302712</v>
+        <v>0.7548209366391184</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="B171" t="n">
-        <v>74.02</v>
+        <v>380.57</v>
       </c>
       <c r="C171" t="n">
-        <v>-6.14</v>
+        <v>0.13</v>
       </c>
       <c r="D171" t="n">
-        <v>-14.68</v>
+        <v>0.35</v>
       </c>
       <c r="E171" t="n">
-        <v>2.677071238303395</v>
+        <v>0.8622589531680441</v>
       </c>
     </row>
     <row r="172">
@@ -3343,50 +3343,50 @@
         <v>0</v>
       </c>
       <c r="B172" t="n">
-        <v>164.54</v>
+        <v>136.78</v>
       </c>
       <c r="C172" t="n">
-        <v>13.26</v>
+        <v>11.95</v>
       </c>
       <c r="D172" t="n">
-        <v>0.47</v>
+        <v>0.67</v>
       </c>
       <c r="E172" t="n">
-        <v>1.395737996038522</v>
+        <v>0.5261707988980716</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0.95</v>
+        <v>1.58</v>
       </c>
       <c r="B173" t="n">
-        <v>322.66</v>
+        <v>726.08</v>
       </c>
       <c r="C173" t="n">
-        <v>67.77</v>
+        <v>6.47</v>
       </c>
       <c r="D173" t="n">
-        <v>4.33</v>
+        <v>0.32</v>
       </c>
       <c r="E173" t="n">
-        <v>2.524531566605195</v>
+        <v>0.8154269972451791</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="B174" t="n">
-        <v>72.56999999999999</v>
+        <v>173.77</v>
       </c>
       <c r="C174" t="n">
-        <v>2.18</v>
+        <v>2.57</v>
       </c>
       <c r="D174" t="n">
-        <v>0.34</v>
+        <v>2.23</v>
       </c>
       <c r="E174" t="n">
-        <v>1.502515766227261</v>
+        <v>0.9889807162534435</v>
       </c>
     </row>
     <row r="175">
@@ -3394,152 +3394,152 @@
         <v>0</v>
       </c>
       <c r="B175" t="n">
-        <v>1361.77</v>
+        <v>212.75</v>
       </c>
       <c r="C175" t="n">
-        <v>16.71</v>
+        <v>-0.79</v>
       </c>
       <c r="D175" t="n">
-        <v>-4.15</v>
+        <v>0.84</v>
       </c>
       <c r="E175" t="n">
-        <v>2.593174418869385</v>
+        <v>0.5509641873278237</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="B176" t="n">
-        <v>152.19</v>
+        <v>360.36</v>
       </c>
       <c r="C176" t="n">
-        <v>-14.1</v>
+        <v>30.28</v>
       </c>
       <c r="D176" t="n">
-        <v>0.03</v>
+        <v>2.13</v>
       </c>
       <c r="E176" t="n">
-        <v>1.990642715661499</v>
+        <v>0.7658402203856749</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="B177" t="n">
-        <v>187.42</v>
+        <v>187.01</v>
       </c>
       <c r="C177" t="n">
-        <v>-5.39</v>
+        <v>0.78</v>
       </c>
       <c r="D177" t="n">
-        <v>0.28</v>
+        <v>1.27</v>
       </c>
       <c r="E177" t="n">
-        <v>1.63217448717073</v>
+        <v>0.8567493112947658</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="B178" t="n">
-        <v>388.12</v>
+        <v>136.39</v>
       </c>
       <c r="C178" t="n">
-        <v>-13.7</v>
+        <v>1.14</v>
       </c>
       <c r="D178" t="n">
-        <v>-3.19</v>
+        <v>1.88</v>
       </c>
       <c r="E178" t="n">
-        <v>1.952507797736949</v>
+        <v>0.6225895316804407</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="B179" t="n">
-        <v>150.93</v>
+        <v>222.71</v>
       </c>
       <c r="C179" t="n">
-        <v>-2.32</v>
+        <v>-5.49</v>
       </c>
       <c r="D179" t="n">
-        <v>-1.14</v>
+        <v>1.77</v>
       </c>
       <c r="E179" t="n">
-        <v>1.853357011133119</v>
+        <v>0.5757575757575758</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="B180" t="n">
-        <v>156.41</v>
+        <v>259.4</v>
       </c>
       <c r="C180" t="n">
-        <v>-1.45</v>
+        <v>3.44</v>
       </c>
       <c r="D180" t="n">
-        <v>-0.16</v>
+        <v>1.37</v>
       </c>
       <c r="E180" t="n">
-        <v>1.71607130660474</v>
+        <v>0.8044077134986226</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>1.02</v>
+        <v>1.53</v>
       </c>
       <c r="B181" t="n">
-        <v>172.83</v>
+        <v>205.05</v>
       </c>
       <c r="C181" t="n">
-        <v>68.61</v>
+        <v>1.86</v>
       </c>
       <c r="D181" t="n">
-        <v>0.57</v>
+        <v>2.9</v>
       </c>
       <c r="E181" t="n">
-        <v>2.532158550190105</v>
+        <v>0.9724517906336089</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="B182" t="n">
-        <v>332.55</v>
+        <v>51.5</v>
       </c>
       <c r="C182" t="n">
-        <v>-33.6</v>
+        <v>-4.17</v>
       </c>
       <c r="D182" t="n">
-        <v>-2.55</v>
+        <v>-0.55</v>
       </c>
       <c r="E182" t="n">
-        <v>2.494023632265555</v>
+        <v>0.7493112947658402</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="B183" t="n">
-        <v>236.57</v>
+        <v>210.81</v>
       </c>
       <c r="C183" t="n">
-        <v>-2.58</v>
+        <v>4.87</v>
       </c>
       <c r="D183" t="n">
-        <v>0.36</v>
+        <v>0.19</v>
       </c>
       <c r="E183" t="n">
-        <v>1.479634815472531</v>
+        <v>0.8815426997245179</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E183"/>
+  <dimension ref="A1:E196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,50 +450,50 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>249.44</v>
+        <v>1278.22</v>
       </c>
       <c r="C2" t="n">
-        <v>-9.06</v>
+        <v>2.12</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.2</v>
+        <v>4.46</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6584022038567493</v>
+        <v>0.9280205655526992</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>227.26</v>
+        <v>284.37</v>
       </c>
       <c r="C3" t="n">
-        <v>11.87</v>
+        <v>-30.14</v>
       </c>
       <c r="D3" t="n">
-        <v>2.91</v>
+        <v>-4.65</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9752066115702479</v>
+        <v>0.8637532133676092</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.67</v>
+        <v>1.38</v>
       </c>
       <c r="B4" t="n">
-        <v>167.96</v>
+        <v>547.38</v>
       </c>
       <c r="C4" t="n">
-        <v>6.7</v>
+        <v>124.87</v>
       </c>
       <c r="D4" t="n">
-        <v>2.83</v>
+        <v>29.47</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -501,53 +501,53 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>412.7</v>
+        <v>263.43</v>
       </c>
       <c r="C5" t="n">
-        <v>28.42</v>
+        <v>-11.14</v>
       </c>
       <c r="D5" t="n">
-        <v>0.63</v>
+        <v>1.96</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7768595041322314</v>
+        <v>0.5604113110539846</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>144.12</v>
+        <v>235.4</v>
       </c>
       <c r="C6" t="n">
-        <v>5.57</v>
+        <v>-12.27</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.02</v>
+        <v>3.14</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7300275482093664</v>
+        <v>0.519280205655527</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>129.52</v>
+        <v>157.28</v>
       </c>
       <c r="C7" t="n">
-        <v>5.33</v>
+        <v>24.46</v>
       </c>
       <c r="D7" t="n">
-        <v>1.17</v>
+        <v>1.83</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8429752066115702</v>
+        <v>0.5269922879177378</v>
       </c>
     </row>
     <row r="8">
@@ -555,16 +555,16 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>136.56</v>
+        <v>68.34</v>
       </c>
       <c r="C8" t="n">
-        <v>2.84</v>
+        <v>-2.1</v>
       </c>
       <c r="D8" t="n">
-        <v>1.02</v>
+        <v>-1.9</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5730027548209367</v>
+        <v>0.7352185089974294</v>
       </c>
     </row>
     <row r="9">
@@ -572,33 +572,33 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>120.22</v>
+        <v>125.16</v>
       </c>
       <c r="C9" t="n">
-        <v>5.55</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>0.46</v>
+        <v>-3.19</v>
       </c>
       <c r="E9" t="n">
-        <v>0.509641873278237</v>
+        <v>0.7455012853470437</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>258.6</v>
+        <v>141.62</v>
       </c>
       <c r="C10" t="n">
-        <v>16.04</v>
+        <v>-3.67</v>
       </c>
       <c r="D10" t="n">
-        <v>1.9</v>
+        <v>-0.84</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8539944903581267</v>
+        <v>0.6503856041131105</v>
       </c>
     </row>
     <row r="11">
@@ -606,16 +606,16 @@
         <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>142.61</v>
+        <v>113.12</v>
       </c>
       <c r="C11" t="n">
-        <v>10.03</v>
+        <v>11.22</v>
       </c>
       <c r="D11" t="n">
-        <v>4.45</v>
+        <v>0.88</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6308539944903582</v>
+        <v>0.506426735218509</v>
       </c>
     </row>
     <row r="12">
@@ -623,33 +623,33 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>56.39</v>
+        <v>115.29</v>
       </c>
       <c r="C12" t="n">
-        <v>-3.53</v>
+        <v>-19.64</v>
       </c>
       <c r="D12" t="n">
-        <v>1.36</v>
+        <v>-1.37</v>
       </c>
       <c r="E12" t="n">
-        <v>0.512396694214876</v>
+        <v>0.7763496143958869</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>92.47</v>
+        <v>249.9</v>
       </c>
       <c r="C13" t="n">
-        <v>-5.03</v>
+        <v>-6.09</v>
       </c>
       <c r="D13" t="n">
-        <v>1.4</v>
+        <v>-2.1</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9008264462809917</v>
+        <v>0.7326478149100257</v>
       </c>
     </row>
     <row r="14">
@@ -657,220 +657,220 @@
         <v>0</v>
       </c>
       <c r="B14" t="n">
-        <v>89.11</v>
+        <v>363.7</v>
       </c>
       <c r="C14" t="n">
-        <v>4.47</v>
+        <v>-9.460000000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>1.03</v>
+        <v>-25.01</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5647382920110193</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.67</v>
+        <v>0.83</v>
       </c>
       <c r="B15" t="n">
-        <v>252.34</v>
+        <v>228.6</v>
       </c>
       <c r="C15" t="n">
-        <v>1.2</v>
+        <v>-11.23</v>
       </c>
       <c r="D15" t="n">
-        <v>4.22</v>
+        <v>-0.37</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9972451790633609</v>
+        <v>0.5398457583547558</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>154.03</v>
+        <v>160.28</v>
       </c>
       <c r="C16" t="n">
-        <v>20.85</v>
+        <v>-3.25</v>
       </c>
       <c r="D16" t="n">
-        <v>1.14</v>
+        <v>-0.74</v>
       </c>
       <c r="E16" t="n">
-        <v>0.628099173553719</v>
+        <v>0.6349614395886889</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="B17" t="n">
-        <v>142.34</v>
+        <v>102.9</v>
       </c>
       <c r="C17" t="n">
-        <v>10.17</v>
+        <v>-5.77</v>
       </c>
       <c r="D17" t="n">
-        <v>0.99</v>
+        <v>-1.21</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6859504132231405</v>
+        <v>0.6992287917737789</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>165.75</v>
+        <v>301.76</v>
       </c>
       <c r="C18" t="n">
-        <v>5.72</v>
+        <v>-11.3</v>
       </c>
       <c r="D18" t="n">
-        <v>1.66</v>
+        <v>0.46</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8292011019283747</v>
+        <v>0.6606683804627249</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="B19" t="n">
-        <v>169.83</v>
+        <v>131.38</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.47</v>
+        <v>74.59</v>
       </c>
       <c r="D19" t="n">
-        <v>1.35</v>
+        <v>-5.05</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8925619834710744</v>
+        <v>0.9074550128534704</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.79</v>
+        <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>371.35</v>
+        <v>65.13</v>
       </c>
       <c r="C20" t="n">
-        <v>-2.39</v>
+        <v>-11.01</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8</v>
+        <v>-2.79</v>
       </c>
       <c r="E20" t="n">
-        <v>0.696969696969697</v>
+        <v>0.7840616966580977</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="B21" t="n">
-        <v>215.18</v>
+        <v>92.25</v>
       </c>
       <c r="C21" t="n">
-        <v>23.81</v>
+        <v>-5.71</v>
       </c>
       <c r="D21" t="n">
-        <v>4.47</v>
+        <v>-0.46</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8980716253443526</v>
+        <v>0.6709511568123393</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="B22" t="n">
-        <v>361.17</v>
+        <v>385.23</v>
       </c>
       <c r="C22" t="n">
-        <v>5.11</v>
+        <v>-17.5</v>
       </c>
       <c r="D22" t="n">
-        <v>0.53</v>
+        <v>-3.41</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5206611570247934</v>
+        <v>0.7712082262210797</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>64.3</v>
+        <v>201.28</v>
       </c>
       <c r="C23" t="n">
-        <v>-7.15</v>
+        <v>-5.24</v>
       </c>
       <c r="D23" t="n">
-        <v>1.02</v>
+        <v>-0.19</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7630853994490359</v>
+        <v>0.6066838046272494</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>159.99</v>
+        <v>662.9299999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>-12.56</v>
+        <v>-11.36</v>
       </c>
       <c r="D24" t="n">
-        <v>0.09</v>
+        <v>-3.42</v>
       </c>
       <c r="E24" t="n">
-        <v>0.6804407713498623</v>
+        <v>0.8663239074550129</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>130.42</v>
+        <v>125.45</v>
       </c>
       <c r="C25" t="n">
-        <v>36.91</v>
+        <v>-1.45</v>
       </c>
       <c r="D25" t="n">
-        <v>3.77</v>
+        <v>0.06</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5674931129476584</v>
+        <v>0.583547557840617</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>161.81</v>
+        <v>88.45</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.59</v>
+        <v>11.51</v>
       </c>
       <c r="D26" t="n">
-        <v>1.5</v>
+        <v>-0.32</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7107438016528925</v>
+        <v>0.6015424164524421</v>
       </c>
     </row>
     <row r="27">
@@ -878,33 +878,33 @@
         <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>101.24</v>
+        <v>184.22</v>
       </c>
       <c r="C27" t="n">
-        <v>0.15</v>
+        <v>-15.76</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9399999999999999</v>
+        <v>-5.61</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5371900826446281</v>
+        <v>0.8534704370179949</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1.62</v>
+        <v>1.38</v>
       </c>
       <c r="B28" t="n">
-        <v>176.16</v>
+        <v>50.33</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.26</v>
+        <v>1.1</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.02</v>
+        <v>-4.72</v>
       </c>
       <c r="E28" t="n">
-        <v>0.928374655647383</v>
+        <v>0.6889460154241646</v>
       </c>
     </row>
     <row r="29">
@@ -912,33 +912,33 @@
         <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>97.20999999999999</v>
+        <v>50.36</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.8</v>
+        <v>-2.21</v>
       </c>
       <c r="D29" t="n">
-        <v>2.21</v>
+        <v>1.31</v>
       </c>
       <c r="E29" t="n">
-        <v>0.6143250688705234</v>
+        <v>0.5629820051413882</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0</v>
+        <v>0.77</v>
       </c>
       <c r="B30" t="n">
-        <v>209.86</v>
+        <v>582.09</v>
       </c>
       <c r="C30" t="n">
-        <v>-4.93</v>
+        <v>3.48</v>
       </c>
       <c r="D30" t="n">
-        <v>2.84</v>
+        <v>4</v>
       </c>
       <c r="E30" t="n">
-        <v>0.6170798898071626</v>
+        <v>0.609254498714653</v>
       </c>
     </row>
     <row r="31">
@@ -946,67 +946,67 @@
         <v>0</v>
       </c>
       <c r="B31" t="n">
-        <v>109.78</v>
+        <v>5936.01</v>
       </c>
       <c r="C31" t="n">
-        <v>-2.62</v>
+        <v>23.48</v>
       </c>
       <c r="D31" t="n">
-        <v>1.22</v>
+        <v>-4.86</v>
       </c>
       <c r="E31" t="n">
-        <v>0.5454545454545454</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1.28</v>
+        <v>0.75</v>
       </c>
       <c r="B32" t="n">
-        <v>153.89</v>
+        <v>799.61</v>
       </c>
       <c r="C32" t="n">
-        <v>-5.36</v>
+        <v>-15.33</v>
       </c>
       <c r="D32" t="n">
-        <v>0.92</v>
+        <v>-5.52</v>
       </c>
       <c r="E32" t="n">
-        <v>0.8347107438016529</v>
+        <v>0.8894601542416453</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="B33" t="n">
-        <v>394.37</v>
+        <v>101.07</v>
       </c>
       <c r="C33" t="n">
-        <v>6.11</v>
+        <v>8.02</v>
       </c>
       <c r="D33" t="n">
-        <v>0.32</v>
+        <v>1.03</v>
       </c>
       <c r="E33" t="n">
-        <v>0.931129476584022</v>
+        <v>0.5012853470437018</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>129.22</v>
+        <v>252.11</v>
       </c>
       <c r="C34" t="n">
-        <v>4.16</v>
+        <v>-13.45</v>
       </c>
       <c r="D34" t="n">
-        <v>1.53</v>
+        <v>-4.44</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9146005509641874</v>
+        <v>0.8251928020565553</v>
       </c>
     </row>
     <row r="35">
@@ -1014,67 +1014,67 @@
         <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>180.37</v>
+        <v>145.94</v>
       </c>
       <c r="C35" t="n">
-        <v>-4.9</v>
+        <v>-6.78</v>
       </c>
       <c r="D35" t="n">
-        <v>2.17</v>
+        <v>1.37</v>
       </c>
       <c r="E35" t="n">
-        <v>0.5977961432506887</v>
+        <v>0.5372750642673522</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="B36" t="n">
-        <v>99.87</v>
+        <v>2686.3</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.3</v>
+        <v>23.42</v>
       </c>
       <c r="D36" t="n">
-        <v>1.56</v>
+        <v>-2.16</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9476584022038568</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="B37" t="n">
-        <v>140.18</v>
+        <v>1100.14</v>
       </c>
       <c r="C37" t="n">
-        <v>23.76</v>
+        <v>5.25</v>
       </c>
       <c r="D37" t="n">
-        <v>2.87</v>
+        <v>0.45</v>
       </c>
       <c r="E37" t="n">
-        <v>0.8484848484848485</v>
+        <v>0.8997429305912596</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="B38" t="n">
-        <v>105.07</v>
+        <v>173.75</v>
       </c>
       <c r="C38" t="n">
-        <v>-3.48</v>
+        <v>-3.49</v>
       </c>
       <c r="D38" t="n">
-        <v>0.54</v>
+        <v>-0.34</v>
       </c>
       <c r="E38" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6041131105398457</v>
       </c>
     </row>
     <row r="39">
@@ -1082,152 +1082,152 @@
         <v>0</v>
       </c>
       <c r="B39" t="n">
-        <v>183.4</v>
+        <v>200.05</v>
       </c>
       <c r="C39" t="n">
-        <v>-5.33</v>
+        <v>35.42</v>
       </c>
       <c r="D39" t="n">
-        <v>1.41</v>
+        <v>-0.79</v>
       </c>
       <c r="E39" t="n">
-        <v>0.5482093663911846</v>
+        <v>0.7609254498714653</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="B40" t="n">
-        <v>271.66</v>
+        <v>158.37</v>
       </c>
       <c r="C40" t="n">
-        <v>7.08</v>
+        <v>108.18</v>
       </c>
       <c r="D40" t="n">
-        <v>4.16</v>
+        <v>2.87</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9173553719008265</v>
+        <v>0.9305912596401028</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="B41" t="n">
-        <v>199.16</v>
+        <v>1647.76</v>
       </c>
       <c r="C41" t="n">
-        <v>-8.029999999999999</v>
+        <v>7.3</v>
       </c>
       <c r="D41" t="n">
-        <v>0.77</v>
+        <v>-6.8</v>
       </c>
       <c r="E41" t="n">
-        <v>0.6418732782369146</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="B42" t="n">
-        <v>157.07</v>
+        <v>271.78</v>
       </c>
       <c r="C42" t="n">
-        <v>7.68</v>
+        <v>-9.52</v>
       </c>
       <c r="D42" t="n">
-        <v>2.45</v>
+        <v>-3.94</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9669421487603306</v>
+        <v>0.7994858611825193</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="B43" t="n">
-        <v>212.67</v>
+        <v>281.56</v>
       </c>
       <c r="C43" t="n">
-        <v>22.54</v>
+        <v>-3.79</v>
       </c>
       <c r="D43" t="n">
-        <v>0.84</v>
+        <v>-0.38</v>
       </c>
       <c r="E43" t="n">
-        <v>0.8842975206611571</v>
+        <v>0.6143958868894601</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="B44" t="n">
-        <v>213.21</v>
+        <v>58.7</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.85</v>
+        <v>-1.57</v>
       </c>
       <c r="D44" t="n">
-        <v>0.51</v>
+        <v>-12.65</v>
       </c>
       <c r="E44" t="n">
-        <v>0.790633608815427</v>
+        <v>0.897172236503856</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="B45" t="n">
-        <v>194.16</v>
+        <v>222.65</v>
       </c>
       <c r="C45" t="n">
-        <v>18.19</v>
+        <v>-1.21</v>
       </c>
       <c r="D45" t="n">
-        <v>0.8</v>
+        <v>-3.18</v>
       </c>
       <c r="E45" t="n">
-        <v>0.8016528925619835</v>
+        <v>0.7506426735218509</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="B46" t="n">
-        <v>109.9</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>30.68</v>
+        <v>10.53</v>
       </c>
       <c r="D46" t="n">
-        <v>1.87</v>
+        <v>0.38</v>
       </c>
       <c r="E46" t="n">
-        <v>0.7713498622589532</v>
+        <v>0.5501285347043702</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="B47" t="n">
-        <v>429.07</v>
+        <v>269.57</v>
       </c>
       <c r="C47" t="n">
-        <v>4.44</v>
+        <v>142.77</v>
       </c>
       <c r="D47" t="n">
-        <v>1.58</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="E47" t="n">
-        <v>0.768595041322314</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1235,67 +1235,67 @@
         <v>0</v>
       </c>
       <c r="B48" t="n">
-        <v>112.47</v>
+        <v>199.18</v>
       </c>
       <c r="C48" t="n">
-        <v>-1.03</v>
+        <v>11.04</v>
       </c>
       <c r="D48" t="n">
-        <v>1.46</v>
+        <v>-1.25</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5785123966942148</v>
+        <v>0.622107969151671</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="B49" t="n">
-        <v>216.39</v>
+        <v>168.7</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.05</v>
+        <v>-6.85</v>
       </c>
       <c r="D49" t="n">
-        <v>1.46</v>
+        <v>1.81</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7134986225895317</v>
+        <v>0.5115681233933161</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="B50" t="n">
-        <v>119.77</v>
+        <v>100.7</v>
       </c>
       <c r="C50" t="n">
-        <v>0.35</v>
+        <v>-15.32</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.28</v>
+        <v>-0.23</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9035812672176309</v>
+        <v>0.7377892030848329</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>203.16</v>
+        <v>148.92</v>
       </c>
       <c r="C51" t="n">
-        <v>-3.62</v>
+        <v>1.88</v>
       </c>
       <c r="D51" t="n">
-        <v>1.16</v>
+        <v>-0.08</v>
       </c>
       <c r="E51" t="n">
-        <v>0.7603305785123967</v>
+        <v>0.5578406169665809</v>
       </c>
     </row>
     <row r="52">
@@ -1303,118 +1303,118 @@
         <v>0</v>
       </c>
       <c r="B52" t="n">
-        <v>221.96</v>
+        <v>866.71</v>
       </c>
       <c r="C52" t="n">
-        <v>3.29</v>
+        <v>-1.93</v>
       </c>
       <c r="D52" t="n">
-        <v>1.76</v>
+        <v>-2.32</v>
       </c>
       <c r="E52" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.8868894601542416</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="B53" t="n">
-        <v>219.01</v>
+        <v>153.06</v>
       </c>
       <c r="C53" t="n">
-        <v>4.07</v>
+        <v>23.21</v>
       </c>
       <c r="D53" t="n">
-        <v>2.33</v>
+        <v>1.81</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9118457300275482</v>
+        <v>0.5141388174807198</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="B54" t="n">
-        <v>453.24</v>
+        <v>1202.63</v>
       </c>
       <c r="C54" t="n">
-        <v>-3.94</v>
+        <v>-2.22</v>
       </c>
       <c r="D54" t="n">
-        <v>1.33</v>
+        <v>1.49</v>
       </c>
       <c r="E54" t="n">
-        <v>0.5013774104683195</v>
+        <v>0.9203084832904884</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.78</v>
+        <v>0.38</v>
       </c>
       <c r="B55" t="n">
-        <v>148.94</v>
+        <v>2670.31</v>
       </c>
       <c r="C55" t="n">
-        <v>4.78</v>
+        <v>-2.87</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.8100000000000001</v>
+        <v>-0.68</v>
       </c>
       <c r="E55" t="n">
-        <v>0.581267217630854</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="B56" t="n">
-        <v>208.85</v>
+        <v>195.18</v>
       </c>
       <c r="C56" t="n">
-        <v>-6.71</v>
+        <v>69</v>
       </c>
       <c r="D56" t="n">
-        <v>2.27</v>
+        <v>4.53</v>
       </c>
       <c r="E56" t="n">
-        <v>0.5867768595041323</v>
+        <v>0.8688946015424165</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="B57" t="n">
-        <v>127.41</v>
+        <v>444.62</v>
       </c>
       <c r="C57" t="n">
-        <v>26.63</v>
+        <v>2.77</v>
       </c>
       <c r="D57" t="n">
-        <v>2.85</v>
+        <v>0.42</v>
       </c>
       <c r="E57" t="n">
-        <v>0.8512396694214877</v>
+        <v>0.6632390745501285</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="B58" t="n">
-        <v>359.43</v>
+        <v>173.78</v>
       </c>
       <c r="C58" t="n">
-        <v>-7.73</v>
+        <v>2.69</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.12</v>
+        <v>-0.65</v>
       </c>
       <c r="E58" t="n">
-        <v>0.7052341597796143</v>
+        <v>0.596401028277635</v>
       </c>
     </row>
     <row r="59">
@@ -1422,169 +1422,169 @@
         <v>0</v>
       </c>
       <c r="B59" t="n">
-        <v>238.57</v>
+        <v>521.8099999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>2.51</v>
+        <v>-4.98</v>
       </c>
       <c r="D59" t="n">
-        <v>2.25</v>
+        <v>-3.07</v>
       </c>
       <c r="E59" t="n">
-        <v>0.650137741046832</v>
+        <v>0.8303341902313625</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="B60" t="n">
-        <v>247.01</v>
+        <v>81.11</v>
       </c>
       <c r="C60" t="n">
-        <v>-6.48</v>
+        <v>-8.83</v>
       </c>
       <c r="D60" t="n">
-        <v>0.58</v>
+        <v>-4.71</v>
       </c>
       <c r="E60" t="n">
-        <v>0.6887052341597796</v>
+        <v>0.8354755784061697</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="B61" t="n">
-        <v>202.41</v>
+        <v>232.86</v>
       </c>
       <c r="C61" t="n">
-        <v>-2.77</v>
+        <v>-51.2</v>
       </c>
       <c r="D61" t="n">
-        <v>0.93</v>
+        <v>-10.46</v>
       </c>
       <c r="E61" t="n">
-        <v>0.953168044077135</v>
+        <v>0.922879177377892</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.8</v>
+        <v>0.72</v>
       </c>
       <c r="B62" t="n">
-        <v>106.58</v>
+        <v>207.72</v>
       </c>
       <c r="C62" t="n">
-        <v>0.19</v>
+        <v>64.69</v>
       </c>
       <c r="D62" t="n">
-        <v>1.19</v>
+        <v>5.95</v>
       </c>
       <c r="E62" t="n">
-        <v>0.7382920110192838</v>
+        <v>0.8586118251928021</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="B63" t="n">
-        <v>224.04</v>
+        <v>124.03</v>
       </c>
       <c r="C63" t="n">
-        <v>1.25</v>
+        <v>-6.07</v>
       </c>
       <c r="D63" t="n">
-        <v>1.33</v>
+        <v>-3.06</v>
       </c>
       <c r="E63" t="n">
-        <v>0.8760330578512396</v>
+        <v>0.7686375321336761</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.24</v>
+        <v>1.03</v>
       </c>
       <c r="B64" t="n">
-        <v>128.2</v>
+        <v>686.16</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.03</v>
+        <v>0.89</v>
       </c>
       <c r="D64" t="n">
-        <v>0.87</v>
+        <v>2.06</v>
       </c>
       <c r="E64" t="n">
-        <v>0.8457300275482094</v>
+        <v>0.7532133676092545</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="B65" t="n">
-        <v>172.56</v>
+        <v>168.16</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.4</v>
+        <v>-6.21</v>
       </c>
       <c r="D65" t="n">
-        <v>3.61</v>
+        <v>-5.04</v>
       </c>
       <c r="E65" t="n">
-        <v>0.837465564738292</v>
+        <v>0.8174807197943444</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.62</v>
+        <v>0.66</v>
       </c>
       <c r="B66" t="n">
-        <v>185.93</v>
+        <v>541.99</v>
       </c>
       <c r="C66" t="n">
-        <v>1.98</v>
+        <v>10.05</v>
       </c>
       <c r="D66" t="n">
-        <v>0.19</v>
+        <v>3.29</v>
       </c>
       <c r="E66" t="n">
-        <v>0.6391184573002755</v>
+        <v>0.5732647814910026</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="B67" t="n">
-        <v>281</v>
+        <v>125.27</v>
       </c>
       <c r="C67" t="n">
-        <v>9.81</v>
+        <v>-14.66</v>
       </c>
       <c r="D67" t="n">
-        <v>1.01</v>
+        <v>-0.27</v>
       </c>
       <c r="E67" t="n">
-        <v>0.5950413223140496</v>
+        <v>0.6683804627249358</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="B68" t="n">
-        <v>831.22</v>
+        <v>112.45</v>
       </c>
       <c r="C68" t="n">
-        <v>0.03</v>
+        <v>-25.08</v>
       </c>
       <c r="D68" t="n">
-        <v>1.35</v>
+        <v>-6.36</v>
       </c>
       <c r="E68" t="n">
-        <v>0.5922865013774105</v>
+        <v>0.8740359897172236</v>
       </c>
     </row>
     <row r="69">
@@ -1592,101 +1592,101 @@
         <v>0</v>
       </c>
       <c r="B69" t="n">
-        <v>180.37</v>
+        <v>261.16</v>
       </c>
       <c r="C69" t="n">
-        <v>3.63</v>
+        <v>-4.79</v>
       </c>
       <c r="D69" t="n">
-        <v>0.59</v>
+        <v>-3.99</v>
       </c>
       <c r="E69" t="n">
-        <v>0.5426997245179064</v>
+        <v>0.781491002570694</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="B70" t="n">
-        <v>232.65</v>
+        <v>1320.03</v>
       </c>
       <c r="C70" t="n">
-        <v>8.16</v>
+        <v>1.48</v>
       </c>
       <c r="D70" t="n">
-        <v>5.09</v>
+        <v>1.68</v>
       </c>
       <c r="E70" t="n">
-        <v>0.8236914600550964</v>
+        <v>0.9408740359897172</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="B71" t="n">
-        <v>163.14</v>
+        <v>141.55</v>
       </c>
       <c r="C71" t="n">
-        <v>13.88</v>
+        <v>32.5</v>
       </c>
       <c r="D71" t="n">
-        <v>0.78</v>
+        <v>4.16</v>
       </c>
       <c r="E71" t="n">
-        <v>0.5344352617079889</v>
+        <v>0.532133676092545</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.64</v>
+        <v>0</v>
       </c>
       <c r="B72" t="n">
-        <v>289.39</v>
+        <v>2965.57</v>
       </c>
       <c r="C72" t="n">
-        <v>13.65</v>
+        <v>-1.77</v>
       </c>
       <c r="D72" t="n">
-        <v>1.93</v>
+        <v>0.16</v>
       </c>
       <c r="E72" t="n">
-        <v>0.7355371900826446</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="B73" t="n">
-        <v>166.41</v>
+        <v>1380.97</v>
       </c>
       <c r="C73" t="n">
-        <v>6.17</v>
+        <v>-5.84</v>
       </c>
       <c r="D73" t="n">
-        <v>4.28</v>
+        <v>-2.93</v>
       </c>
       <c r="E73" t="n">
-        <v>0.9779614325068871</v>
+        <v>0.9460154241645244</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="B74" t="n">
-        <v>172.51</v>
+        <v>220.61</v>
       </c>
       <c r="C74" t="n">
-        <v>9.470000000000001</v>
+        <v>16.44</v>
       </c>
       <c r="D74" t="n">
-        <v>1.73</v>
+        <v>-1.37</v>
       </c>
       <c r="E74" t="n">
-        <v>0.8650137741046832</v>
+        <v>0.6555269922879178</v>
       </c>
     </row>
     <row r="75">
@@ -1694,33 +1694,33 @@
         <v>0</v>
       </c>
       <c r="B75" t="n">
-        <v>224.78</v>
+        <v>150.22</v>
       </c>
       <c r="C75" t="n">
-        <v>4.71</v>
+        <v>-10.4</v>
       </c>
       <c r="D75" t="n">
-        <v>1.25</v>
+        <v>-3.24</v>
       </c>
       <c r="E75" t="n">
-        <v>0.6088154269972452</v>
+        <v>0.7789203084832905</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="B76" t="n">
-        <v>160.18</v>
+        <v>114.01</v>
       </c>
       <c r="C76" t="n">
-        <v>-10.82</v>
+        <v>7.84</v>
       </c>
       <c r="D76" t="n">
-        <v>0.01</v>
+        <v>-1.35</v>
       </c>
       <c r="E76" t="n">
-        <v>0.8099173553719008</v>
+        <v>0.6580976863753213</v>
       </c>
     </row>
     <row r="77">
@@ -1728,16 +1728,16 @@
         <v>0</v>
       </c>
       <c r="B77" t="n">
-        <v>281.54</v>
+        <v>168.98</v>
       </c>
       <c r="C77" t="n">
-        <v>1.88</v>
+        <v>8.19</v>
       </c>
       <c r="D77" t="n">
-        <v>0.9</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="E77" t="n">
-        <v>0.5702479338842975</v>
+        <v>0.5347043701799485</v>
       </c>
     </row>
     <row r="78">
@@ -1745,118 +1745,118 @@
         <v>0</v>
       </c>
       <c r="B78" t="n">
-        <v>131.27</v>
+        <v>206.48</v>
       </c>
       <c r="C78" t="n">
-        <v>-1.82</v>
+        <v>-9.98</v>
       </c>
       <c r="D78" t="n">
-        <v>0.93</v>
+        <v>0.31</v>
       </c>
       <c r="E78" t="n">
-        <v>0.5234159779614325</v>
+        <v>0.6298200514138818</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1.36</v>
+        <v>1.04</v>
       </c>
       <c r="B79" t="n">
-        <v>235.33</v>
+        <v>132.62</v>
       </c>
       <c r="C79" t="n">
-        <v>11.97</v>
+        <v>30.28</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.52</v>
+        <v>-0.85</v>
       </c>
       <c r="E79" t="n">
-        <v>0.7988980716253443</v>
+        <v>0.5655526992287918</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="B80" t="n">
-        <v>387.54</v>
+        <v>151.02</v>
       </c>
       <c r="C80" t="n">
-        <v>23.01</v>
+        <v>84.84</v>
       </c>
       <c r="D80" t="n">
-        <v>1.88</v>
+        <v>0.9</v>
       </c>
       <c r="E80" t="n">
-        <v>0.7465564738292011</v>
+        <v>0.9023136246786633</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="B81" t="n">
-        <v>81.06</v>
+        <v>131.35</v>
       </c>
       <c r="C81" t="n">
-        <v>11.32</v>
+        <v>25.37</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.03</v>
+        <v>0.11</v>
       </c>
       <c r="E81" t="n">
-        <v>0.6997245179063361</v>
+        <v>0.6452442159383034</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="B82" t="n">
-        <v>19.71</v>
+        <v>15.63</v>
       </c>
       <c r="C82" t="n">
-        <v>-7.11</v>
+        <v>9.07</v>
       </c>
       <c r="D82" t="n">
-        <v>0.45</v>
+        <v>-0.06</v>
       </c>
       <c r="E82" t="n">
-        <v>0.6721763085399449</v>
+        <v>0.6401028277634961</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="B83" t="n">
-        <v>161.71</v>
+        <v>180.66</v>
       </c>
       <c r="C83" t="n">
-        <v>6.68</v>
+        <v>-23.71</v>
       </c>
       <c r="D83" t="n">
-        <v>2.43</v>
+        <v>-6.88</v>
       </c>
       <c r="E83" t="n">
-        <v>0.9917355371900827</v>
+        <v>0.8766066838046273</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="B84" t="n">
-        <v>258.29</v>
+        <v>575.23</v>
       </c>
       <c r="C84" t="n">
-        <v>-4.17</v>
+        <v>5.21</v>
       </c>
       <c r="D84" t="n">
-        <v>0.37</v>
+        <v>2.99</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5316804407713499</v>
+        <v>0.7275064267352185</v>
       </c>
     </row>
     <row r="85">
@@ -1864,169 +1864,169 @@
         <v>0</v>
       </c>
       <c r="B85" t="n">
-        <v>225.2</v>
+        <v>866.16</v>
       </c>
       <c r="C85" t="n">
-        <v>3.79</v>
+        <v>5.58</v>
       </c>
       <c r="D85" t="n">
-        <v>0.39</v>
+        <v>1.13</v>
       </c>
       <c r="E85" t="n">
-        <v>0.5151515151515151</v>
+        <v>0.8791773778920309</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="B86" t="n">
-        <v>128.72</v>
+        <v>47.22</v>
       </c>
       <c r="C86" t="n">
-        <v>-19.37</v>
+        <v>-0.19</v>
       </c>
       <c r="D86" t="n">
-        <v>0.97</v>
+        <v>-0.32</v>
       </c>
       <c r="E86" t="n">
-        <v>0.7245179063360881</v>
+        <v>0.6529562982005142</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="B87" t="n">
-        <v>129.68</v>
+        <v>148.83</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.55</v>
+        <v>57.37</v>
       </c>
       <c r="D87" t="n">
-        <v>0.22</v>
+        <v>19.22</v>
       </c>
       <c r="E87" t="n">
-        <v>0.8732782369146006</v>
+        <v>0.8920308483290489</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="B88" t="n">
-        <v>832.64</v>
+        <v>449.95</v>
       </c>
       <c r="C88" t="n">
-        <v>2.63</v>
+        <v>-17.39</v>
       </c>
       <c r="D88" t="n">
-        <v>0.85</v>
+        <v>-1.28</v>
       </c>
       <c r="E88" t="n">
-        <v>0.6914600550964187</v>
+        <v>0.8071979434447301</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="B89" t="n">
-        <v>193.51</v>
+        <v>127.16</v>
       </c>
       <c r="C89" t="n">
-        <v>16.84</v>
+        <v>38.97</v>
       </c>
       <c r="D89" t="n">
-        <v>3.08</v>
+        <v>36.34</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8898071625344353</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1.07</v>
+        <v>0.67</v>
       </c>
       <c r="B90" t="n">
-        <v>123.12</v>
+        <v>258.69</v>
       </c>
       <c r="C90" t="n">
-        <v>-8.380000000000001</v>
+        <v>38.91</v>
       </c>
       <c r="D90" t="n">
-        <v>0.83</v>
+        <v>6.05</v>
       </c>
       <c r="E90" t="n">
-        <v>0.7438016528925619</v>
+        <v>0.5912596401028277</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="B91" t="n">
-        <v>234.83</v>
+        <v>159.52</v>
       </c>
       <c r="C91" t="n">
-        <v>-9.18</v>
+        <v>50.58</v>
       </c>
       <c r="D91" t="n">
-        <v>0.82</v>
+        <v>1.39</v>
       </c>
       <c r="E91" t="n">
-        <v>0.7933884297520661</v>
+        <v>0.8277634961439588</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="B92" t="n">
-        <v>187.17</v>
+        <v>89</v>
       </c>
       <c r="C92" t="n">
-        <v>19.65</v>
+        <v>-6.08</v>
       </c>
       <c r="D92" t="n">
-        <v>1.89</v>
+        <v>12.71</v>
       </c>
       <c r="E92" t="n">
-        <v>0.9366391184573003</v>
+        <v>0.6966580976863753</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="B93" t="n">
-        <v>333.2</v>
+        <v>33.59</v>
       </c>
       <c r="C93" t="n">
-        <v>24.64</v>
+        <v>-16.75</v>
       </c>
       <c r="D93" t="n">
-        <v>2.31</v>
+        <v>-3.02</v>
       </c>
       <c r="E93" t="n">
-        <v>0.6942148760330579</v>
+        <v>0.8200514138817481</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="B94" t="n">
-        <v>99.59</v>
+        <v>66.81</v>
       </c>
       <c r="C94" t="n">
-        <v>43.4</v>
+        <v>12.17</v>
       </c>
       <c r="D94" t="n">
-        <v>4.1</v>
+        <v>-0.6</v>
       </c>
       <c r="E94" t="n">
-        <v>0.7162534435261708</v>
+        <v>0.6375321336760925</v>
       </c>
     </row>
     <row r="95">
@@ -2034,16 +2034,16 @@
         <v>0</v>
       </c>
       <c r="B95" t="n">
-        <v>126.04</v>
+        <v>207.31</v>
       </c>
       <c r="C95" t="n">
-        <v>-4.06</v>
+        <v>0.91</v>
       </c>
       <c r="D95" t="n">
-        <v>0.98</v>
+        <v>-0.37</v>
       </c>
       <c r="E95" t="n">
-        <v>0.5041322314049587</v>
+        <v>0.5681233933161953</v>
       </c>
     </row>
     <row r="96">
@@ -2051,50 +2051,50 @@
         <v>0</v>
       </c>
       <c r="B96" t="n">
-        <v>252.87</v>
+        <v>78.73</v>
       </c>
       <c r="C96" t="n">
-        <v>1.48</v>
+        <v>-7.71</v>
       </c>
       <c r="D96" t="n">
-        <v>1.31</v>
+        <v>2.17</v>
       </c>
       <c r="E96" t="n">
-        <v>0.6033057851239669</v>
+        <v>0.5552699228791774</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="B97" t="n">
-        <v>106.97</v>
+        <v>131.95</v>
       </c>
       <c r="C97" t="n">
-        <v>0.71</v>
+        <v>52.6</v>
       </c>
       <c r="D97" t="n">
-        <v>0.83</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="E97" t="n">
-        <v>0.5289256198347108</v>
+        <v>0.8020565552699229</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.76</v>
+        <v>0.42</v>
       </c>
       <c r="B98" t="n">
-        <v>229.48</v>
+        <v>945.62</v>
       </c>
       <c r="C98" t="n">
-        <v>-1.31</v>
+        <v>10.98</v>
       </c>
       <c r="D98" t="n">
-        <v>0.71</v>
+        <v>6.35</v>
       </c>
       <c r="E98" t="n">
-        <v>0.7024793388429752</v>
+        <v>0.8817480719794345</v>
       </c>
     </row>
     <row r="99">
@@ -2102,118 +2102,118 @@
         <v>0</v>
       </c>
       <c r="B99" t="n">
-        <v>406.12</v>
+        <v>10424.13</v>
       </c>
       <c r="C99" t="n">
-        <v>-3.64</v>
+        <v>25.5</v>
       </c>
       <c r="D99" t="n">
-        <v>2.08</v>
+        <v>-7.49</v>
       </c>
       <c r="E99" t="n">
-        <v>0.5895316804407713</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="B100" t="n">
-        <v>216</v>
+        <v>212.4</v>
       </c>
       <c r="C100" t="n">
-        <v>4.24</v>
+        <v>0.79</v>
       </c>
       <c r="D100" t="n">
-        <v>0.57</v>
+        <v>-0.4</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9586776859504132</v>
+        <v>0.5784061696658098</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="B101" t="n">
-        <v>122.16</v>
+        <v>662.0599999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>11.72</v>
+        <v>1.16</v>
       </c>
       <c r="D101" t="n">
-        <v>3.13</v>
+        <v>2.59</v>
       </c>
       <c r="E101" t="n">
-        <v>0.6473829201101928</v>
+        <v>0.6272493573264781</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="B102" t="n">
-        <v>132.09</v>
+        <v>1933.67</v>
       </c>
       <c r="C102" t="n">
-        <v>3.39</v>
+        <v>-0.01</v>
       </c>
       <c r="D102" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="E102" t="n">
-        <v>0.5179063360881543</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="B103" t="n">
-        <v>133.13</v>
+        <v>214.14</v>
       </c>
       <c r="C103" t="n">
-        <v>3.07</v>
+        <v>-13.96</v>
       </c>
       <c r="D103" t="n">
-        <v>0.77</v>
+        <v>0.95</v>
       </c>
       <c r="E103" t="n">
-        <v>0.9834710743801653</v>
+        <v>0.6426735218508998</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="B104" t="n">
-        <v>118.44</v>
+        <v>133.09</v>
       </c>
       <c r="C104" t="n">
-        <v>2.17</v>
+        <v>15.26</v>
       </c>
       <c r="D104" t="n">
-        <v>0.65</v>
+        <v>15.84</v>
       </c>
       <c r="E104" t="n">
-        <v>0.90633608815427</v>
+        <v>0.7146529562982005</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.08</v>
+        <v>0.93</v>
       </c>
       <c r="B105" t="n">
-        <v>247.31</v>
+        <v>434.83</v>
       </c>
       <c r="C105" t="n">
-        <v>-5.66</v>
+        <v>47.7</v>
       </c>
       <c r="D105" t="n">
-        <v>2.47</v>
+        <v>4.67</v>
       </c>
       <c r="E105" t="n">
-        <v>0.6115702479338843</v>
+        <v>0.7634961439588689</v>
       </c>
     </row>
     <row r="106">
@@ -2221,50 +2221,50 @@
         <v>0</v>
       </c>
       <c r="B106" t="n">
-        <v>102.06</v>
+        <v>242.66</v>
       </c>
       <c r="C106" t="n">
-        <v>3.43</v>
+        <v>-11.58</v>
       </c>
       <c r="D106" t="n">
-        <v>4.08</v>
+        <v>-1.93</v>
       </c>
       <c r="E106" t="n">
-        <v>0.6336088154269972</v>
+        <v>0.7429305912596401</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="B107" t="n">
-        <v>302.32</v>
+        <v>1353.51</v>
       </c>
       <c r="C107" t="n">
-        <v>25.49</v>
+        <v>1.16</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.96</v>
+        <v>-8.83</v>
       </c>
       <c r="E107" t="n">
-        <v>0.6556473829201102</v>
+        <v>0.9485861182519281</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="B108" t="n">
-        <v>792.1</v>
+        <v>166.77</v>
       </c>
       <c r="C108" t="n">
-        <v>-2.72</v>
+        <v>-2.4</v>
       </c>
       <c r="D108" t="n">
-        <v>1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="E108" t="n">
-        <v>0.7823691460055097</v>
+        <v>0.6323907455012854</v>
       </c>
     </row>
     <row r="109">
@@ -2272,169 +2272,169 @@
         <v>0</v>
       </c>
       <c r="B109" t="n">
-        <v>190.21</v>
+        <v>145.57</v>
       </c>
       <c r="C109" t="n">
-        <v>1.89</v>
+        <v>0.15</v>
       </c>
       <c r="D109" t="n">
-        <v>1.77</v>
+        <v>-0.18</v>
       </c>
       <c r="E109" t="n">
-        <v>0.6253443526170799</v>
+        <v>0.5809768637532133</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="B110" t="n">
-        <v>287.17</v>
+        <v>275.5</v>
       </c>
       <c r="C110" t="n">
-        <v>-3.39</v>
+        <v>-8.84</v>
       </c>
       <c r="D110" t="n">
-        <v>1.27</v>
+        <v>1.69</v>
       </c>
       <c r="E110" t="n">
-        <v>0.7878787878787878</v>
+        <v>0.5424164524421594</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="B111" t="n">
-        <v>255.01</v>
+        <v>151.61</v>
       </c>
       <c r="C111" t="n">
-        <v>-8.380000000000001</v>
+        <v>46.94</v>
       </c>
       <c r="D111" t="n">
-        <v>0.46</v>
+        <v>5.01</v>
       </c>
       <c r="E111" t="n">
-        <v>0.7079889807162535</v>
+        <v>0.6940874035989717</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="B112" t="n">
-        <v>137.94</v>
+        <v>75.92</v>
       </c>
       <c r="C112" t="n">
-        <v>1.84</v>
+        <v>-9.470000000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>2.12</v>
+        <v>-0.68</v>
       </c>
       <c r="E112" t="n">
-        <v>0.9256198347107438</v>
+        <v>0.7223650385604113</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="B113" t="n">
-        <v>178.14</v>
+        <v>120.45</v>
       </c>
       <c r="C113" t="n">
-        <v>-2.05</v>
+        <v>17.79</v>
       </c>
       <c r="D113" t="n">
-        <v>1.41</v>
+        <v>1.26</v>
       </c>
       <c r="E113" t="n">
-        <v>0.9614325068870524</v>
+        <v>0.5089974293059126</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="B114" t="n">
-        <v>168.62</v>
+        <v>1274.82</v>
       </c>
       <c r="C114" t="n">
-        <v>-4.64</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>1.12</v>
+        <v>0.38</v>
       </c>
       <c r="E114" t="n">
-        <v>0.8953168044077136</v>
+        <v>0.9357326478149101</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>1.58</v>
+        <v>0.83</v>
       </c>
       <c r="B115" t="n">
-        <v>306.5</v>
+        <v>460.47</v>
       </c>
       <c r="C115" t="n">
-        <v>-0.86</v>
+        <v>89.84</v>
       </c>
       <c r="D115" t="n">
-        <v>1.19</v>
+        <v>10.76</v>
       </c>
       <c r="E115" t="n">
-        <v>0.9504132231404959</v>
+        <v>0.9151670951156813</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="B116" t="n">
-        <v>258.82</v>
+        <v>250.76</v>
       </c>
       <c r="C116" t="n">
-        <v>-13.15</v>
+        <v>-4</v>
       </c>
       <c r="D116" t="n">
-        <v>1.74</v>
+        <v>-2.01</v>
       </c>
       <c r="E116" t="n">
-        <v>0.5840220385674931</v>
+        <v>0.7197943444730077</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="B117" t="n">
-        <v>161.49</v>
+        <v>46.66</v>
       </c>
       <c r="C117" t="n">
-        <v>1.13</v>
+        <v>-4.42</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.68</v>
+        <v>-6.76</v>
       </c>
       <c r="E117" t="n">
-        <v>0.8209366391184573</v>
+        <v>0.8560411311053985</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="B118" t="n">
-        <v>151.21</v>
+        <v>142.34</v>
       </c>
       <c r="C118" t="n">
-        <v>4.51</v>
+        <v>23.09</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.05</v>
+        <v>-0.89</v>
       </c>
       <c r="E118" t="n">
-        <v>0.9393939393939394</v>
+        <v>0.6812339331619537</v>
       </c>
     </row>
     <row r="119">
@@ -2442,16 +2442,16 @@
         <v>0</v>
       </c>
       <c r="B119" t="n">
-        <v>155.25</v>
+        <v>339.97</v>
       </c>
       <c r="C119" t="n">
-        <v>-7.05</v>
+        <v>-15.41</v>
       </c>
       <c r="D119" t="n">
-        <v>1.95</v>
+        <v>-3.48</v>
       </c>
       <c r="E119" t="n">
-        <v>0.5537190082644629</v>
+        <v>0.8149100257069408</v>
       </c>
     </row>
     <row r="120">
@@ -2459,50 +2459,50 @@
         <v>0</v>
       </c>
       <c r="B120" t="n">
-        <v>204.12</v>
+        <v>69.98</v>
       </c>
       <c r="C120" t="n">
-        <v>7.79</v>
+        <v>-0.28</v>
       </c>
       <c r="D120" t="n">
-        <v>2.23</v>
+        <v>-0.91</v>
       </c>
       <c r="E120" t="n">
-        <v>0.6528925619834711</v>
+        <v>0.6735218508997429</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="B121" t="n">
-        <v>197.7</v>
+        <v>243.74</v>
       </c>
       <c r="C121" t="n">
-        <v>16.79</v>
+        <v>1.85</v>
       </c>
       <c r="D121" t="n">
-        <v>1.98</v>
+        <v>0.62</v>
       </c>
       <c r="E121" t="n">
-        <v>0.9421487603305785</v>
+        <v>0.5038560411311054</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>1.57</v>
+        <v>0.62</v>
       </c>
       <c r="B122" t="n">
-        <v>196.32</v>
+        <v>211.83</v>
       </c>
       <c r="C122" t="n">
-        <v>0.26</v>
+        <v>49.67</v>
       </c>
       <c r="D122" t="n">
-        <v>1.98</v>
+        <v>9.91</v>
       </c>
       <c r="E122" t="n">
-        <v>0.9696969696969697</v>
+        <v>0.7892030848329049</v>
       </c>
     </row>
     <row r="123">
@@ -2510,16 +2510,16 @@
         <v>0</v>
       </c>
       <c r="B123" t="n">
-        <v>139.48</v>
+        <v>313.69</v>
       </c>
       <c r="C123" t="n">
-        <v>3.11</v>
+        <v>-3.18</v>
       </c>
       <c r="D123" t="n">
-        <v>1.32</v>
+        <v>1.18</v>
       </c>
       <c r="E123" t="n">
-        <v>0.6005509641873278</v>
+        <v>0.5218508997429306</v>
       </c>
     </row>
     <row r="124">
@@ -2527,16 +2527,16 @@
         <v>0</v>
       </c>
       <c r="B124" t="n">
-        <v>197.6</v>
+        <v>60.15</v>
       </c>
       <c r="C124" t="n">
-        <v>7.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D124" t="n">
-        <v>3.3</v>
+        <v>0.33</v>
       </c>
       <c r="E124" t="n">
-        <v>0.6694214876033058</v>
+        <v>0.5989717223650386</v>
       </c>
     </row>
     <row r="125">
@@ -2544,305 +2544,305 @@
         <v>0</v>
       </c>
       <c r="B125" t="n">
-        <v>352.37</v>
+        <v>789.71</v>
       </c>
       <c r="C125" t="n">
-        <v>-2.5</v>
+        <v>-17.95</v>
       </c>
       <c r="D125" t="n">
-        <v>1.26</v>
+        <v>-8.390000000000001</v>
       </c>
       <c r="E125" t="n">
-        <v>0.559228650137741</v>
+        <v>0.910025706940874</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="B126" t="n">
-        <v>722.29</v>
+        <v>118.92</v>
       </c>
       <c r="C126" t="n">
-        <v>5.43</v>
+        <v>-11.82</v>
       </c>
       <c r="D126" t="n">
-        <v>1.73</v>
+        <v>-1.36</v>
       </c>
       <c r="E126" t="n">
-        <v>0.8402203856749312</v>
+        <v>0.7403598971722365</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="B127" t="n">
-        <v>619.64</v>
+        <v>124.92</v>
       </c>
       <c r="C127" t="n">
-        <v>39.91</v>
+        <v>-10.07</v>
       </c>
       <c r="D127" t="n">
-        <v>0.55</v>
+        <v>0.29</v>
       </c>
       <c r="E127" t="n">
-        <v>0.6749311294765841</v>
+        <v>0.6478149100257069</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="B128" t="n">
-        <v>130.25</v>
+        <v>158.95</v>
       </c>
       <c r="C128" t="n">
-        <v>4.96</v>
+        <v>6.23</v>
       </c>
       <c r="D128" t="n">
-        <v>0.26</v>
+        <v>-1.96</v>
       </c>
       <c r="E128" t="n">
-        <v>0.7410468319559229</v>
+        <v>0.6838046272493573</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="B129" t="n">
-        <v>235.78</v>
+        <v>263.94</v>
       </c>
       <c r="C129" t="n">
-        <v>-3.32</v>
+        <v>-5.31</v>
       </c>
       <c r="D129" t="n">
-        <v>1.27</v>
+        <v>-5.33</v>
       </c>
       <c r="E129" t="n">
-        <v>0.9641873278236914</v>
+        <v>0.8329048843187661</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="B130" t="n">
-        <v>138.11</v>
+        <v>16.6</v>
       </c>
       <c r="C130" t="n">
-        <v>6.7</v>
+        <v>11.07</v>
       </c>
       <c r="D130" t="n">
-        <v>1.18</v>
+        <v>1</v>
       </c>
       <c r="E130" t="n">
-        <v>0.8787878787878788</v>
+        <v>0.5861182519280206</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="B131" t="n">
-        <v>290.63</v>
+        <v>541.6</v>
       </c>
       <c r="C131" t="n">
-        <v>5.98</v>
+        <v>-6.47</v>
       </c>
       <c r="D131" t="n">
-        <v>1.74</v>
+        <v>0.52</v>
       </c>
       <c r="E131" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.7660668380462725</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="B132" t="n">
-        <v>105.2</v>
+        <v>326.96</v>
       </c>
       <c r="C132" t="n">
-        <v>-11.13</v>
+        <v>-5.17</v>
       </c>
       <c r="D132" t="n">
-        <v>2.72</v>
+        <v>-0.51</v>
       </c>
       <c r="E132" t="n">
-        <v>0.71900826446281</v>
+        <v>0.6658097686375322</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B133" t="n">
-        <v>210.82</v>
+        <v>231.44</v>
       </c>
       <c r="C133" t="n">
-        <v>9.699999999999999</v>
+        <v>-15.17</v>
       </c>
       <c r="D133" t="n">
-        <v>4.01</v>
+        <v>-3.69</v>
       </c>
       <c r="E133" t="n">
-        <v>0.8264462809917356</v>
+        <v>0.8097686375321337</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="B134" t="n">
-        <v>193.39</v>
+        <v>144.42</v>
       </c>
       <c r="C134" t="n">
-        <v>-4.6</v>
+        <v>-2.29</v>
       </c>
       <c r="D134" t="n">
-        <v>0.33</v>
+        <v>-1.9</v>
       </c>
       <c r="E134" t="n">
-        <v>0.6831955922865014</v>
+        <v>0.7069408740359897</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="B135" t="n">
-        <v>168.75</v>
+        <v>118.54</v>
       </c>
       <c r="C135" t="n">
-        <v>-2.81</v>
+        <v>-2.43</v>
       </c>
       <c r="D135" t="n">
-        <v>1.34</v>
+        <v>-1.36</v>
       </c>
       <c r="E135" t="n">
-        <v>0.859504132231405</v>
+        <v>0.6863753213367609</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="B136" t="n">
-        <v>317.72</v>
+        <v>618.96</v>
       </c>
       <c r="C136" t="n">
-        <v>8.210000000000001</v>
+        <v>-6.64</v>
       </c>
       <c r="D136" t="n">
-        <v>1.25</v>
+        <v>1.67</v>
       </c>
       <c r="E136" t="n">
-        <v>0.7575757575757576</v>
+        <v>0.7917737789203085</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="B137" t="n">
-        <v>191.15</v>
+        <v>111.91</v>
       </c>
       <c r="C137" t="n">
-        <v>6.15</v>
+        <v>-4.24</v>
       </c>
       <c r="D137" t="n">
-        <v>2.14</v>
+        <v>0.98</v>
       </c>
       <c r="E137" t="n">
-        <v>0.9807162534435262</v>
+        <v>0.5526992287917738</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="B138" t="n">
-        <v>174.16</v>
+        <v>986.33</v>
       </c>
       <c r="C138" t="n">
-        <v>7.77</v>
+        <v>-5.15</v>
       </c>
       <c r="D138" t="n">
-        <v>0.68</v>
+        <v>-6.89</v>
       </c>
       <c r="E138" t="n">
-        <v>0.7741046831955923</v>
+        <v>0.9177377892030848</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="B139" t="n">
-        <v>144.8</v>
+        <v>184.04</v>
       </c>
       <c r="C139" t="n">
-        <v>1.39</v>
+        <v>22.15</v>
       </c>
       <c r="D139" t="n">
-        <v>1.71</v>
+        <v>0.46</v>
       </c>
       <c r="E139" t="n">
-        <v>0.6639118457300276</v>
+        <v>0.5706940874035989</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="B140" t="n">
-        <v>239.02</v>
+        <v>264.87</v>
       </c>
       <c r="C140" t="n">
-        <v>14.71</v>
+        <v>-5.71</v>
       </c>
       <c r="D140" t="n">
-        <v>4.71</v>
+        <v>-2.71</v>
       </c>
       <c r="E140" t="n">
-        <v>0.9862258953168044</v>
+        <v>0.7480719794344473</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="B141" t="n">
-        <v>217.95</v>
+        <v>143.96</v>
       </c>
       <c r="C141" t="n">
-        <v>10.46</v>
+        <v>18.98</v>
       </c>
       <c r="D141" t="n">
-        <v>1.57</v>
+        <v>13.23</v>
       </c>
       <c r="E141" t="n">
-        <v>0.9944903581267218</v>
+        <v>0.6915167095115681</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="B142" t="n">
-        <v>143.61</v>
+        <v>445.34</v>
       </c>
       <c r="C142" t="n">
-        <v>-0.79</v>
+        <v>0.03</v>
       </c>
       <c r="D142" t="n">
-        <v>1.05</v>
+        <v>-0.68</v>
       </c>
       <c r="E142" t="n">
-        <v>0.7961432506887053</v>
+        <v>0.7300771208226221</v>
       </c>
     </row>
     <row r="143">
@@ -2850,186 +2850,186 @@
         <v>0</v>
       </c>
       <c r="B143" t="n">
-        <v>572.71</v>
+        <v>155</v>
       </c>
       <c r="C143" t="n">
-        <v>0.73</v>
+        <v>-10.2</v>
       </c>
       <c r="D143" t="n">
-        <v>1.94</v>
+        <v>0.66</v>
       </c>
       <c r="E143" t="n">
-        <v>0.5068870523415978</v>
+        <v>0.6169665809768637</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="B144" t="n">
-        <v>377.17</v>
+        <v>135.45</v>
       </c>
       <c r="C144" t="n">
-        <v>2.43</v>
+        <v>35.38</v>
       </c>
       <c r="D144" t="n">
-        <v>0.65</v>
+        <v>-0.4</v>
       </c>
       <c r="E144" t="n">
-        <v>0.8071625344352618</v>
+        <v>0.7557840616966581</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="B145" t="n">
-        <v>201.96</v>
+        <v>152.73</v>
       </c>
       <c r="C145" t="n">
-        <v>5.28</v>
+        <v>11.86</v>
       </c>
       <c r="D145" t="n">
-        <v>0.4</v>
+        <v>-1.76</v>
       </c>
       <c r="E145" t="n">
-        <v>0.7796143250688705</v>
+        <v>0.6760925449871465</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="B146" t="n">
-        <v>184.72</v>
+        <v>244.84</v>
       </c>
       <c r="C146" t="n">
-        <v>11.7</v>
+        <v>-10.81</v>
       </c>
       <c r="D146" t="n">
-        <v>0.58</v>
+        <v>-2.42</v>
       </c>
       <c r="E146" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.7583547557840618</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>1.37</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="B147" t="n">
-        <v>186.8</v>
+        <v>17.88</v>
       </c>
       <c r="C147" t="n">
-        <v>0.01</v>
+        <v>-14</v>
       </c>
       <c r="D147" t="n">
-        <v>2.32</v>
+        <v>-3.99</v>
       </c>
       <c r="E147" t="n">
-        <v>0.9228650137741047</v>
+        <v>0.794344473007712</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="B148" t="n">
-        <v>131.05</v>
+        <v>475.91</v>
       </c>
       <c r="C148" t="n">
-        <v>5.93</v>
+        <v>-3.06</v>
       </c>
       <c r="D148" t="n">
-        <v>0.91</v>
+        <v>0.53</v>
       </c>
       <c r="E148" t="n">
-        <v>0.8126721763085399</v>
+        <v>0.712082262210797</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="B149" t="n">
-        <v>295.11</v>
+        <v>552.47</v>
       </c>
       <c r="C149" t="n">
-        <v>-3.29</v>
+        <v>-3.98</v>
       </c>
       <c r="D149" t="n">
-        <v>1.18</v>
+        <v>-3.05</v>
       </c>
       <c r="E149" t="n">
-        <v>0.8319559228650137</v>
+        <v>0.8457583547557841</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="B150" t="n">
-        <v>205.86</v>
+        <v>2420.71</v>
       </c>
       <c r="C150" t="n">
-        <v>-3.02</v>
+        <v>8.31</v>
       </c>
       <c r="D150" t="n">
-        <v>1.72</v>
+        <v>-1.31</v>
       </c>
       <c r="E150" t="n">
-        <v>0.7520661157024794</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="B151" t="n">
-        <v>659</v>
+        <v>178.19</v>
       </c>
       <c r="C151" t="n">
-        <v>-11.29</v>
+        <v>13.86</v>
       </c>
       <c r="D151" t="n">
-        <v>0.68</v>
+        <v>-1.05</v>
       </c>
       <c r="E151" t="n">
-        <v>0.6611570247933884</v>
+        <v>0.6195372750642674</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="B152" t="n">
-        <v>138.32</v>
+        <v>139.03</v>
       </c>
       <c r="C152" t="n">
-        <v>22.43</v>
+        <v>2.58</v>
       </c>
       <c r="D152" t="n">
-        <v>-0.18</v>
+        <v>-0.78</v>
       </c>
       <c r="E152" t="n">
-        <v>0.6776859504132231</v>
+        <v>0.6118251928020566</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="B153" t="n">
-        <v>268.48</v>
+        <v>81.26000000000001</v>
       </c>
       <c r="C153" t="n">
-        <v>0.22</v>
+        <v>4.23</v>
       </c>
       <c r="D153" t="n">
-        <v>2.05</v>
+        <v>-4.16</v>
       </c>
       <c r="E153" t="n">
-        <v>0.7851239669421488</v>
+        <v>0.7866323907455013</v>
       </c>
     </row>
     <row r="154">
@@ -3037,50 +3037,50 @@
         <v>0</v>
       </c>
       <c r="B154" t="n">
-        <v>216.84</v>
+        <v>35.85</v>
       </c>
       <c r="C154" t="n">
-        <v>-0.79</v>
+        <v>-20.48</v>
       </c>
       <c r="D154" t="n">
-        <v>0.93</v>
+        <v>-3.87</v>
       </c>
       <c r="E154" t="n">
-        <v>0.5564738292011019</v>
+        <v>0.8508997429305912</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="B155" t="n">
-        <v>117.03</v>
+        <v>7215.22</v>
       </c>
       <c r="C155" t="n">
-        <v>-2.17</v>
+        <v>3.51</v>
       </c>
       <c r="D155" t="n">
-        <v>0.79</v>
+        <v>2.17</v>
       </c>
       <c r="E155" t="n">
-        <v>0.6446280991735537</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>1.09</v>
+        <v>1.13</v>
       </c>
       <c r="B156" t="n">
-        <v>246.68</v>
+        <v>119.07</v>
       </c>
       <c r="C156" t="n">
-        <v>4.34</v>
+        <v>40.88</v>
       </c>
       <c r="D156" t="n">
-        <v>2.63</v>
+        <v>3.36</v>
       </c>
       <c r="E156" t="n">
-        <v>0.8677685950413223</v>
+        <v>0.5295629820051414</v>
       </c>
     </row>
     <row r="157">
@@ -3088,33 +3088,33 @@
         <v>0</v>
       </c>
       <c r="B157" t="n">
-        <v>112.85</v>
+        <v>160.57</v>
       </c>
       <c r="C157" t="n">
-        <v>2.19</v>
+        <v>-17.02</v>
       </c>
       <c r="D157" t="n">
-        <v>1.87</v>
+        <v>-4.03</v>
       </c>
       <c r="E157" t="n">
-        <v>0.6198347107438017</v>
+        <v>0.8406169665809768</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="B158" t="n">
-        <v>227.72</v>
+        <v>1173.76</v>
       </c>
       <c r="C158" t="n">
-        <v>-1.96</v>
+        <v>-0.3</v>
       </c>
       <c r="D158" t="n">
-        <v>1.16</v>
+        <v>-2.99</v>
       </c>
       <c r="E158" t="n">
-        <v>0.721763085399449</v>
+        <v>0.9254498714652957</v>
       </c>
     </row>
     <row r="159">
@@ -3122,16 +3122,16 @@
         <v>0</v>
       </c>
       <c r="B159" t="n">
-        <v>177.37</v>
+        <v>109.7</v>
       </c>
       <c r="C159" t="n">
-        <v>2.84</v>
+        <v>-11.44</v>
       </c>
       <c r="D159" t="n">
-        <v>0.8</v>
+        <v>-0.39</v>
       </c>
       <c r="E159" t="n">
-        <v>0.5619834710743802</v>
+        <v>0.7017994858611826</v>
       </c>
     </row>
     <row r="160">
@@ -3139,118 +3139,118 @@
         <v>0</v>
       </c>
       <c r="B160" t="n">
-        <v>176.49</v>
+        <v>128.18</v>
       </c>
       <c r="C160" t="n">
-        <v>10.8</v>
+        <v>1.51</v>
       </c>
       <c r="D160" t="n">
-        <v>1.38</v>
+        <v>-2.29</v>
       </c>
       <c r="E160" t="n">
-        <v>0.6060606060606061</v>
+        <v>0.7249357326478149</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="B161" t="n">
-        <v>173.01</v>
+        <v>772.78</v>
       </c>
       <c r="C161" t="n">
-        <v>5.61</v>
+        <v>-10.66</v>
       </c>
       <c r="D161" t="n">
-        <v>3.56</v>
+        <v>-0.22</v>
       </c>
       <c r="E161" t="n">
-        <v>0.9338842975206612</v>
+        <v>0.87146529562982</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="B162" t="n">
-        <v>172.93</v>
+        <v>9506.860000000001</v>
       </c>
       <c r="C162" t="n">
-        <v>-0.78</v>
+        <v>-1.98</v>
       </c>
       <c r="D162" t="n">
-        <v>2.69</v>
+        <v>-0.31</v>
       </c>
       <c r="E162" t="n">
-        <v>0.9201101928374655</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="B163" t="n">
-        <v>181.86</v>
+        <v>75.98999999999999</v>
       </c>
       <c r="C163" t="n">
-        <v>6.85</v>
+        <v>-1.57</v>
       </c>
       <c r="D163" t="n">
-        <v>3.15</v>
+        <v>-4.17</v>
       </c>
       <c r="E163" t="n">
-        <v>0.8870523415977961</v>
+        <v>0.7969151670951157</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>1.02</v>
+        <v>0.47</v>
       </c>
       <c r="B164" t="n">
-        <v>150.57</v>
+        <v>148.05</v>
       </c>
       <c r="C164" t="n">
-        <v>-8.24</v>
+        <v>-4.27</v>
       </c>
       <c r="D164" t="n">
-        <v>0.6899999999999999</v>
+        <v>-2.33</v>
       </c>
       <c r="E164" t="n">
-        <v>0.7327823691460055</v>
+        <v>0.7043701799485861</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="B165" t="n">
-        <v>184.5</v>
+        <v>30.96</v>
       </c>
       <c r="C165" t="n">
-        <v>0.57</v>
+        <v>0.79</v>
       </c>
       <c r="D165" t="n">
-        <v>4.01</v>
+        <v>0.28</v>
       </c>
       <c r="E165" t="n">
-        <v>0.9559228650137741</v>
+        <v>0.6246786632390745</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="B166" t="n">
-        <v>122.21</v>
+        <v>631.53</v>
       </c>
       <c r="C166" t="n">
-        <v>8.300000000000001</v>
+        <v>-8.720000000000001</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.36</v>
+        <v>-0.53</v>
       </c>
       <c r="E166" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.8431876606683805</v>
       </c>
     </row>
     <row r="167">
@@ -3258,84 +3258,84 @@
         <v>1.38</v>
       </c>
       <c r="B167" t="n">
-        <v>274.53</v>
+        <v>1015.04</v>
       </c>
       <c r="C167" t="n">
-        <v>-8.029999999999999</v>
+        <v>59.45</v>
       </c>
       <c r="D167" t="n">
-        <v>1.05</v>
+        <v>52.49</v>
       </c>
       <c r="E167" t="n">
-        <v>0.8705234159779615</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="B168" t="n">
-        <v>236.42</v>
+        <v>101.4</v>
       </c>
       <c r="C168" t="n">
-        <v>18.45</v>
+        <v>-0.61</v>
       </c>
       <c r="D168" t="n">
-        <v>4.31</v>
+        <v>-6.17</v>
       </c>
       <c r="E168" t="n">
-        <v>0.9449035812672176</v>
+        <v>0.8483290488431876</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="B169" t="n">
-        <v>140.81</v>
+        <v>272.27</v>
       </c>
       <c r="C169" t="n">
-        <v>6.45</v>
+        <v>-6.18</v>
       </c>
       <c r="D169" t="n">
-        <v>0.6</v>
+        <v>-4.63</v>
       </c>
       <c r="E169" t="n">
-        <v>0.5399449035812672</v>
+        <v>0.7737789203084833</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="B170" t="n">
-        <v>215.54</v>
+        <v>190.56</v>
       </c>
       <c r="C170" t="n">
-        <v>-2.17</v>
+        <v>2.54</v>
       </c>
       <c r="D170" t="n">
-        <v>1.11</v>
+        <v>-5.42</v>
       </c>
       <c r="E170" t="n">
-        <v>0.7548209366391184</v>
+        <v>0.8123393316195373</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="B171" t="n">
-        <v>380.57</v>
+        <v>345.58</v>
       </c>
       <c r="C171" t="n">
-        <v>0.13</v>
+        <v>-3.38</v>
       </c>
       <c r="D171" t="n">
-        <v>0.35</v>
+        <v>-4.23</v>
       </c>
       <c r="E171" t="n">
-        <v>0.8622589531680441</v>
+        <v>0.8046272493573264</v>
       </c>
     </row>
     <row r="172">
@@ -3343,101 +3343,101 @@
         <v>0</v>
       </c>
       <c r="B172" t="n">
-        <v>136.78</v>
+        <v>1317.16</v>
       </c>
       <c r="C172" t="n">
-        <v>11.95</v>
+        <v>1.18</v>
       </c>
       <c r="D172" t="n">
-        <v>0.67</v>
+        <v>2.16</v>
       </c>
       <c r="E172" t="n">
-        <v>0.5261707988980716</v>
+        <v>0.9383033419023136</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="B173" t="n">
-        <v>726.08</v>
+        <v>149.97</v>
       </c>
       <c r="C173" t="n">
-        <v>6.47</v>
+        <v>-9.74</v>
       </c>
       <c r="D173" t="n">
-        <v>0.32</v>
+        <v>-1.11</v>
       </c>
       <c r="E173" t="n">
-        <v>0.8154269972451791</v>
+        <v>0.7172236503856041</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="B174" t="n">
-        <v>173.77</v>
+        <v>132.71</v>
       </c>
       <c r="C174" t="n">
-        <v>2.57</v>
+        <v>-1.44</v>
       </c>
       <c r="D174" t="n">
-        <v>2.23</v>
+        <v>-1.93</v>
       </c>
       <c r="E174" t="n">
-        <v>0.9889807162534435</v>
+        <v>0.7095115681233933</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="B175" t="n">
-        <v>212.75</v>
+        <v>97.37</v>
       </c>
       <c r="C175" t="n">
-        <v>-0.79</v>
+        <v>58.37</v>
       </c>
       <c r="D175" t="n">
-        <v>0.84</v>
+        <v>33.49</v>
       </c>
       <c r="E175" t="n">
-        <v>0.5509641873278237</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="B176" t="n">
-        <v>360.36</v>
+        <v>90.54000000000001</v>
       </c>
       <c r="C176" t="n">
-        <v>30.28</v>
+        <v>-9.970000000000001</v>
       </c>
       <c r="D176" t="n">
-        <v>2.13</v>
+        <v>-4.45</v>
       </c>
       <c r="E176" t="n">
-        <v>0.7658402203856749</v>
+        <v>0.8226221079691517</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="B177" t="n">
-        <v>187.01</v>
+        <v>604.5</v>
       </c>
       <c r="C177" t="n">
-        <v>0.78</v>
+        <v>1.71</v>
       </c>
       <c r="D177" t="n">
-        <v>1.27</v>
+        <v>1.54</v>
       </c>
       <c r="E177" t="n">
-        <v>0.8567493112947658</v>
+        <v>0.5475578406169666</v>
       </c>
     </row>
     <row r="178">
@@ -3445,16 +3445,16 @@
         <v>0</v>
       </c>
       <c r="B178" t="n">
-        <v>136.39</v>
+        <v>2675.96</v>
       </c>
       <c r="C178" t="n">
-        <v>1.14</v>
+        <v>-20.65</v>
       </c>
       <c r="D178" t="n">
-        <v>1.88</v>
+        <v>-11.57</v>
       </c>
       <c r="E178" t="n">
-        <v>0.6225895316804407</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -3462,84 +3462,305 @@
         <v>0</v>
       </c>
       <c r="B179" t="n">
-        <v>222.71</v>
+        <v>284.2</v>
       </c>
       <c r="C179" t="n">
-        <v>-5.49</v>
+        <v>-6.31</v>
       </c>
       <c r="D179" t="n">
-        <v>1.77</v>
+        <v>1.12</v>
       </c>
       <c r="E179" t="n">
-        <v>0.5757575757575758</v>
+        <v>0.5449871465295629</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>1.05</v>
+        <v>1.24</v>
       </c>
       <c r="B180" t="n">
-        <v>259.4</v>
+        <v>4899</v>
       </c>
       <c r="C180" t="n">
-        <v>3.44</v>
+        <v>4.97</v>
       </c>
       <c r="D180" t="n">
-        <v>1.37</v>
+        <v>5.86</v>
       </c>
       <c r="E180" t="n">
-        <v>0.8044077134986226</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="B181" t="n">
-        <v>205.05</v>
+        <v>137.96</v>
       </c>
       <c r="C181" t="n">
-        <v>1.86</v>
+        <v>45.33</v>
       </c>
       <c r="D181" t="n">
-        <v>2.9</v>
+        <v>-1.05</v>
       </c>
       <c r="E181" t="n">
-        <v>0.9724517906336089</v>
+        <v>0.8380462724935732</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="B182" t="n">
-        <v>51.5</v>
+        <v>111.03</v>
       </c>
       <c r="C182" t="n">
-        <v>-4.17</v>
+        <v>-10.66</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.55</v>
+        <v>1.89</v>
       </c>
       <c r="E182" t="n">
-        <v>0.7493112947658402</v>
+        <v>0.5886889460154242</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="B183" t="n">
-        <v>210.81</v>
+        <v>119.4</v>
       </c>
       <c r="C183" t="n">
-        <v>4.87</v>
+        <v>108.7</v>
       </c>
       <c r="D183" t="n">
-        <v>0.19</v>
+        <v>6.13</v>
       </c>
       <c r="E183" t="n">
-        <v>0.8815426997245179</v>
+        <v>0.9331619537275064</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>0</v>
+      </c>
+      <c r="B184" t="n">
+        <v>447.67</v>
+      </c>
+      <c r="C184" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="D184" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0.5167095115681234</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>0</v>
+      </c>
+      <c r="B185" t="n">
+        <v>261.83</v>
+      </c>
+      <c r="C185" t="n">
+        <v>-1.01</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0.5244215938303342</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="B186" t="n">
+        <v>1596.22</v>
+      </c>
+      <c r="C186" t="n">
+        <v>64.66</v>
+      </c>
+      <c r="D186" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="E186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="B187" t="n">
+        <v>1102.12</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="D187" t="n">
+        <v>9.76</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0.8946015424164524</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="B188" t="n">
+        <v>537.39</v>
+      </c>
+      <c r="C188" t="n">
+        <v>15.64</v>
+      </c>
+      <c r="D188" t="n">
+        <v>13.06</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0.6786632390745502</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>0</v>
+      </c>
+      <c r="B189" t="n">
+        <v>432.96</v>
+      </c>
+      <c r="C189" t="n">
+        <v>-3.98</v>
+      </c>
+      <c r="D189" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0.5758354755784062</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>0</v>
+      </c>
+      <c r="B190" t="n">
+        <v>121.23</v>
+      </c>
+      <c r="C190" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="D190" t="n">
+        <v>-20.15</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0.9434447300771208</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>0</v>
+      </c>
+      <c r="B191" t="n">
+        <v>231.29</v>
+      </c>
+      <c r="C191" t="n">
+        <v>-0.54</v>
+      </c>
+      <c r="D191" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0.5938303341902313</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="B192" t="n">
+        <v>243.18</v>
+      </c>
+      <c r="C192" t="n">
+        <v>69.56999999999999</v>
+      </c>
+      <c r="D192" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0.8611825192802056</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>0</v>
+      </c>
+      <c r="B193" t="n">
+        <v>667.16</v>
+      </c>
+      <c r="C193" t="n">
+        <v>-15.6</v>
+      </c>
+      <c r="D193" t="n">
+        <v>-10.15</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0.9048843187660668</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>0</v>
+      </c>
+      <c r="B194" t="n">
+        <v>915.1799999999999</v>
+      </c>
+      <c r="C194" t="n">
+        <v>-8.07</v>
+      </c>
+      <c r="D194" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0.884318766066838</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="B195" t="n">
+        <v>117.08</v>
+      </c>
+      <c r="C195" t="n">
+        <v>166.72</v>
+      </c>
+      <c r="D195" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="E195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>0</v>
+      </c>
+      <c r="B196" t="n">
+        <v>122.1</v>
+      </c>
+      <c r="C196" t="n">
+        <v>70.65000000000001</v>
+      </c>
+      <c r="D196" t="n">
+        <v>-6.8</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0.9125964010282777</v>
       </c>
     </row>
   </sheetData>
